--- a/PropertyListing.xlsx
+++ b/PropertyListing.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aykut\Documents\UiPath\Bot4_RealEstateWebScraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F317DB3A-21E1-4F10-9BEA-8F0A1DF1BE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1F2AAB-CF72-40FD-AA58-7920FABD93E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E21BD628-5F59-4AD9-80D4-4CA013637FBB}"/>
   </bookViews>
   <sheets>
-    <sheet name="New York" sheetId="2" r:id="rId1"/>
+    <sheet name="NEW YORK" sheetId="2" r:id="rId1"/>
     <sheet name="Sayfa1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>

--- a/PropertyListing.xlsx
+++ b/PropertyListing.xlsx
@@ -8,36 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aykut\Documents\UiPath\Bot4_RealEstateWebScraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1F2AAB-CF72-40FD-AA58-7920FABD93E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E06CAE6-77D0-4539-8423-DC7C2DDCE208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E21BD628-5F59-4AD9-80D4-4CA013637FBB}"/>
   </bookViews>
   <sheets>
-    <sheet name="NEW YORK" sheetId="2" r:id="rId1"/>
-    <sheet name="Sayfa1" sheetId="1" r:id="rId2"/>
+    <sheet name="LAS VEGAS" sheetId="4" r:id="rId1"/>
+    <sheet name="NEW YORK" sheetId="2" r:id="rId2"/>
+    <sheet name="Sayfa1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="403">
   <si>
     <t>Price</t>
   </si>
@@ -640,6 +630,612 @@
   </si>
   <si>
     <t>https://www.zillow.com/homedetails/301-Newcastle-Rd-Syracuse-NY-13219/31736247_zpid/</t>
+  </si>
+  <si>
+    <t>10541 Thor Mountain Ln, Las Vegas, NV 89166</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/10541-Thor-Mountain-Ln-Las-Vegas-NV-89166/126287268_zpid/</t>
+  </si>
+  <si>
+    <t>3218 Brookfield Dr, Las Vegas, NV 89120</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3218-Brookfield-Dr-Las-Vegas-NV-89120/7100841_zpid/</t>
+  </si>
+  <si>
+    <t>7001 Ballroom Ct, Las Vegas, NV 89130</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7001-Ballroom-Ct-Las-Vegas-NV-89130/6897249_zpid/</t>
+  </si>
+  <si>
+    <t>3025 Solstice Ct, Las Vegas, NV 89138</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3025-Solstice-Ct-Las-Vegas-NV-89138/295537946_zpid/</t>
+  </si>
+  <si>
+    <t>7312 La Mona Ct, Las Vegas, NV 89128</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7312-La-Mona-Ct-Las-Vegas-NV-89128/6963138_zpid/</t>
+  </si>
+  <si>
+    <t>2753 Port Of Call Dr, Las Vegas, NV 89128</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2753-Port-Of-Call-Dr-Las-Vegas-NV-89128/6937466_zpid/</t>
+  </si>
+  <si>
+    <t>7236 Victoria Oak Ct, Las Vegas, NV 89148</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7236-Victoria-Oak-Ct-Las-Vegas-NV-89148/55108917_zpid/</t>
+  </si>
+  <si>
+    <t>7637 Tiny Tortoise St, Las Vegas, NV 89149</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7637-Tiny-Tortoise-St-Las-Vegas-NV-89149/66833856_zpid/</t>
+  </si>
+  <si>
+    <t>9321 Colorful Rainbow Ave, Las Vegas, NV 89166</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/9321-Colorful-Rainbow-Ave-Las-Vegas-NV-89166/72235931_zpid/</t>
+  </si>
+  <si>
+    <t>8713 Wildcat Canyon Ave, Las Vegas, NV 89178</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/8713-Wildcat-Canyon-Ave-Las-Vegas-NV-89178/62980982_zpid/</t>
+  </si>
+  <si>
+    <t>8636 Grandbank Dr, Las Vegas, NV 89145</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/8636-Grandbank-Dr-Las-Vegas-NV-89145/6970520_zpid/</t>
+  </si>
+  <si>
+    <t>7165 Summer Air Ave, Las Vegas, NV 89179</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7165-Summer-Air-Ave-Las-Vegas-NV-89179/123487353_zpid/</t>
+  </si>
+  <si>
+    <t>5909 Wildhorse Ledge Ave, Las Vegas, NV 89131</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5909-Wildhorse-Ledge-Ave-Las-Vegas-NV-89131/59400679_zpid/</t>
+  </si>
+  <si>
+    <t>8117 Gothic Ave, Las Vegas, NV 89117</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/8117-Gothic-Ave-Las-Vegas-NV-89117/7108027_zpid/</t>
+  </si>
+  <si>
+    <t>1632 Dia Del Sol Way, Las Vegas, NV 89128</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1632-Dia-Del-Sol-Way-Las-Vegas-NV-89128/6947413_zpid/</t>
+  </si>
+  <si>
+    <t>9316 Sun Rose Ave, Las Vegas, NV 89134</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/9316-Sun-Rose-Ave-Las-Vegas-NV-89134/6943892_zpid/</t>
+  </si>
+  <si>
+    <t>4194 Agosta Luna Pl, Las Vegas, NV 89135</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4194-Agosta-Luna-Pl-Las-Vegas-NV-89135/55108530_zpid/</t>
+  </si>
+  <si>
+    <t>2935 Brindle Ct, Las Vegas, NV 89117</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2935-Brindle-Ct-Las-Vegas-NV-89117/53371583_zpid/</t>
+  </si>
+  <si>
+    <t>9376 Leaping Lilly Ave, Las Vegas, NV 89129</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/9376-Leaping-Lilly-Ave-Las-Vegas-NV-89129/6923394_zpid/</t>
+  </si>
+  <si>
+    <t>9064 Salvatore St, Las Vegas, NV 89148</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/9064-Salvatore-St-Las-Vegas-NV-89148/82526230_zpid/</t>
+  </si>
+  <si>
+    <t>8740 Rainbow Ridge Dr, Las Vegas, NV 89117</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/8740-Rainbow-Ridge-Dr-Las-Vegas-NV-89117/7109556_zpid/</t>
+  </si>
+  <si>
+    <t>7208 Stormson Dr, Las Vegas, NV 89145</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7208-Stormson-Dr-Las-Vegas-NV-89145/6974875_zpid/</t>
+  </si>
+  <si>
+    <t>3719 Amber Lantern Cir, Las Vegas, NV 89147</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3719-Amber-Lantern-Cir-Las-Vegas-NV-89147/7128112_zpid/</t>
+  </si>
+  <si>
+    <t>10780 Tapestry Winds St, Las Vegas, NV 89141</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/10780-Tapestry-Winds-St-Las-Vegas-NV-89141/55109998_zpid/</t>
+  </si>
+  <si>
+    <t>4851 Aveneda Grande, Las Vegas, NV 89121</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4851-Aveneda-Grande-Las-Vegas-NV-89121/7061643_zpid/</t>
+  </si>
+  <si>
+    <t>5855 Rainbow Trout Ct, Las Vegas, NV 89113</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5855-Rainbow-Trout-Ct-Las-Vegas-NV-89113/7148720_zpid/</t>
+  </si>
+  <si>
+    <t>5320 Bright Sky Ct, Las Vegas, NV 89130</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5320-Bright-Sky-Ct-Las-Vegas-NV-89130/6895737_zpid/</t>
+  </si>
+  <si>
+    <t>5785 Canyon Oak Cir, Las Vegas, NV 89142</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5785-Canyon-Oak-Cir-Las-Vegas-NV-89142/7048678_zpid/</t>
+  </si>
+  <si>
+    <t>1570 Laurel Oak Dr, Las Vegas, NV 89123</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1570-Laurel-Oak-Dr-Las-Vegas-NV-89123/7159045_zpid/</t>
+  </si>
+  <si>
+    <t>870 River Point Dr, Las Vegas, NV 89110</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/870-River-Point-Dr-Las-Vegas-NV-89110/7029878_zpid/</t>
+  </si>
+  <si>
+    <t>1872 Mother Of Pearl St, Las Vegas, NV 89106</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1872-Mother-Of-Pearl-St-Las-Vegas-NV-89106/6999835_zpid/</t>
+  </si>
+  <si>
+    <t>1717 Windchime Dr, Las Vegas, NV 89106</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1717-Windchime-Dr-Las-Vegas-NV-89106/6998031_zpid/</t>
+  </si>
+  <si>
+    <t>3001 Haddon Dr, Las Vegas, NV 89134</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3001-Haddon-Dr-Las-Vegas-NV-89134/6941892_zpid/</t>
+  </si>
+  <si>
+    <t>10145 Coffeeberry Ct, Las Vegas, NV 89183</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/10145-Coffeeberry-Ct-Las-Vegas-NV-89183/52212928_zpid/</t>
+  </si>
+  <si>
+    <t>313 Hibiscus Dr, Las Vegas, NV 89107</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/313-Hibiscus-Dr-Las-Vegas-NV-89107/7010204_zpid/</t>
+  </si>
+  <si>
+    <t>4329 Richtown St, Las Vegas, NV 89115</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4329-Richtown-St-Las-Vegas-NV-89115/58536794_zpid/</t>
+  </si>
+  <si>
+    <t>2224 Obispo Cir, Las Vegas, NV 89108</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2224-Obispo-Cir-Las-Vegas-NV-89108/6954060_zpid/</t>
+  </si>
+  <si>
+    <t>813 Canosa Ave, Las Vegas, NV 89104</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/813-Canosa-Ave-Las-Vegas-NV-89104/7079501_zpid/</t>
+  </si>
+  <si>
+    <t>8333 Fawn Meadow Ave, Las Vegas, NV 89149</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/8333-Fawn-Meadow-Ave-Las-Vegas-NV-89149/6893876_zpid/</t>
+  </si>
+  <si>
+    <t>3717 Wilbur McGee Ct, Las Vegas, NV 89129</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3717-Wilbur-McGee-Ct-Las-Vegas-NV-89129/55191516_zpid/</t>
+  </si>
+  <si>
+    <t>3223 Shadow Bluff Ave, Paradise, NV 89120</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3223-Shadow-Bluff-Ave-Paradise-NV-89120/7104231_zpid/</t>
+  </si>
+  <si>
+    <t>7550 W Mesa Verde Ln, Las Vegas, NV 89113</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7550-W-Mesa-Verde-Ln-Las-Vegas-NV-89113/60825498_zpid/</t>
+  </si>
+  <si>
+    <t>3632 Metter St, Las Vegas, NV 89129</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3632-Metter-St-Las-Vegas-NV-89129/80181403_zpid/</t>
+  </si>
+  <si>
+    <t>8987 Lillyhammer Ct, Las Vegas, NV 89147</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/8987-Lillyhammer-Ct-Las-Vegas-NV-89147/7133249_zpid/</t>
+  </si>
+  <si>
+    <t>501 Proud Eagle Ln, Las Vegas, NV 89144</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/501-Proud-Eagle-Ln-Las-Vegas-NV-89144/6968655_zpid/</t>
+  </si>
+  <si>
+    <t>9259 Valley Ranch Ave, Las Vegas, NV 89178</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/9259-Valley-Ranch-Ave-Las-Vegas-NV-89178/94711688_zpid/</t>
+  </si>
+  <si>
+    <t>4498 McMillan Rd, Las Vegas, NV 89121</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4498-McMillan-Rd-Las-Vegas-NV-89121/7057783_zpid/</t>
+  </si>
+  <si>
+    <t>9506 Bella Citta St, Las Vegas, NV 89178</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/9506-Bella-Citta-St-Las-Vegas-NV-89178/68655462_zpid/</t>
+  </si>
+  <si>
+    <t>2903 Galena Peak Ln, Las Vegas, NV 89156</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2903-Galena-Peak-Ln-Las-Vegas-NV-89156/7020819_zpid/</t>
+  </si>
+  <si>
+    <t>8885 S Tenaya Way, Las Vegas, NV 89113</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/8885-S-Tenaya-Way-Las-Vegas-NV-89113/61748650_zpid/</t>
+  </si>
+  <si>
+    <t>10749 Fairfield Ave, Las Vegas, NV 89183</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/10749-Fairfield-Ave-Las-Vegas-NV-89183/7178090_zpid/</t>
+  </si>
+  <si>
+    <t>6520 Bourbon Way, Las Vegas, NV 89107</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6520-Bourbon-Way-Las-Vegas-NV-89107/6977511_zpid/</t>
+  </si>
+  <si>
+    <t>1721 Pomerado Dr, Las Vegas, NV 89128</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1721-Pomerado-Dr-Las-Vegas-NV-89128/6950850_zpid/</t>
+  </si>
+  <si>
+    <t>2295 Crooked Creek Ave, Las Vegas, NV 89123</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2295-Crooked-Creek-Ave-Las-Vegas-NV-89123/52212080_zpid/</t>
+  </si>
+  <si>
+    <t>7935 Quail Cap St, Las Vegas, NV 89131</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7935-Quail-Cap-St-Las-Vegas-NV-89131/59431999_zpid/</t>
+  </si>
+  <si>
+    <t>1849 Versante Ave, Las Vegas, NV 89183</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1849-Versante-Ave-Las-Vegas-NV-89183/66858940_zpid/</t>
+  </si>
+  <si>
+    <t>9838 Peaceful Bend Ct, Las Vegas, NV 89141</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/9838-Peaceful-Bend-Ct-Las-Vegas-NV-89141/243071682_zpid/</t>
+  </si>
+  <si>
+    <t>11842 Cogoleto Ave, Las Vegas, NV 89138</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/11842-Cogoleto-Ave-Las-Vegas-NV-89138/295538075_zpid/</t>
+  </si>
+  <si>
+    <t>5884 Lambert Bridge Ave, Las Vegas, NV 89139</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5884-Lambert-Bridge-Ave-Las-Vegas-NV-89139/98569090_zpid/</t>
+  </si>
+  <si>
+    <t>10434 Vista Argento Ave, Las Vegas, NV 89166</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/10434-Vista-Argento-Ave-Las-Vegas-NV-89166/347975078_zpid/</t>
+  </si>
+  <si>
+    <t>6791 Bonillo Dr, Las Vegas, NV 89103</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6791-Bonillo-Dr-Las-Vegas-NV-89103/7122813_zpid/</t>
+  </si>
+  <si>
+    <t>1408 S 6th St, Las Vegas, NV 89104</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1408-S-6th-St-Las-Vegas-NV-89104/7078296_zpid/</t>
+  </si>
+  <si>
+    <t>7717 Native Winds Ct, Las Vegas, NV 89149</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7717-Native-Winds-Ct-Las-Vegas-NV-89149/66833866_zpid/</t>
+  </si>
+  <si>
+    <t>8413 Teton Crest Pl, Las Vegas, NV 89143</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/8413-Teton-Crest-Pl-Las-Vegas-NV-89143/79874234_zpid/</t>
+  </si>
+  <si>
+    <t>725 N Royal Crest Cir UNIT 251, Las Vegas, NV 89169</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/725-N-Royal-Crest-Cir-UNIT-251-Las-Vegas-NV-89169/7092585_zpid/</t>
+  </si>
+  <si>
+    <t>3857 Montone Ave, Las Vegas, NV 89141</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3857-Montone-Ave-Las-Vegas-NV-89141/243077583_zpid/</t>
+  </si>
+  <si>
+    <t>7285 Bridgeview Ave, Spring Valley, NV 89147</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7285-Bridgeview-Ave-Spring-Valley-NV-89147/7125377_zpid/</t>
+  </si>
+  <si>
+    <t>6385 Darby Ave, Las Vegas, NV 89146</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6385-Darby-Ave-Las-Vegas-NV-89146/7119211_zpid/</t>
+  </si>
+  <si>
+    <t>4532 Hearts Desire Ave, Las Vegas, NV 89115</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4532-Hearts-Desire-Ave-Las-Vegas-NV-89115/68270225_zpid/</t>
+  </si>
+  <si>
+    <t>4465 Avery Park Ave, Las Vegas, NV 89110</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4465-Avery-Park-Ave-Las-Vegas-NV-89110/72168966_zpid/</t>
+  </si>
+  <si>
+    <t>9580 Summersweet Ct, Las Vegas, NV 89123</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/9580-Summersweet-Ct-Las-Vegas-NV-89123/7174098_zpid/</t>
+  </si>
+  <si>
+    <t>6869 Scarlet Flax St, Spring Valley, NV 89148</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6869-Scarlet-Flax-St-Spring-Valley-NV-89148/60957911_zpid/</t>
+  </si>
+  <si>
+    <t>7313 Rietz Canyon St, Las Vegas, NV 89131</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7313-Rietz-Canyon-St-Las-Vegas-NV-89131/61496147_zpid/</t>
+  </si>
+  <si>
+    <t>8725 Country Pines Ave, Las Vegas, NV 89129</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/8725-Country-Pines-Ave-Las-Vegas-NV-89129/6925946_zpid/</t>
+  </si>
+  <si>
+    <t>5112 Ivy Creek Ct, Las Vegas, NV 89141</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5112-Ivy-Creek-Ct-Las-Vegas-NV-89141/66851241_zpid/</t>
+  </si>
+  <si>
+    <t>7923 Laurelton Pl, Las Vegas, NV 89147</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7923-Laurelton-Pl-Las-Vegas-NV-89147/7135453_zpid/</t>
+  </si>
+  <si>
+    <t>7401 Central Butte Ave, Las Vegas, NV 89129</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7401-Central-Butte-Ave-Las-Vegas-NV-89129/6929461_zpid/</t>
+  </si>
+  <si>
+    <t>6221 Rosalita Ave, Las Vegas, NV 89108</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6221-Rosalita-Ave-Las-Vegas-NV-89108/6954017_zpid/</t>
+  </si>
+  <si>
+    <t>7359 Wild Roar Ave, Las Vegas, NV 89129</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7359-Wild-Roar-Ave-Las-Vegas-NV-89129/61306175_zpid/</t>
+  </si>
+  <si>
+    <t>14 bds</t>
+  </si>
+  <si>
+    <t>2801 Pinto Ln, Las Vegas, NV 89107</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2801-Pinto-Ln-Las-Vegas-NV-89107/7013635_zpid/</t>
+  </si>
+  <si>
+    <t>9313 Queen Charlotte Dr, Las Vegas, NV 89145</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/9313-Queen-Charlotte-Dr-Las-Vegas-NV-89145/55024012_zpid/</t>
+  </si>
+  <si>
+    <t>178 Skipping Stone Ln, Las Vegas, NV 89123</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/178-Skipping-Stone-Ln-Las-Vegas-NV-89123/7168619_zpid/</t>
+  </si>
+  <si>
+    <t>2736 Chokeberry Ct, Las Vegas, NV 89108</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2736-Chokeberry-Ct-Las-Vegas-NV-89108/6935290_zpid/</t>
+  </si>
+  <si>
+    <t>7808 Riviera Beach Dr, Las Vegas, NV 89128</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7808-Riviera-Beach-Dr-Las-Vegas-NV-89128/6937933_zpid/</t>
+  </si>
+  <si>
+    <t>5993 College Park Ln, Las Vegas, NV 89110</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5993-College-Park-Ln-Las-Vegas-NV-89110/7029628_zpid/</t>
+  </si>
+  <si>
+    <t>9728 Foxtrap Ave, Las Vegas, NV 89145</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/9728-Foxtrap-Ave-Las-Vegas-NV-89145/6969955_zpid/</t>
+  </si>
+  <si>
+    <t>3909 Narrow Canyon St, Las Vegas, NV 89129</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3909-Narrow-Canyon-St-Las-Vegas-NV-89129/6922312_zpid/</t>
+  </si>
+  <si>
+    <t>7024 Winstar St, Las Vegas, NV 89131</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7024-Winstar-St-Las-Vegas-NV-89131/295537320_zpid/</t>
+  </si>
+  <si>
+    <t>10941 Keymar Dr, Las Vegas, NV 89135</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/10941-Keymar-Dr-Las-Vegas-NV-89135/53373709_zpid/</t>
+  </si>
+  <si>
+    <t>3049 Robar St, Las Vegas, NV 89121</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3049-Robar-St-Las-Vegas-NV-89121/7089219_zpid/</t>
+  </si>
+  <si>
+    <t>10124 Herons Rise St, Las Vegas, NV 89141</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/10124-Herons-Rise-St-Las-Vegas-NV-89141/318351558_zpid/</t>
+  </si>
+  <si>
+    <t>5205 Dana Springs Way, Las Vegas, NV 89130</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5205-Dana-Springs-Way-Las-Vegas-NV-89130/6902419_zpid/</t>
+  </si>
+  <si>
+    <t>4891 Sweetie Ct, Las Vegas, NV 89149</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4891-Sweetie-Ct-Las-Vegas-NV-89149/118197356_zpid/</t>
+  </si>
+  <si>
+    <t>9491 W Washburn Rd, Las Vegas, NV 89149</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/9491-W-Washburn-Rd-Las-Vegas-NV-89149/295537363_zpid/</t>
+  </si>
+  <si>
+    <t>4966 Mountain Pepper Dr, Las Vegas, NV 89148</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4966-Mountain-Pepper-Dr-Las-Vegas-NV-89148/119972181_zpid/</t>
+  </si>
+  <si>
+    <t>5772 Sunny Orchard Ln, Las Vegas, NV 89110</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5772-Sunny-Orchard-Ln-Las-Vegas-NV-89110/7031410_zpid/</t>
+  </si>
+  <si>
+    <t>718 Upland Blvd, Las Vegas, NV 89107</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/718-Upland-Blvd-Las-Vegas-NV-89107/6980156_zpid/</t>
+  </si>
+  <si>
+    <t>3901 Rhine Way, Las Vegas, NV 89108</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3901-Rhine-Way-Las-Vegas-NV-89108/6931009_zpid/</t>
+  </si>
+  <si>
+    <t>482 Port Reggio St, Las Vegas, NV 89138</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/482-Port-Reggio-St-Las-Vegas-NV-89138/141172492_zpid/</t>
+  </si>
+  <si>
+    <t>3655 Hardwick Hall Way, Las Vegas, NV 89135</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3655-Hardwick-Hall-Way-Las-Vegas-NV-89135/53374282_zpid/</t>
+  </si>
+  <si>
+    <t>Street Address</t>
   </si>
 </sst>
 </file>
@@ -990,10 +1586,2046 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8108AD41-46ED-4469-BA98-E30D5DC11B64}">
+  <dimension ref="A1:G101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>400000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1.609</v>
+      </c>
+      <c r="E2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>350000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="E3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>410000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1.865</v>
+      </c>
+      <c r="E4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1150000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2.3460000000000001</v>
+      </c>
+      <c r="E5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>490000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1.911</v>
+      </c>
+      <c r="E6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>497500</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1.663</v>
+      </c>
+      <c r="E7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>375000</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1.105</v>
+      </c>
+      <c r="E8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>549999</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>2.0259999999999998</v>
+      </c>
+      <c r="E9" t="s">
+        <v>215</v>
+      </c>
+      <c r="G9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>399900</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1.4790000000000001</v>
+      </c>
+      <c r="E10" t="s">
+        <v>217</v>
+      </c>
+      <c r="G10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>639000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>2.5760000000000001</v>
+      </c>
+      <c r="E11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>799000</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>2.8079999999999998</v>
+      </c>
+      <c r="E12" t="s">
+        <v>221</v>
+      </c>
+      <c r="G12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>469900</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1.5229999999999999</v>
+      </c>
+      <c r="E13" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>630000</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>2.9020000000000001</v>
+      </c>
+      <c r="E14" t="s">
+        <v>225</v>
+      </c>
+      <c r="G14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>825000</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>3.2050000000000001</v>
+      </c>
+      <c r="E15" t="s">
+        <v>227</v>
+      </c>
+      <c r="G15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>449000</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1.536</v>
+      </c>
+      <c r="E16" t="s">
+        <v>229</v>
+      </c>
+      <c r="G16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>463000</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="E17" t="s">
+        <v>231</v>
+      </c>
+      <c r="G17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1035000</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>2.9940000000000002</v>
+      </c>
+      <c r="E18" t="s">
+        <v>233</v>
+      </c>
+      <c r="G18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>720000</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>2.6890000000000001</v>
+      </c>
+      <c r="E19" t="s">
+        <v>235</v>
+      </c>
+      <c r="G19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>515000</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>2.0920000000000001</v>
+      </c>
+      <c r="E20" t="s">
+        <v>237</v>
+      </c>
+      <c r="G20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>408000</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>1.778</v>
+      </c>
+      <c r="E21" t="s">
+        <v>239</v>
+      </c>
+      <c r="G21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1450000</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>3.1459999999999999</v>
+      </c>
+      <c r="E22" t="s">
+        <v>241</v>
+      </c>
+      <c r="G22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>365000</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1.18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>243</v>
+      </c>
+      <c r="G23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>699000</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>2.5059999999999998</v>
+      </c>
+      <c r="E24" t="s">
+        <v>245</v>
+      </c>
+      <c r="G24" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1430000</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>4.0430000000000001</v>
+      </c>
+      <c r="E25" t="s">
+        <v>247</v>
+      </c>
+      <c r="G25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>429995</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="E26" t="s">
+        <v>249</v>
+      </c>
+      <c r="G26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>495000</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>1.8069999999999999</v>
+      </c>
+      <c r="E27" t="s">
+        <v>251</v>
+      </c>
+      <c r="G27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>429900</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>1.7809999999999999</v>
+      </c>
+      <c r="E28" t="s">
+        <v>253</v>
+      </c>
+      <c r="G28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>450000</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>1.78</v>
+      </c>
+      <c r="E29" t="s">
+        <v>255</v>
+      </c>
+      <c r="G29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>430000</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>1.214</v>
+      </c>
+      <c r="E30" t="s">
+        <v>257</v>
+      </c>
+      <c r="G30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>420000</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>1.9379999999999999</v>
+      </c>
+      <c r="E31" t="s">
+        <v>259</v>
+      </c>
+      <c r="G31" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>339900</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>1.389</v>
+      </c>
+      <c r="E32" t="s">
+        <v>261</v>
+      </c>
+      <c r="G32" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>324900</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>1.175</v>
+      </c>
+      <c r="E33" t="s">
+        <v>263</v>
+      </c>
+      <c r="G33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1500000</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>2.577</v>
+      </c>
+      <c r="E34" t="s">
+        <v>265</v>
+      </c>
+      <c r="G34" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>474990</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="E35" t="s">
+        <v>267</v>
+      </c>
+      <c r="G35" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>379999</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>1.7430000000000001</v>
+      </c>
+      <c r="E36" t="s">
+        <v>269</v>
+      </c>
+      <c r="G36" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>315000</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>1.526</v>
+      </c>
+      <c r="E37" t="s">
+        <v>271</v>
+      </c>
+      <c r="G37" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>348000</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>1.468</v>
+      </c>
+      <c r="E38" t="s">
+        <v>273</v>
+      </c>
+      <c r="G38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>410000</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>1.6319999999999999</v>
+      </c>
+      <c r="E39" t="s">
+        <v>275</v>
+      </c>
+      <c r="G39" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>659900</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>3.1070000000000002</v>
+      </c>
+      <c r="E40" t="s">
+        <v>277</v>
+      </c>
+      <c r="G40" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>599000</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>2.2759999999999998</v>
+      </c>
+      <c r="E41" t="s">
+        <v>279</v>
+      </c>
+      <c r="G41" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>469900</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>1.8620000000000001</v>
+      </c>
+      <c r="E42" t="s">
+        <v>281</v>
+      </c>
+      <c r="G42" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>769900</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>3.9009999999999998</v>
+      </c>
+      <c r="E43" t="s">
+        <v>283</v>
+      </c>
+      <c r="G43" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>450000</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>2.0859999999999999</v>
+      </c>
+      <c r="E44" t="s">
+        <v>285</v>
+      </c>
+      <c r="G44" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>570000</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="E45" t="s">
+        <v>287</v>
+      </c>
+      <c r="G45" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1250000</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>3.5649999999999999</v>
+      </c>
+      <c r="E46" t="s">
+        <v>289</v>
+      </c>
+      <c r="G46" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>425000</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>1.6679999999999999</v>
+      </c>
+      <c r="E47" t="s">
+        <v>291</v>
+      </c>
+      <c r="G47" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>449999</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>1.611</v>
+      </c>
+      <c r="E48" t="s">
+        <v>293</v>
+      </c>
+      <c r="G48" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>755000</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>3.5070000000000001</v>
+      </c>
+      <c r="E49" t="s">
+        <v>295</v>
+      </c>
+      <c r="G49" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>370000</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>1.27</v>
+      </c>
+      <c r="E50" t="s">
+        <v>297</v>
+      </c>
+      <c r="G50" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1499000</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>3.944</v>
+      </c>
+      <c r="E51" t="s">
+        <v>299</v>
+      </c>
+      <c r="G51" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1225000</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>3.4089999999999998</v>
+      </c>
+      <c r="E52" t="s">
+        <v>301</v>
+      </c>
+      <c r="G52" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>334900</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>1.6439999999999999</v>
+      </c>
+      <c r="E53" t="s">
+        <v>303</v>
+      </c>
+      <c r="G53" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>394900</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>1.1619999999999999</v>
+      </c>
+      <c r="E54" t="s">
+        <v>305</v>
+      </c>
+      <c r="G54" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>425000</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>1.8460000000000001</v>
+      </c>
+      <c r="E55" t="s">
+        <v>307</v>
+      </c>
+      <c r="G55" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>449999</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>1.6160000000000001</v>
+      </c>
+      <c r="E56" t="s">
+        <v>309</v>
+      </c>
+      <c r="G56" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>396000</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>1.5309999999999999</v>
+      </c>
+      <c r="E57" t="s">
+        <v>311</v>
+      </c>
+      <c r="G57" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>999000</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>4.6639999999999997</v>
+      </c>
+      <c r="E58" t="s">
+        <v>313</v>
+      </c>
+      <c r="G58" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1100000</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>3.1680000000000001</v>
+      </c>
+      <c r="E59" t="s">
+        <v>315</v>
+      </c>
+      <c r="G59" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>450000</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="E60" t="s">
+        <v>317</v>
+      </c>
+      <c r="G60" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>629995</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="E61" t="s">
+        <v>319</v>
+      </c>
+      <c r="G61" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>425000</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>1.5029999999999999</v>
+      </c>
+      <c r="E62" t="s">
+        <v>321</v>
+      </c>
+      <c r="G62" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>768000</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>3.2589999999999999</v>
+      </c>
+      <c r="E63" t="s">
+        <v>323</v>
+      </c>
+      <c r="G63" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>600000</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>2.8530000000000002</v>
+      </c>
+      <c r="E64" t="s">
+        <v>325</v>
+      </c>
+      <c r="G64" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>515000</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>2.4380000000000002</v>
+      </c>
+      <c r="E65" t="s">
+        <v>327</v>
+      </c>
+      <c r="G65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>207500</v>
+      </c>
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>1.153</v>
+      </c>
+      <c r="E66" t="s">
+        <v>329</v>
+      </c>
+      <c r="G66" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1250000</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>3.593</v>
+      </c>
+      <c r="E67" t="s">
+        <v>331</v>
+      </c>
+      <c r="G67" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>380000</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>1.202</v>
+      </c>
+      <c r="E68" t="s">
+        <v>333</v>
+      </c>
+      <c r="G68" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>3500000</v>
+      </c>
+      <c r="B69" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69">
+        <v>7</v>
+      </c>
+      <c r="D69">
+        <v>6.6539999999999999</v>
+      </c>
+      <c r="E69" t="s">
+        <v>335</v>
+      </c>
+      <c r="G69" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>389000</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>1.9490000000000001</v>
+      </c>
+      <c r="E70" t="s">
+        <v>337</v>
+      </c>
+      <c r="G70" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>329999</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>1.44</v>
+      </c>
+      <c r="E71" t="s">
+        <v>339</v>
+      </c>
+      <c r="G71" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>699999</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>3.0339999999999998</v>
+      </c>
+      <c r="E72" t="s">
+        <v>341</v>
+      </c>
+      <c r="G72" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>419500</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>2.0179999999999998</v>
+      </c>
+      <c r="E73" t="s">
+        <v>343</v>
+      </c>
+      <c r="G73" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>489000</v>
+      </c>
+      <c r="B74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>2.177</v>
+      </c>
+      <c r="E74" t="s">
+        <v>345</v>
+      </c>
+      <c r="G74" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>470000</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>1.613</v>
+      </c>
+      <c r="E75" t="s">
+        <v>347</v>
+      </c>
+      <c r="G75" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>575000</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>1.9790000000000001</v>
+      </c>
+      <c r="E76" t="s">
+        <v>349</v>
+      </c>
+      <c r="G76" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>484999</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>2.0070000000000001</v>
+      </c>
+      <c r="E77" t="s">
+        <v>351</v>
+      </c>
+      <c r="G77" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>575000</v>
+      </c>
+      <c r="B78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>2.1669999999999998</v>
+      </c>
+      <c r="E78" t="s">
+        <v>353</v>
+      </c>
+      <c r="G78" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>347500</v>
+      </c>
+      <c r="B79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>1.3280000000000001</v>
+      </c>
+      <c r="E79" t="s">
+        <v>355</v>
+      </c>
+      <c r="G79" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>559900</v>
+      </c>
+      <c r="B80" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>3.0230000000000001</v>
+      </c>
+      <c r="E80" t="s">
+        <v>357</v>
+      </c>
+      <c r="G80" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>4995000</v>
+      </c>
+      <c r="B81" t="s">
+        <v>359</v>
+      </c>
+      <c r="C81">
+        <v>18</v>
+      </c>
+      <c r="D81">
+        <v>26.739000000000001</v>
+      </c>
+      <c r="E81" t="s">
+        <v>360</v>
+      </c>
+      <c r="G81" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1599000</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E82" t="s">
+        <v>362</v>
+      </c>
+      <c r="G82" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>599900</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>1.792</v>
+      </c>
+      <c r="E83" t="s">
+        <v>364</v>
+      </c>
+      <c r="G83" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>380000</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>1.5349999999999999</v>
+      </c>
+      <c r="E84" t="s">
+        <v>366</v>
+      </c>
+      <c r="G84" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>759997</v>
+      </c>
+      <c r="B85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>3.0880000000000001</v>
+      </c>
+      <c r="E85" t="s">
+        <v>368</v>
+      </c>
+      <c r="G85" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>470000</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>2.0209999999999999</v>
+      </c>
+      <c r="E86" t="s">
+        <v>370</v>
+      </c>
+      <c r="G86" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>899000</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>2.7330000000000001</v>
+      </c>
+      <c r="E87" t="s">
+        <v>372</v>
+      </c>
+      <c r="G87" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>365000</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>1.254</v>
+      </c>
+      <c r="E88" t="s">
+        <v>374</v>
+      </c>
+      <c r="G88" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>989999</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>3.6379999999999999</v>
+      </c>
+      <c r="E89" t="s">
+        <v>376</v>
+      </c>
+      <c r="G89" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1875000</v>
+      </c>
+      <c r="B90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="D90">
+        <v>3.395</v>
+      </c>
+      <c r="E90" t="s">
+        <v>378</v>
+      </c>
+      <c r="G90" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>399990</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>1.3109999999999999</v>
+      </c>
+      <c r="E91" t="s">
+        <v>380</v>
+      </c>
+      <c r="G91" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>612000</v>
+      </c>
+      <c r="B92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+      <c r="D92">
+        <v>3.0649999999999999</v>
+      </c>
+      <c r="E92" t="s">
+        <v>382</v>
+      </c>
+      <c r="G92" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>450000</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>1.887</v>
+      </c>
+      <c r="E93" t="s">
+        <v>384</v>
+      </c>
+      <c r="G93" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>950000</v>
+      </c>
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>3.35</v>
+      </c>
+      <c r="E94" t="s">
+        <v>386</v>
+      </c>
+      <c r="G94" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1188998</v>
+      </c>
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <v>4.2649999999999997</v>
+      </c>
+      <c r="E95" t="s">
+        <v>388</v>
+      </c>
+      <c r="G95" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>549900</v>
+      </c>
+      <c r="B96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="E96" t="s">
+        <v>390</v>
+      </c>
+      <c r="G96" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>392900</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="D97">
+        <v>1.726</v>
+      </c>
+      <c r="E97" t="s">
+        <v>392</v>
+      </c>
+      <c r="G97" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>285000</v>
+      </c>
+      <c r="B98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>935</v>
+      </c>
+      <c r="E98" t="s">
+        <v>394</v>
+      </c>
+      <c r="G98" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>479000</v>
+      </c>
+      <c r="B99" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <v>2.1859999999999999</v>
+      </c>
+      <c r="E99" t="s">
+        <v>396</v>
+      </c>
+      <c r="G99" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>724900</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>1.86</v>
+      </c>
+      <c r="E100" t="s">
+        <v>398</v>
+      </c>
+      <c r="G100" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>825000</v>
+      </c>
+      <c r="B101" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101">
+        <v>2.3490000000000002</v>
+      </c>
+      <c r="E101" t="s">
+        <v>400</v>
+      </c>
+      <c r="G101" t="s">
+        <v>401</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BAB09E-E3C4-43C3-B3A0-1BEF253F95F8}">
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2922,7 +5554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1A0B73-251E-4045-9613-64B4E467BCA8}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/PropertyListing.xlsx
+++ b/PropertyListing.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aykut\Documents\UiPath\Bot4_RealEstateWebScraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E06CAE6-77D0-4539-8423-DC7C2DDCE208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3239E9AF-8059-4D82-9F9C-F881AB43A5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E21BD628-5F59-4AD9-80D4-4CA013637FBB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E21BD628-5F59-4AD9-80D4-4CA013637FBB}"/>
   </bookViews>
   <sheets>
     <sheet name="LAS VEGAS" sheetId="4" r:id="rId1"/>
-    <sheet name="NEW YORK" sheetId="2" r:id="rId2"/>
+    <sheet name="NEW YORK" sheetId="5" r:id="rId2"/>
     <sheet name="Sayfa1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="398">
   <si>
     <t>Price</t>
   </si>
@@ -146,492 +146,18 @@
     <t>https://www.zillow.com/homedetails/4388-State-Route-14a-Geneva-NY-14456/348007010_zpid/</t>
   </si>
   <si>
-    <t>126 N Lhommedieu St, Montour Falls, NY 14865</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/126-N-Lhommedieu-St-Montour-Falls-NY-14865/32792514_zpid/</t>
-  </si>
-  <si>
-    <t>129 Barclay Lane, Saugerties, NY 12477</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/129-Barclay-Ln-Saugerties-NY-12477/32870248_zpid/</t>
-  </si>
-  <si>
-    <t>606 Sand Creek Road, Colonie, NY 12205</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/606-Sand-Creek-Rd-Albany-NY-12205/29679082_zpid/</t>
-  </si>
-  <si>
-    <t>98 Little Neck Rd, Southampton, NY 11968</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/98-Little-Neck-Rd-Southampton-NY-11968/32739033_zpid/</t>
-  </si>
-  <si>
-    <t>930 Route 67, Ballston Spa, NY 12020</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/930-Route-67-Ballston-Spa-NY-12020/2141814018_zpid/</t>
-  </si>
-  <si>
     <t>27 Church Street, Wallkill, NY 12589</t>
   </si>
   <si>
     <t>https://www.zillow.com/homedetails/27-Church-St-Wallkill-NY-12589/32860258_zpid/</t>
   </si>
   <si>
-    <t>10745 Limburg Forks Rd, Carthage, NY 13619</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/10745-Limburg-Forks-Rd-Carthage-NY-13619/30796933_zpid/</t>
-  </si>
-  <si>
-    <t>68 Dare Road, Selden, NY 11784</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/68-Dare-Rd-Selden-NY-11784/59492855_zpid/</t>
-  </si>
-  <si>
-    <t>6 Lee Ave, Patchogue, NY 11772</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/6-Lee-Ave-Patchogue-NY-11772/59314108_zpid/</t>
-  </si>
-  <si>
-    <t>7 McDonald Road, Albany, NY 12209</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/7-McDonald-Rd-Albany-NY-12209/29654309_zpid/</t>
-  </si>
-  <si>
-    <t>1448 4th Street, West Babylon, NY 11704</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/1448-4th-St-West-Babylon-NY-11704/32629162_zpid/</t>
-  </si>
-  <si>
-    <t>20 Round Mountain Road, Stephentown, NY 12168</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/20-Round-Mountain-Rd-Stephentown-NY-12168/66894914_zpid/</t>
-  </si>
-  <si>
-    <t>11 Durham Way, Clifton Park, NY 12065</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/11-Durham-Way-Clifton-Park-NY-12065/32422019_zpid/</t>
-  </si>
-  <si>
-    <t>9 Garden Court, Carle Place, NY 11514</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/9-Garden-Ct-Carle-Place-NY-11514/31114377_zpid/</t>
-  </si>
-  <si>
-    <t>2456 Shilling Rd, Palmyra, NY 14522</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/2456-Shilling-Rd-Palmyra-NY-14522/61981146_zpid/</t>
-  </si>
-  <si>
     <t>37 River Heights Drive, Smithtown, NY 11787</t>
   </si>
   <si>
     <t>https://www.zillow.com/homedetails/37-River-Heights-Dr-Smithtown-NY-11787/32694167_zpid/</t>
   </si>
   <si>
-    <t>519 Elmgrove Rd, Rochester, NY 14606</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/519-Elmgrove-Rd-Rochester-NY-14606/30916964_zpid/</t>
-  </si>
-  <si>
-    <t>7 Cedar Lane, Purchase, NY 10577</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/7-Cedar-Ln-Purchase-NY-10577/66518947_zpid/</t>
-  </si>
-  <si>
-    <t>3958 Grant Ave, Hamburg, NY 14075</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/3958-Grant-Ave-Hamburg-NY-14075/30349340_zpid/</t>
-  </si>
-  <si>
-    <t>439 Jefferson Ave, Staten Island, NY 10306</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/439-Jefferson-Ave-Staten-Island-NY-10306/32332358_zpid/</t>
-  </si>
-  <si>
-    <t>134 Angels Path, Webster, NY 14580</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/134-Angels-Path-Webster-NY-14580/70904961_zpid/</t>
-  </si>
-  <si>
-    <t>698 Cattail Road, Livingston Manor, NY 12758</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/698-Cattail-Rd-Livingston-Manor-NY-12758/32762689_zpid/</t>
-  </si>
-  <si>
-    <t>346 Downsview Dr, Rochester, NY 14606</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/346-Downsview-Dr-Rochester-NY-14606/30919364_zpid/</t>
-  </si>
-  <si>
-    <t>266 Westminster Rd, Rochester, NY 14607</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/266-Westminster-Rd-Rochester-NY-14607/30886463_zpid/</t>
-  </si>
-  <si>
-    <t>37 Meadowbrook Rd, Orchard Park, NY 14127</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/37-Meadowbrook-Rd-Orchard-Park-NY-14127/30368293_zpid/</t>
-  </si>
-  <si>
-    <t>28 Mayers Gdn, Webster, NY 14580</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/28-Mayers-Gdn-Webster-NY-14580/299457871_zpid/</t>
-  </si>
-  <si>
-    <t>6 Perry Avenue, Latham, NY 12110</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/6-Perry-Ave-Latham-NY-12110/29687845_zpid/</t>
-  </si>
-  <si>
-    <t>7 Maple Wood Drive, Rhinebeck, NY 12572</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/7-Maplewood-Dr-Rhinebeck-NY-12572/89598317_zpid/</t>
-  </si>
-  <si>
-    <t>5 Branch Street, Goldens Bridge, NY 10526</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/5-Branch-St-Goldens-Bridge-NY-10526/247838985_zpid/</t>
-  </si>
-  <si>
-    <t>224 Wood Ave, Staten Island, NY 10307</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/224-Wood-Ave-Staten-Island-NY-10307/32377680_zpid/</t>
-  </si>
-  <si>
-    <t>9 Cady Street, Johnstown, NY 12095</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/9-Cady-St-Johnstown-NY-12095/30459354_zpid/</t>
-  </si>
-  <si>
-    <t>647 19th St, Brooklyn, NY 11218</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/647-19th-St-Brooklyn-NY-11218/30670867_zpid/</t>
-  </si>
-  <si>
-    <t>17 Elmbark Lane, East Northport, NY 11731</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/17-Elmbark-Ln-East-Northport-NY-11731/59344834_zpid/</t>
-  </si>
-  <si>
-    <t>10 W End Avenue, Brentwood, NY 11717</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/10-W-End-Ave-Brentwood-NY-11717/62618747_zpid/</t>
-  </si>
-  <si>
-    <t>55 Marakill Lane, New Paltz, NY 12561</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/55-Marakill-Ln-Gardiner-NY-12561/102011343_zpid/</t>
-  </si>
-  <si>
-    <t>14 Le Pere Dr, Pittsford, NY 14534</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/14-Le-Pere-Dr-Pittsford-NY-14534/54360571_zpid/</t>
-  </si>
-  <si>
-    <t>134 West Ave, Hilton, NY 14468</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/134-West-Ave-Hilton-NY-14468/237532568_zpid/</t>
-  </si>
-  <si>
-    <t>32 Cranburne Ln, Williamsville, NY 14221</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/32-Cranburne-Ln-Williamsville-NY-14221/30258319_zpid/</t>
-  </si>
-  <si>
-    <t>2175 Baird Rd, Penfield, NY 14526</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/2175-Baird-Rd-Penfield-NY-14526/31007128_zpid/</t>
-  </si>
-  <si>
-    <t>351 Newton Street, Westbury, NY 11590</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/351-Newton-St-Westbury-NY-11590/31117218_zpid/</t>
-  </si>
-  <si>
-    <t>201 Roundhill Drive, Yonkers, NY 10710</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/201-Roundhill-Dr-Yonkers-NY-10710/32994741_zpid/</t>
-  </si>
-  <si>
-    <t>401 Knapp Rd, Syracuse, NY 13219</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/401-Knapp-Rd-Syracuse-NY-13219/31735412_zpid/</t>
-  </si>
-  <si>
-    <t>39 Fairmont Road, Mahopac, NY 10541</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/39-Fairmont-Rd-Mahopac-NY-10541/31907708_zpid/</t>
-  </si>
-  <si>
-    <t>9 Hidden Green Lane, Larchmont, NY 10538</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/9-Hidden-Green-Ln-Larchmont-NY-10538/33050183_zpid/</t>
-  </si>
-  <si>
-    <t>2 Moreland Road, New City, NY 10956</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/2-Moreland-Rd-New-City-NY-10956/53392483_zpid/</t>
-  </si>
-  <si>
-    <t>15 Ralmar Drive, Glenville, NY 12302</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/15-Ralmar-Dr-Glenville-NY-12302/32484748_zpid/</t>
-  </si>
-  <si>
-    <t>75 Kent Ave, Buffalo, NY 14219</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/75-Kent-Ave-Buffalo-NY-14219/2067241465_zpid/</t>
-  </si>
-  <si>
-    <t>163 Elmgrove Rd, Rochester, NY 14626</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/163-Elmgrove-Rd-Rochester-NY-14626/30946213_zpid/</t>
-  </si>
-  <si>
-    <t>108 Hooper Rd, Endicott, NY 13760</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/108-Hooper-Rd-Endicott-NY-13760/29764451_zpid/</t>
-  </si>
-  <si>
-    <t>465 Abeel Street, Kingston, NY 12401</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/465-Abeel-St-Kingston-NY-12401/32836201_zpid/</t>
-  </si>
-  <si>
-    <t>31 Aberdeen Road, Cortlandt Manor, NY 10567</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/31-Aberdeen-Rd-Cortlandt-Manor-NY-10567/247839263_zpid/</t>
-  </si>
-  <si>
-    <t>5 N Knolls Road, Queensbury, NY 12804</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/5-Knolls-Rd-N-Queensbury-NY-12804/32927097_zpid/</t>
-  </si>
-  <si>
-    <t>15 Walter Avenue, Massapequa, NY 11758</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/15-Walter-Ave-Massapequa-NY-11758/31352357_zpid/</t>
-  </si>
-  <si>
-    <t>279 Burlingham Road, Bloomingburg, NY 12721</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/279-Burlingham-Rd-Bloomingburg-NY-12721/32777155_zpid/</t>
-  </si>
-  <si>
-    <t>145 Carriage Hill Road, Brewster, NY 10509</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/145-Carriage-Hill-Rd-Brewster-NY-10509/31932486_zpid/</t>
-  </si>
-  <si>
-    <t>6929 Gartman Rd, Orchard Park, NY 14127</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/6929-Gartman-Rd-Orchard-Park-NY-14127/30375946_zpid/</t>
-  </si>
-  <si>
-    <t>3376 Lorelei Drive, Yorktown Heights, NY 10598</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/3376-Lorelei-Dr-Yorktown-Heights-NY-10598/58426830_zpid/</t>
-  </si>
-  <si>
-    <t>168 Greenland Dr, Syracuse, NY 13208</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/168-Greenland-Dr-Syracuse-NY-13208/31658107_zpid/</t>
-  </si>
-  <si>
-    <t>19 Sagamore Cir, Rochester, NY 14617</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/19-Sagamore-Cir-Rochester-NY-14617/30970587_zpid/</t>
-  </si>
-  <si>
-    <t>109 Niagara Ave, Jamestown, NY 14701</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/109-Niagara-Ave-Jamestown-NY-14701/29890651_zpid/</t>
-  </si>
-  <si>
-    <t>15 Paula Place, Chappaqua, NY 10514</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/15-Paula-Pl-Chappaqua-NY-10514/33064810_zpid/</t>
-  </si>
-  <si>
-    <t>84 Grangerford Hts, West Henrietta, NY 14586</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/84-Grangerford-Hts-West-Henrietta-NY-14586/30965633_zpid/</t>
-  </si>
-  <si>
-    <t>2124 Post Street, East Meadow, NY 11554</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/2124-Post-St-East-Meadow-NY-11554/31326368_zpid/</t>
-  </si>
-  <si>
-    <t>1 Orford Street, Albany, NY 12205</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/1-Orford-St-Albany-NY-12205/29699811_zpid/</t>
-  </si>
-  <si>
-    <t>90 Clunie Avenue, Yonkers, NY 10703</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/90-Clunie-Ave-Yonkers-NY-10703/347516928_zpid/</t>
-  </si>
-  <si>
-    <t>102 Cresthaven Dr, Cheektowaga, NY 14225</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/102-Cresthaven-Dr-Cheektowaga-NY-14225/30281746_zpid/</t>
-  </si>
-  <si>
-    <t>1727 Center St, East Aurora, NY 14052</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/1727-Center-St-East-Aurora-NY-14052/296337826_zpid/</t>
-  </si>
-  <si>
-    <t>26 Yarmouth Road, Purchase, NY 10577</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/26-Yarmouth-Rd-Purchase-NY-10577/33039556_zpid/</t>
-  </si>
-  <si>
-    <t>13 Clare Terrace, Tuckahoe, NY 10707</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/13-Clare-Ter-Yonkers-NY-10707/32995958_zpid/</t>
-  </si>
-  <si>
-    <t>463 County Road 31, Norwich, NY 13815</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/463-County-Road-31-Norwich-NY-13815/29989658_zpid/</t>
-  </si>
-  <si>
-    <t>580 Ross Hill Rd, Vestal, NY 13850</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/580-Ross-Hill-Rd-Vestal-NY-13850/29772722_zpid/</t>
-  </si>
-  <si>
-    <t>2387 Beverly Road, Wantagh, NY 11793</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/2387-Beverly-Rd-Wantagh-NY-11793/31418885_zpid/</t>
-  </si>
-  <si>
-    <t>1014 circle Drive, Rotterdam, NY 12306</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/1014-Circle-Dr-Schenectady-NY-12303/32504060_zpid/</t>
-  </si>
-  <si>
-    <t>131 Florence Avenue, Rye, NY 10580</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/131-Florence-Ave-Rye-NY-10580/32973813_zpid/</t>
-  </si>
-  <si>
-    <t>390 Tarrington Rd, Rochester, NY 14609</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/390-Tarrington-Rd-Rochester-NY-14609/30985700_zpid/</t>
-  </si>
-  <si>
-    <t>5070 Alexander Dr, Clarence, NY 14031</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/5070-Alexander-Dr-Clarence-NY-14031/30312525_zpid/</t>
-  </si>
-  <si>
-    <t>22 Summit Drive, Barryville, NY 12719</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/22-Summit-Dr-Barryville-NY-12719/67911002_zpid/</t>
-  </si>
-  <si>
-    <t>41 Charleston Ave, Buffalo, NY 14217</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/41-Charleston-Ave-Buffalo-NY-14217/30382152_zpid/</t>
-  </si>
-  <si>
-    <t>261 Radio Avenue, Miller Place, NY 11764</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/261-Radio-Ave-Miller-Place-NY-11764/64717154_zpid/</t>
-  </si>
-  <si>
-    <t>97 Willow Wood Ln, Camillus, NY 13031</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/97-Willow-Wood-Ln-Camillus-NY-13031/2058644247_zpid/</t>
-  </si>
-  <si>
-    <t>301 Newcastle Rd, Syracuse, NY 13219</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/301-Newcastle-Rd-Syracuse-NY-13219/31736247_zpid/</t>
-  </si>
-  <si>
     <t>10541 Thor Mountain Ln, Las Vegas, NV 89166</t>
   </si>
   <si>
@@ -1236,6 +762,465 @@
   </si>
   <si>
     <t>Street Address</t>
+  </si>
+  <si>
+    <t>121 Holloway Rd, Rochester, NY 14610</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/121-Holloway-Rd-Rochester-NY-14610/30898930_zpid/</t>
+  </si>
+  <si>
+    <t>11 Country Club Drive, White Plains, NY 10607</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/11-Country-Club-Dr-White-Plains-NY-10607/33029749_zpid/</t>
+  </si>
+  <si>
+    <t>63 Partridge Hl, Honeoye Falls, NY 14472</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/63-Partridge-Hl-Honeoye-Falls-NY-14472/30988998_zpid/</t>
+  </si>
+  <si>
+    <t>17 Scenic Drive, Poughkeepsie, NY 12603</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/17-Scenic-Dr-Poughkeepsie-NY-12603/30128910_zpid/</t>
+  </si>
+  <si>
+    <t>126 Ramblers Lodge Rd, Old Forge, NY 13420</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/126-Ramblers-Lodge-Rd-Old-Forge-NY-13420/348008438_zpid/</t>
+  </si>
+  <si>
+    <t>78 Sunbriar Dr, Buffalo, NY 14224</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/78-Sunbriar-Dr-Buffalo-NY-14224/30412257_zpid/</t>
+  </si>
+  <si>
+    <t>636 Barton Mines Road, Johnsburg, NY 12856</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/636-Barton-Mines-Rd-North-Creek-NY-12853/348008304_zpid/</t>
+  </si>
+  <si>
+    <t>1045 Gallup Rd, Spencerport, NY 14559</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1045-Gallup-Rd-Spencerport-NY-14559/31036928_zpid/</t>
+  </si>
+  <si>
+    <t>10 Park Lane, West Harrison, NY 10604</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/10-Park-Ln-West-Harrison-NY-10604/33040725_zpid/</t>
+  </si>
+  <si>
+    <t>7 Pineview Lane, East Greenbush, NY 12061</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7-Pineview-Ln-Graymoor-Devondale-NY-12061/32250107_zpid/</t>
+  </si>
+  <si>
+    <t>43 Wildwood Drive, Rock Tavern, NY 12575</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/43-Wildwood-Dr-Rock-Tavern-NY-12575/2066637086_zpid/</t>
+  </si>
+  <si>
+    <t>37 Storyland Lane, Setauket, NY 11733</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/37-Storyland-Ln-East-Setauket-NY-11733/59319830_zpid/</t>
+  </si>
+  <si>
+    <t>2815 Yale St, Endwell, NY 13760</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2815-Yale-St-Endwell-NY-13760/29761989_zpid/</t>
+  </si>
+  <si>
+    <t>132 Chatham Street, Nassau, NY 12123</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/132-Chatham-St-Nassau-NY-12123/32251959_zpid/</t>
+  </si>
+  <si>
+    <t>821 Ohio Ave, North Tonawanda, NY 14120</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/821-Ohio-Ave-North-Tonawanda-NY-14120/31455444_zpid/</t>
+  </si>
+  <si>
+    <t>35 Elm St, Fredonia, NY 14063</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/35-Elm-St-Fredonia-NY-14063/29921059_zpid/</t>
+  </si>
+  <si>
+    <t>85 Highfield Road, Harrison, NY 10528</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/85-Highfield-Rd-Harrison-NY-10528/33036455_zpid/</t>
+  </si>
+  <si>
+    <t>9072 Union St, Scottsville, NY 14546</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/9072-Union-St-Scottsville-NY-14546/62644604_zpid/</t>
+  </si>
+  <si>
+    <t>10 Todd Drive, Middletown, NY 10941</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/10-Todd-Dr-Middletown-NY-10941/31858957_zpid/</t>
+  </si>
+  <si>
+    <t>197 Dickinson Rd, Webster, NY 14580</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/197-Dickinson-Rd-Webster-NY-14580/31041633_zpid/</t>
+  </si>
+  <si>
+    <t>2 Cedar Avenue, Setauket, NY 11733</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2-Cedar-Ave-Setauket-NY-11733/59445384_zpid/</t>
+  </si>
+  <si>
+    <t>16 Fieldstone Drive, Katonah, NY 10536</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/16-Fieldstone-Dr-Katonah-NY-10536/33104907_zpid/</t>
+  </si>
+  <si>
+    <t>834 State Route 32, Highland Mills, NY 10930</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/834-State-Route-32-Highland-Mills-NY-10930/31871391_zpid/</t>
+  </si>
+  <si>
+    <t>313 Leonard Ave, Syracuse, NY 13205</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/313-Leonard-Ave-Syracuse-NY-13205/31762013_zpid/</t>
+  </si>
+  <si>
+    <t>10 Dartmouth Terrace, White Plains, NY 10607</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/10-Dartmouth-Ter-White-Plains-NY-10607/33029065_zpid/</t>
+  </si>
+  <si>
+    <t>200 Fairmount Ave, Liverpool, NY 13088</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/200-Fairmount-Ave-Liverpool-NY-13088/31776920_zpid/</t>
+  </si>
+  <si>
+    <t>106 Birchwood Park Drive, Jericho, NY 11753</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/106-Birchwood-Park-Dr-Jericho-NY-11753/31134202_zpid/</t>
+  </si>
+  <si>
+    <t>6729 Setters Run, Victor, NY 14564</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6729-Setters-Run-Victor-NY-14564/61955590_zpid/</t>
+  </si>
+  <si>
+    <t>137 Elsworth Dr, Rochester, NY 14615</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/137-Elsworth-Dr-Rochester-NY-14615/30939269_zpid/</t>
+  </si>
+  <si>
+    <t>9 St. Stephens Lane E, Glenville, NY 12302</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/9-Saint-Stephens-Ln-E-Glenville-NY-12302/32485459_zpid/</t>
+  </si>
+  <si>
+    <t>1242 Burden Lake Road, Averill Park, NY 12018</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1242-Burden-Lake-Rd-Averill-Park-NY-12018/32262109_zpid/</t>
+  </si>
+  <si>
+    <t>789 Red Oak Drive, Niskayuna, NY 12309</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/789-Red-Oak-Dr-Niskayuna-NY-12309/32495224_zpid/</t>
+  </si>
+  <si>
+    <t>84 Cloverdale Avenue, White Plains, NY 10603</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/84-Cloverdale-Ave-N-White-Plains-NY-10603/33071300_zpid/</t>
+  </si>
+  <si>
+    <t>6977 Lewiston Rd, Oakfield, NY 14125</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6977-Lewiston-Rd-Oakfield-NY-14125/30486428_zpid/</t>
+  </si>
+  <si>
+    <t>307 Picturesque Dr, Greece, NY 14616</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/307-Picturesque-Dr-Greece-NY-14616/2093538511_zpid/</t>
+  </si>
+  <si>
+    <t>6 Heller, Hauppauge, NY 11788</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6-Heller-Pl-Hauppauge-NY-11788/59603742_zpid/</t>
+  </si>
+  <si>
+    <t>17633 Hy Knoll Dr #638, Sackets Harbor, NY 13685</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/17633-Hy-Knoll-Dr-638-Sackets-Harbor-NY-13685/348007829_zpid/</t>
+  </si>
+  <si>
+    <t>6540 Amy Ln, Lockport, NY 14094</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6540-Amy-Ln-Lockport-NY-14094/31468776_zpid/</t>
+  </si>
+  <si>
+    <t>15 Cadence Ct, Penfield, NY 14526</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/15-Cadence-Ct-Penfield-NY-14526/54359940_zpid/</t>
+  </si>
+  <si>
+    <t>14316 Hermitage Rd, Harrisville, NY 13648</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/14316-Hermitage-Rd-Harrisville-NY-13648/227109675_zpid/</t>
+  </si>
+  <si>
+    <t>203 Garford Rd, Rochester, NY 14622</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/203-Garford-Rd-Rochester-NY-14622/30978380_zpid/</t>
+  </si>
+  <si>
+    <t>55 Park Drive, Cortlandt Manor, NY 10567</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/55-Park-Dr-Cortlandt-Manor-NY-10567/58412469_zpid/</t>
+  </si>
+  <si>
+    <t>5222 State Highway 23, Norwich, NY 13815</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5222-State-Highway-23-Norwich-NY-13815/29990894_zpid/</t>
+  </si>
+  <si>
+    <t>3451 Doyle Rd, Lysander, NY 13027</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3451-Doyle-Rd-Lysander-NY-13027/2099064521_zpid/</t>
+  </si>
+  <si>
+    <t>17 Daisy Lane, Wappingers Falls, NY 12590</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/17-Daisy-Ln-Wappingers-Falls-NY-12590/30144976_zpid/</t>
+  </si>
+  <si>
+    <t>220 44th Street, Lindenhurst, NY 11757</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/220-44th-St-Lindenhurst-NY-11757/32644933_zpid/</t>
+  </si>
+  <si>
+    <t>28 Flint Lock Cir, Rochester, NY 14624</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/28-Flint-Lock-Cir-Rochester-NY-14624/30910128_zpid/</t>
+  </si>
+  <si>
+    <t>77 Apple Lane, Medford, NY 11763</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/77-Apple-Ln-Medford-NY-11763/59523066_zpid/</t>
+  </si>
+  <si>
+    <t>7 Cheshire Lane, Scarsdale, NY 10583</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7-Cheshire-Ln-Scarsdale-NY-10583/120731436_zpid/</t>
+  </si>
+  <si>
+    <t>136 Lake Region Boulevard, Monroe, NY 10950</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/136-Lake-Region-Blvd-Monroe-NY-10950/31805999_zpid/</t>
+  </si>
+  <si>
+    <t>10 Beach Ave, Niverville, NY 12130</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/10-Beach-Ave-Niverville-NY-12130/30013821_zpid/</t>
+  </si>
+  <si>
+    <t>111 N Brewster Road, Brewster, NY 10509</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/111-N-Brewster-Rd-Brewster-NY-10509/31929295_zpid/</t>
+  </si>
+  <si>
+    <t>959 Calkins Rd, Rochester, NY 14623</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/959-Calkins-Rd-Rochester-NY-14623/30963128_zpid/</t>
+  </si>
+  <si>
+    <t>159 Northmore Ave, Rochester, NY 14606</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/159-Northmore-Ave-Rochester-NY-14606/30922774_zpid/</t>
+  </si>
+  <si>
+    <t>65 Nelson Ave, Staten Island, NY 10308</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/65-Nelson-Ave-Staten-Island-NY-10308/32346324_zpid/</t>
+  </si>
+  <si>
+    <t>38 Sunrise Street, Plainview, NY 11803</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/38-Sunrise-St-Plainview-NY-11803/31125900_zpid/</t>
+  </si>
+  <si>
+    <t>4621 Route 50, Gansevoort, NY 12831</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4621-Route-50-Gansevoort-NY-12831/32459531_zpid/</t>
+  </si>
+  <si>
+    <t>86 Bainbridge Avenue, Thornwood, NY 10594</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/86-Bainbridge-Ave-Thornwood-NY-10594/33057390_zpid/</t>
+  </si>
+  <si>
+    <t>160 Pearson Road, Preston Hollow, NY 12469</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/160-Pearson-Rd-Preston-Hollow-NY-12469/29716252_zpid/</t>
+  </si>
+  <si>
+    <t>9 Red Oaks Mill Road, Poughkeepsie, NY 12603</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/9-Red-Oaks-Mill-Rd-Poughkeepsie-NY-12603/30112643_zpid/</t>
+  </si>
+  <si>
+    <t>11003 Main Road, East Marion, NY 11939</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/11003-Main-Rd-East-Marion-NY-11939/32748986_zpid/</t>
+  </si>
+  <si>
+    <t>592 Sulphur Springs Road, Florida, NY 12137</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/592-Sulphur-Springs-Rd-Pattersonville-NY-12137/31056929_zpid/</t>
+  </si>
+  <si>
+    <t>9 Hilltop Lane, Highland, NY 12528</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/9-Hilltop-Ln-Lloyd-NY-12528/80018378_zpid/</t>
+  </si>
+  <si>
+    <t>7 bds</t>
+  </si>
+  <si>
+    <t>71 Beechtree Drive, Larchmont, NY 10538</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/71-Beechtree-Dr-Larchmont-NY-10538/2089049658_zpid/</t>
+  </si>
+  <si>
+    <t>108 Morris Cir, Depew, NY 14043</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/108-Morris-Cir-Depew-NY-14043/30278996_zpid/</t>
+  </si>
+  <si>
+    <t>38 Boutonville Road, South Salem, NY 10590</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/38-Boutonville-Rd-South-Salem-NY-10590/247838691_zpid/</t>
+  </si>
+  <si>
+    <t>29 Van Dale Road, Woodstock, NY 12498</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/29-Van-Dale-Rd-Woodstock-NY-12498/32886263_zpid/</t>
+  </si>
+  <si>
+    <t>55 Sauquoit St, Whitesboro, NY 13492</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/55-Sauquoit-St-Whitesboro-NY-13492/31618222_zpid/</t>
+  </si>
+  <si>
+    <t>40 Stowe Avenue, Babylon, NY 11702</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/40-Stowe-Ave-Babylon-NY-11702/32599101_zpid/</t>
+  </si>
+  <si>
+    <t>49 Kosciusko St, Rochester, NY 14621</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/49-Kosciusko-St-Rochester-NY-14621/30856058_zpid/</t>
+  </si>
+  <si>
+    <t>5197 Amboy Rd, Staten Island, NY 10312</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5197-Amboy-Rd-Staten-Island-NY-10312/32365824_zpid/</t>
+  </si>
+  <si>
+    <t>356 Nursery Lane, Westbury, NY 11590</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/356-Nursery-Ln-Westbury-NY-11590/31118667_zpid/</t>
+  </si>
+  <si>
+    <t>12037 Genesee St, Alden, NY 14004</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/12037-Genesee-St-Alden-NY-14004/30231731_zpid/</t>
+  </si>
+  <si>
+    <t>63 Ontario St, Port Jefferson Station, NY 11776</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/63-Ontario-St-Port-Jefferson-Station-NY-11776/59477851_zpid/</t>
+  </si>
+  <si>
+    <t>93 Forbes Ave, Tonawanda, NY 14150</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/93-Forbes-Ave-Tonawanda-NY-14150/30382985_zpid/</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Zip</t>
   </si>
 </sst>
 </file>
@@ -1589,7 +1574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8108AD41-46ED-4469-BA98-E30D5DC11B64}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1610,7 +1595,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>402</v>
+        <v>244</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -1630,10 +1615,10 @@
         <v>1.609</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>202</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1650,10 +1635,10 @@
         <v>1.7130000000000001</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>204</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1670,10 +1655,10 @@
         <v>1.865</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1690,10 +1675,10 @@
         <v>2.3460000000000001</v>
       </c>
       <c r="E5" t="s">
-        <v>207</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1710,10 +1695,10 @@
         <v>1.911</v>
       </c>
       <c r="E6" t="s">
-        <v>209</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>210</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1730,10 +1715,10 @@
         <v>1.663</v>
       </c>
       <c r="E7" t="s">
-        <v>211</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1750,10 +1735,10 @@
         <v>1.105</v>
       </c>
       <c r="E8" t="s">
-        <v>213</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1770,10 +1755,10 @@
         <v>2.0259999999999998</v>
       </c>
       <c r="E9" t="s">
-        <v>215</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>216</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1790,10 +1775,10 @@
         <v>1.4790000000000001</v>
       </c>
       <c r="E10" t="s">
-        <v>217</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>218</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1810,10 +1795,10 @@
         <v>2.5760000000000001</v>
       </c>
       <c r="E11" t="s">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>220</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1830,10 +1815,10 @@
         <v>2.8079999999999998</v>
       </c>
       <c r="E12" t="s">
-        <v>221</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>222</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1850,10 +1835,10 @@
         <v>1.5229999999999999</v>
       </c>
       <c r="E13" t="s">
-        <v>223</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>224</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1870,10 +1855,10 @@
         <v>2.9020000000000001</v>
       </c>
       <c r="E14" t="s">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="G14" t="s">
-        <v>226</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1890,10 +1875,10 @@
         <v>3.2050000000000001</v>
       </c>
       <c r="E15" t="s">
-        <v>227</v>
+        <v>69</v>
       </c>
       <c r="G15" t="s">
-        <v>228</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1910,10 +1895,10 @@
         <v>1.536</v>
       </c>
       <c r="E16" t="s">
-        <v>229</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
-        <v>230</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1930,10 +1915,10 @@
         <v>1.5389999999999999</v>
       </c>
       <c r="E17" t="s">
-        <v>231</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>232</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1950,10 +1935,10 @@
         <v>2.9940000000000002</v>
       </c>
       <c r="E18" t="s">
-        <v>233</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s">
-        <v>234</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1970,10 +1955,10 @@
         <v>2.6890000000000001</v>
       </c>
       <c r="E19" t="s">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s">
-        <v>236</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1990,10 +1975,10 @@
         <v>2.0920000000000001</v>
       </c>
       <c r="E20" t="s">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s">
-        <v>238</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2010,10 +1995,10 @@
         <v>1.778</v>
       </c>
       <c r="E21" t="s">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s">
-        <v>240</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2030,10 +2015,10 @@
         <v>3.1459999999999999</v>
       </c>
       <c r="E22" t="s">
-        <v>241</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s">
-        <v>242</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2050,10 +2035,10 @@
         <v>1.18</v>
       </c>
       <c r="E23" t="s">
-        <v>243</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s">
-        <v>244</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2070,10 +2055,10 @@
         <v>2.5059999999999998</v>
       </c>
       <c r="E24" t="s">
-        <v>245</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s">
-        <v>246</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2090,10 +2075,10 @@
         <v>4.0430000000000001</v>
       </c>
       <c r="E25" t="s">
-        <v>247</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s">
-        <v>248</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2110,10 +2095,10 @@
         <v>1.2450000000000001</v>
       </c>
       <c r="E26" t="s">
-        <v>249</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s">
-        <v>250</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2130,10 +2115,10 @@
         <v>1.8069999999999999</v>
       </c>
       <c r="E27" t="s">
-        <v>251</v>
+        <v>93</v>
       </c>
       <c r="G27" t="s">
-        <v>252</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2150,10 +2135,10 @@
         <v>1.7809999999999999</v>
       </c>
       <c r="E28" t="s">
-        <v>253</v>
+        <v>95</v>
       </c>
       <c r="G28" t="s">
-        <v>254</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2170,10 +2155,10 @@
         <v>1.78</v>
       </c>
       <c r="E29" t="s">
-        <v>255</v>
+        <v>97</v>
       </c>
       <c r="G29" t="s">
-        <v>256</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2190,10 +2175,10 @@
         <v>1.214</v>
       </c>
       <c r="E30" t="s">
-        <v>257</v>
+        <v>99</v>
       </c>
       <c r="G30" t="s">
-        <v>258</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2210,10 +2195,10 @@
         <v>1.9379999999999999</v>
       </c>
       <c r="E31" t="s">
-        <v>259</v>
+        <v>101</v>
       </c>
       <c r="G31" t="s">
-        <v>260</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2230,10 +2215,10 @@
         <v>1.389</v>
       </c>
       <c r="E32" t="s">
-        <v>261</v>
+        <v>103</v>
       </c>
       <c r="G32" t="s">
-        <v>262</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2250,10 +2235,10 @@
         <v>1.175</v>
       </c>
       <c r="E33" t="s">
-        <v>263</v>
+        <v>105</v>
       </c>
       <c r="G33" t="s">
-        <v>264</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2270,10 +2255,10 @@
         <v>2.577</v>
       </c>
       <c r="E34" t="s">
-        <v>265</v>
+        <v>107</v>
       </c>
       <c r="G34" t="s">
-        <v>266</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2290,10 +2275,10 @@
         <v>2.2120000000000002</v>
       </c>
       <c r="E35" t="s">
-        <v>267</v>
+        <v>109</v>
       </c>
       <c r="G35" t="s">
-        <v>268</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2310,10 +2295,10 @@
         <v>1.7430000000000001</v>
       </c>
       <c r="E36" t="s">
-        <v>269</v>
+        <v>111</v>
       </c>
       <c r="G36" t="s">
-        <v>270</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2330,10 +2315,10 @@
         <v>1.526</v>
       </c>
       <c r="E37" t="s">
-        <v>271</v>
+        <v>113</v>
       </c>
       <c r="G37" t="s">
-        <v>272</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2350,10 +2335,10 @@
         <v>1.468</v>
       </c>
       <c r="E38" t="s">
-        <v>273</v>
+        <v>115</v>
       </c>
       <c r="G38" t="s">
-        <v>274</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2370,10 +2355,10 @@
         <v>1.6319999999999999</v>
       </c>
       <c r="E39" t="s">
-        <v>275</v>
+        <v>117</v>
       </c>
       <c r="G39" t="s">
-        <v>276</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2390,10 +2375,10 @@
         <v>3.1070000000000002</v>
       </c>
       <c r="E40" t="s">
-        <v>277</v>
+        <v>119</v>
       </c>
       <c r="G40" t="s">
-        <v>278</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2410,10 +2395,10 @@
         <v>2.2759999999999998</v>
       </c>
       <c r="E41" t="s">
-        <v>279</v>
+        <v>121</v>
       </c>
       <c r="G41" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2430,10 +2415,10 @@
         <v>1.8620000000000001</v>
       </c>
       <c r="E42" t="s">
-        <v>281</v>
+        <v>123</v>
       </c>
       <c r="G42" t="s">
-        <v>282</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2450,10 +2435,10 @@
         <v>3.9009999999999998</v>
       </c>
       <c r="E43" t="s">
-        <v>283</v>
+        <v>125</v>
       </c>
       <c r="G43" t="s">
-        <v>284</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2470,10 +2455,10 @@
         <v>2.0859999999999999</v>
       </c>
       <c r="E44" t="s">
-        <v>285</v>
+        <v>127</v>
       </c>
       <c r="G44" t="s">
-        <v>286</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2490,10 +2475,10 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="E45" t="s">
-        <v>287</v>
+        <v>129</v>
       </c>
       <c r="G45" t="s">
-        <v>288</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2510,10 +2495,10 @@
         <v>3.5649999999999999</v>
       </c>
       <c r="E46" t="s">
-        <v>289</v>
+        <v>131</v>
       </c>
       <c r="G46" t="s">
-        <v>290</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2530,10 +2515,10 @@
         <v>1.6679999999999999</v>
       </c>
       <c r="E47" t="s">
-        <v>291</v>
+        <v>133</v>
       </c>
       <c r="G47" t="s">
-        <v>292</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2550,10 +2535,10 @@
         <v>1.611</v>
       </c>
       <c r="E48" t="s">
-        <v>293</v>
+        <v>135</v>
       </c>
       <c r="G48" t="s">
-        <v>294</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2570,10 +2555,10 @@
         <v>3.5070000000000001</v>
       </c>
       <c r="E49" t="s">
-        <v>295</v>
+        <v>137</v>
       </c>
       <c r="G49" t="s">
-        <v>296</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2590,10 +2575,10 @@
         <v>1.27</v>
       </c>
       <c r="E50" t="s">
-        <v>297</v>
+        <v>139</v>
       </c>
       <c r="G50" t="s">
-        <v>298</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2610,10 +2595,10 @@
         <v>3.944</v>
       </c>
       <c r="E51" t="s">
-        <v>299</v>
+        <v>141</v>
       </c>
       <c r="G51" t="s">
-        <v>300</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2630,10 +2615,10 @@
         <v>3.4089999999999998</v>
       </c>
       <c r="E52" t="s">
-        <v>301</v>
+        <v>143</v>
       </c>
       <c r="G52" t="s">
-        <v>302</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2650,10 +2635,10 @@
         <v>1.6439999999999999</v>
       </c>
       <c r="E53" t="s">
-        <v>303</v>
+        <v>145</v>
       </c>
       <c r="G53" t="s">
-        <v>304</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2670,10 +2655,10 @@
         <v>1.1619999999999999</v>
       </c>
       <c r="E54" t="s">
-        <v>305</v>
+        <v>147</v>
       </c>
       <c r="G54" t="s">
-        <v>306</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2690,10 +2675,10 @@
         <v>1.8460000000000001</v>
       </c>
       <c r="E55" t="s">
-        <v>307</v>
+        <v>149</v>
       </c>
       <c r="G55" t="s">
-        <v>308</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2710,10 +2695,10 @@
         <v>1.6160000000000001</v>
       </c>
       <c r="E56" t="s">
-        <v>309</v>
+        <v>151</v>
       </c>
       <c r="G56" t="s">
-        <v>310</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2730,10 +2715,10 @@
         <v>1.5309999999999999</v>
       </c>
       <c r="E57" t="s">
-        <v>311</v>
+        <v>153</v>
       </c>
       <c r="G57" t="s">
-        <v>312</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2750,10 +2735,10 @@
         <v>4.6639999999999997</v>
       </c>
       <c r="E58" t="s">
-        <v>313</v>
+        <v>155</v>
       </c>
       <c r="G58" t="s">
-        <v>314</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2770,10 +2755,10 @@
         <v>3.1680000000000001</v>
       </c>
       <c r="E59" t="s">
-        <v>315</v>
+        <v>157</v>
       </c>
       <c r="G59" t="s">
-        <v>316</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2790,10 +2775,10 @@
         <v>1.4550000000000001</v>
       </c>
       <c r="E60" t="s">
-        <v>317</v>
+        <v>159</v>
       </c>
       <c r="G60" t="s">
-        <v>318</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2810,10 +2795,10 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="E61" t="s">
-        <v>319</v>
+        <v>161</v>
       </c>
       <c r="G61" t="s">
-        <v>320</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2830,10 +2815,10 @@
         <v>1.5029999999999999</v>
       </c>
       <c r="E62" t="s">
-        <v>321</v>
+        <v>163</v>
       </c>
       <c r="G62" t="s">
-        <v>322</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2850,10 +2835,10 @@
         <v>3.2589999999999999</v>
       </c>
       <c r="E63" t="s">
-        <v>323</v>
+        <v>165</v>
       </c>
       <c r="G63" t="s">
-        <v>324</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2870,10 +2855,10 @@
         <v>2.8530000000000002</v>
       </c>
       <c r="E64" t="s">
-        <v>325</v>
+        <v>167</v>
       </c>
       <c r="G64" t="s">
-        <v>326</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2890,10 +2875,10 @@
         <v>2.4380000000000002</v>
       </c>
       <c r="E65" t="s">
-        <v>327</v>
+        <v>169</v>
       </c>
       <c r="G65" t="s">
-        <v>328</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2910,10 +2895,10 @@
         <v>1.153</v>
       </c>
       <c r="E66" t="s">
-        <v>329</v>
+        <v>171</v>
       </c>
       <c r="G66" t="s">
-        <v>330</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2930,10 +2915,10 @@
         <v>3.593</v>
       </c>
       <c r="E67" t="s">
-        <v>331</v>
+        <v>173</v>
       </c>
       <c r="G67" t="s">
-        <v>332</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2950,10 +2935,10 @@
         <v>1.202</v>
       </c>
       <c r="E68" t="s">
-        <v>333</v>
+        <v>175</v>
       </c>
       <c r="G68" t="s">
-        <v>334</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2970,10 +2955,10 @@
         <v>6.6539999999999999</v>
       </c>
       <c r="E69" t="s">
-        <v>335</v>
+        <v>177</v>
       </c>
       <c r="G69" t="s">
-        <v>336</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2990,10 +2975,10 @@
         <v>1.9490000000000001</v>
       </c>
       <c r="E70" t="s">
-        <v>337</v>
+        <v>179</v>
       </c>
       <c r="G70" t="s">
-        <v>338</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3010,10 +2995,10 @@
         <v>1.44</v>
       </c>
       <c r="E71" t="s">
-        <v>339</v>
+        <v>181</v>
       </c>
       <c r="G71" t="s">
-        <v>340</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3030,10 +3015,10 @@
         <v>3.0339999999999998</v>
       </c>
       <c r="E72" t="s">
-        <v>341</v>
+        <v>183</v>
       </c>
       <c r="G72" t="s">
-        <v>342</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3050,10 +3035,10 @@
         <v>2.0179999999999998</v>
       </c>
       <c r="E73" t="s">
-        <v>343</v>
+        <v>185</v>
       </c>
       <c r="G73" t="s">
-        <v>344</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3070,10 +3055,10 @@
         <v>2.177</v>
       </c>
       <c r="E74" t="s">
-        <v>345</v>
+        <v>187</v>
       </c>
       <c r="G74" t="s">
-        <v>346</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3090,10 +3075,10 @@
         <v>1.613</v>
       </c>
       <c r="E75" t="s">
-        <v>347</v>
+        <v>189</v>
       </c>
       <c r="G75" t="s">
-        <v>348</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3110,10 +3095,10 @@
         <v>1.9790000000000001</v>
       </c>
       <c r="E76" t="s">
-        <v>349</v>
+        <v>191</v>
       </c>
       <c r="G76" t="s">
-        <v>350</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3130,10 +3115,10 @@
         <v>2.0070000000000001</v>
       </c>
       <c r="E77" t="s">
-        <v>351</v>
+        <v>193</v>
       </c>
       <c r="G77" t="s">
-        <v>352</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3150,10 +3135,10 @@
         <v>2.1669999999999998</v>
       </c>
       <c r="E78" t="s">
-        <v>353</v>
+        <v>195</v>
       </c>
       <c r="G78" t="s">
-        <v>354</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3170,10 +3155,10 @@
         <v>1.3280000000000001</v>
       </c>
       <c r="E79" t="s">
-        <v>355</v>
+        <v>197</v>
       </c>
       <c r="G79" t="s">
-        <v>356</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3190,10 +3175,10 @@
         <v>3.0230000000000001</v>
       </c>
       <c r="E80" t="s">
-        <v>357</v>
+        <v>199</v>
       </c>
       <c r="G80" t="s">
-        <v>358</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3201,7 +3186,7 @@
         <v>4995000</v>
       </c>
       <c r="B81" t="s">
-        <v>359</v>
+        <v>201</v>
       </c>
       <c r="C81">
         <v>18</v>
@@ -3210,10 +3195,10 @@
         <v>26.739000000000001</v>
       </c>
       <c r="E81" t="s">
-        <v>360</v>
+        <v>202</v>
       </c>
       <c r="G81" t="s">
-        <v>361</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3230,10 +3215,10 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="E82" t="s">
-        <v>362</v>
+        <v>204</v>
       </c>
       <c r="G82" t="s">
-        <v>363</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3250,10 +3235,10 @@
         <v>1.792</v>
       </c>
       <c r="E83" t="s">
-        <v>364</v>
+        <v>206</v>
       </c>
       <c r="G83" t="s">
-        <v>365</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3270,10 +3255,10 @@
         <v>1.5349999999999999</v>
       </c>
       <c r="E84" t="s">
-        <v>366</v>
+        <v>208</v>
       </c>
       <c r="G84" t="s">
-        <v>367</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3290,10 +3275,10 @@
         <v>3.0880000000000001</v>
       </c>
       <c r="E85" t="s">
-        <v>368</v>
+        <v>210</v>
       </c>
       <c r="G85" t="s">
-        <v>369</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3310,10 +3295,10 @@
         <v>2.0209999999999999</v>
       </c>
       <c r="E86" t="s">
-        <v>370</v>
+        <v>212</v>
       </c>
       <c r="G86" t="s">
-        <v>371</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3330,10 +3315,10 @@
         <v>2.7330000000000001</v>
       </c>
       <c r="E87" t="s">
-        <v>372</v>
+        <v>214</v>
       </c>
       <c r="G87" t="s">
-        <v>373</v>
+        <v>215</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3350,10 +3335,10 @@
         <v>1.254</v>
       </c>
       <c r="E88" t="s">
-        <v>374</v>
+        <v>216</v>
       </c>
       <c r="G88" t="s">
-        <v>375</v>
+        <v>217</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3370,10 +3355,10 @@
         <v>3.6379999999999999</v>
       </c>
       <c r="E89" t="s">
-        <v>376</v>
+        <v>218</v>
       </c>
       <c r="G89" t="s">
-        <v>377</v>
+        <v>219</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3390,10 +3375,10 @@
         <v>3.395</v>
       </c>
       <c r="E90" t="s">
-        <v>378</v>
+        <v>220</v>
       </c>
       <c r="G90" t="s">
-        <v>379</v>
+        <v>221</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3410,10 +3395,10 @@
         <v>1.3109999999999999</v>
       </c>
       <c r="E91" t="s">
-        <v>380</v>
+        <v>222</v>
       </c>
       <c r="G91" t="s">
-        <v>381</v>
+        <v>223</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3430,10 +3415,10 @@
         <v>3.0649999999999999</v>
       </c>
       <c r="E92" t="s">
-        <v>382</v>
+        <v>224</v>
       </c>
       <c r="G92" t="s">
-        <v>383</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3450,10 +3435,10 @@
         <v>1.887</v>
       </c>
       <c r="E93" t="s">
-        <v>384</v>
+        <v>226</v>
       </c>
       <c r="G93" t="s">
-        <v>385</v>
+        <v>227</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3470,10 +3455,10 @@
         <v>3.35</v>
       </c>
       <c r="E94" t="s">
-        <v>386</v>
+        <v>228</v>
       </c>
       <c r="G94" t="s">
-        <v>387</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3490,10 +3475,10 @@
         <v>4.2649999999999997</v>
       </c>
       <c r="E95" t="s">
-        <v>388</v>
+        <v>230</v>
       </c>
       <c r="G95" t="s">
-        <v>389</v>
+        <v>231</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3510,10 +3495,10 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="E96" t="s">
-        <v>390</v>
+        <v>232</v>
       </c>
       <c r="G96" t="s">
-        <v>391</v>
+        <v>233</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3530,10 +3515,10 @@
         <v>1.726</v>
       </c>
       <c r="E97" t="s">
-        <v>392</v>
+        <v>234</v>
       </c>
       <c r="G97" t="s">
-        <v>393</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3550,10 +3535,10 @@
         <v>935</v>
       </c>
       <c r="E98" t="s">
-        <v>394</v>
+        <v>236</v>
       </c>
       <c r="G98" t="s">
-        <v>395</v>
+        <v>237</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3570,10 +3555,10 @@
         <v>2.1859999999999999</v>
       </c>
       <c r="E99" t="s">
-        <v>396</v>
+        <v>238</v>
       </c>
       <c r="G99" t="s">
-        <v>397</v>
+        <v>239</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3590,10 +3575,10 @@
         <v>1.86</v>
       </c>
       <c r="E100" t="s">
-        <v>398</v>
+        <v>240</v>
       </c>
       <c r="G100" t="s">
-        <v>399</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3610,10 +3595,10 @@
         <v>2.3490000000000002</v>
       </c>
       <c r="E101" t="s">
-        <v>400</v>
+        <v>242</v>
       </c>
       <c r="G101" t="s">
-        <v>401</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3622,14 +3607,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BAB09E-E3C4-43C3-B3A0-1BEF253F95F8}">
-  <dimension ref="A1:F96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9366CE-5E8C-46CA-940F-0A336894682B}">
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3646,10 +3631,19 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" t="s">
+        <v>396</v>
+      </c>
+      <c r="H1" t="s">
+        <v>397</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>184900</v>
       </c>
@@ -3665,11 +3659,11 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>269900</v>
       </c>
@@ -3685,11 +3679,11 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>500000</v>
       </c>
@@ -3705,11 +3699,11 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>329900</v>
       </c>
@@ -3725,11 +3719,11 @@
       <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>899000</v>
       </c>
@@ -3745,11 +3739,11 @@
       <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3950000</v>
       </c>
@@ -3765,11 +3759,11 @@
       <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>359900</v>
       </c>
@@ -3785,11 +3779,11 @@
       <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>699990</v>
       </c>
@@ -3805,11 +3799,11 @@
       <c r="E9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>199000</v>
       </c>
@@ -3825,1133 +3819,1133 @@
       <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>79900</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="E11" t="s">
+        <v>245</v>
+      </c>
+      <c r="I11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>699000</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>2.2280000000000002</v>
+      </c>
+      <c r="E12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>474900</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>2.5529999999999999</v>
+      </c>
+      <c r="E13" t="s">
+        <v>249</v>
+      </c>
+      <c r="I13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>515000</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>2.052</v>
+      </c>
+      <c r="E14" t="s">
+        <v>251</v>
+      </c>
+      <c r="I14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>300000</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
         <v>1.35</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E15" t="s">
         <v>28</v>
       </c>
-      <c r="F11" t="s">
+      <c r="I15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>250000</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
         <v>1.6759999999999999</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E16" t="s">
         <v>30</v>
       </c>
-      <c r="F12" t="s">
+      <c r="I16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>479900</v>
       </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
         <v>2.173</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E17" t="s">
         <v>32</v>
       </c>
-      <c r="F13" t="s">
+      <c r="I17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>1395000</v>
       </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
         <v>1.8069999999999999</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="F14" t="s">
+      <c r="I18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>675000</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1.085</v>
+      </c>
+      <c r="E19" t="s">
+        <v>253</v>
+      </c>
+      <c r="I19" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>495000</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B20" t="s">
         <v>36</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
         <v>4.4039999999999999</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E20" t="s">
         <v>37</v>
       </c>
-      <c r="F15" t="s">
+      <c r="I20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>28000</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>1.4</v>
-      </c>
-      <c r="E16" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>289900</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1.8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>255</v>
+      </c>
+      <c r="I21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>424900</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>1.956</v>
+      </c>
+      <c r="E22" t="s">
+        <v>257</v>
+      </c>
+      <c r="I22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>250000</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1.627</v>
+      </c>
+      <c r="E23" t="s">
+        <v>259</v>
+      </c>
+      <c r="I23" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2295000</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>4.718</v>
+      </c>
+      <c r="E24" t="s">
+        <v>261</v>
+      </c>
+      <c r="I24" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>495000</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>2.0739999999999998</v>
+      </c>
+      <c r="E25" t="s">
+        <v>263</v>
+      </c>
+      <c r="I25" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>849999</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>4.0620000000000003</v>
+      </c>
+      <c r="E26" t="s">
+        <v>265</v>
+      </c>
+      <c r="I26" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>699999</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>1.7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>267</v>
+      </c>
+      <c r="I27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>390000</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>1.506</v>
+      </c>
+      <c r="E28" t="s">
         <v>39</v>
       </c>
-      <c r="F16" t="s">
+      <c r="I28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>369900</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>1.6559999999999999</v>
-      </c>
-      <c r="E17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>279900</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>1.456</v>
-      </c>
-      <c r="E18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2300000</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>1.88</v>
-      </c>
-      <c r="E19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>389900</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>1.6220000000000001</v>
-      </c>
-      <c r="E20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>390000</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>1.506</v>
-      </c>
-      <c r="E21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>240000</v>
-      </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>2.0179999999999998</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>539999</v>
-      </c>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>1.724</v>
-      </c>
-      <c r="E23" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>298888</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>175000</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
         <v>1</v>
       </c>
-      <c r="D24">
-        <v>1.099</v>
-      </c>
-      <c r="E24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>199900</v>
-      </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1.276</v>
-      </c>
-      <c r="E25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>456860</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <v>2.9790000000000001</v>
-      </c>
-      <c r="E26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>349900</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>1.556</v>
-      </c>
-      <c r="E27" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>575000</v>
-      </c>
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <v>2.8940000000000001</v>
-      </c>
-      <c r="E28" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>880000</v>
-      </c>
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
       <c r="D29">
-        <v>2.1120000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="I29" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>199000</v>
+        <v>245000</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>1.5469999999999999</v>
+        <v>1.1519999999999999</v>
       </c>
       <c r="E30" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="I30" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>800000</v>
+        <v>275000</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>2.3679999999999999</v>
+        <v>1.732</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="I31" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>219900</v>
+        <v>319900</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>1.133</v>
+        <v>1.9039999999999999</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="I32" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>3995000</v>
+        <v>1795000</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>9.3580000000000005</v>
+        <v>3.1549999999999998</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="I33" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>239900</v>
+        <v>395900</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>984</v>
+        <v>1.8480000000000001</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="I34" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>675000</v>
+        <v>450000</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
       <c r="D35">
-        <v>1.4</v>
+        <v>2.3519999999999999</v>
       </c>
       <c r="E35" t="s">
-        <v>77</v>
-      </c>
-      <c r="F35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="I35" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>599900</v>
+        <v>299900</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
       </c>
       <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>1.5449999999999999</v>
+      </c>
+      <c r="E36" t="s">
+        <v>283</v>
+      </c>
+      <c r="I36" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1100000</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37">
         <v>4</v>
       </c>
-      <c r="D36">
-        <v>3.0720000000000001</v>
-      </c>
-      <c r="E36" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>349900</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="D37">
+        <v>3.2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>285</v>
+      </c>
+      <c r="I37" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>800000</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>2.3679999999999999</v>
+      </c>
+      <c r="E38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1339000</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>4.5140000000000002</v>
+      </c>
+      <c r="E39" t="s">
+        <v>287</v>
+      </c>
+      <c r="I39" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>299999</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E40" t="s">
+        <v>289</v>
+      </c>
+      <c r="I40" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>199000</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>1.52</v>
+      </c>
+      <c r="E41" t="s">
+        <v>291</v>
+      </c>
+      <c r="I41" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>750000</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>1.83</v>
+      </c>
+      <c r="E42" t="s">
+        <v>293</v>
+      </c>
+      <c r="I42" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>264900</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>1.708</v>
+      </c>
+      <c r="E43" t="s">
+        <v>295</v>
+      </c>
+      <c r="I43" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>825000</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>1.929</v>
+      </c>
+      <c r="E44" t="s">
+        <v>297</v>
+      </c>
+      <c r="I44" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>399900</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>2.78</v>
+      </c>
+      <c r="E45" t="s">
+        <v>299</v>
+      </c>
+      <c r="I45" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>199900</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>2.12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>301</v>
+      </c>
+      <c r="I46" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>289000</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>1.488</v>
+      </c>
+      <c r="E47" t="s">
+        <v>303</v>
+      </c>
+      <c r="I47" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>525000</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="E48" t="s">
+        <v>305</v>
+      </c>
+      <c r="I48" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>409000</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>2.25</v>
+      </c>
+      <c r="E49" t="s">
+        <v>307</v>
+      </c>
+      <c r="I49" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>699000</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>1.9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>309</v>
+      </c>
+      <c r="I50" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>99900</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>1.968</v>
+      </c>
+      <c r="E51" t="s">
+        <v>311</v>
+      </c>
+      <c r="I51" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>199900</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>1.6859999999999999</v>
+      </c>
+      <c r="E52" t="s">
+        <v>313</v>
+      </c>
+      <c r="I52" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>899000</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>2.1190000000000002</v>
+      </c>
+      <c r="E53" t="s">
+        <v>315</v>
+      </c>
+      <c r="I53" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>675000</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>2.6480000000000001</v>
+      </c>
+      <c r="E54" t="s">
+        <v>317</v>
+      </c>
+      <c r="I54" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>299900</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="E55" t="s">
+        <v>319</v>
+      </c>
+      <c r="I55" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>449900</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>2.5609999999999999</v>
+      </c>
+      <c r="E56" t="s">
+        <v>321</v>
+      </c>
+      <c r="I56" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>299900</v>
+      </c>
+      <c r="B57" t="s">
         <v>25</v>
       </c>
-      <c r="C37">
+      <c r="C57">
         <v>1</v>
       </c>
-      <c r="D37">
-        <v>1.3080000000000001</v>
-      </c>
-      <c r="E37" t="s">
-        <v>81</v>
-      </c>
-      <c r="F37" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>149900</v>
-      </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <v>1.55</v>
-      </c>
-      <c r="E38" t="s">
-        <v>83</v>
-      </c>
-      <c r="F38" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>394900</v>
-      </c>
-      <c r="B39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39">
-        <v>5</v>
-      </c>
-      <c r="D39">
-        <v>3.1760000000000002</v>
-      </c>
-      <c r="E39" t="s">
-        <v>85</v>
-      </c>
-      <c r="F39" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>399000</v>
-      </c>
-      <c r="B40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40">
-        <v>2.02</v>
-      </c>
-      <c r="E40" t="s">
-        <v>87</v>
-      </c>
-      <c r="F40" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>699900</v>
-      </c>
-      <c r="B41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41">
-        <v>3</v>
-      </c>
-      <c r="D41">
-        <v>2.371</v>
-      </c>
-      <c r="E41" t="s">
-        <v>89</v>
-      </c>
-      <c r="F41" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>323578</v>
-      </c>
-      <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="D42">
-        <v>1.71</v>
-      </c>
-      <c r="E42" t="s">
-        <v>91</v>
-      </c>
-      <c r="F42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>379900</v>
-      </c>
-      <c r="B43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43">
-        <v>2.0630000000000002</v>
-      </c>
-      <c r="E43" t="s">
-        <v>93</v>
-      </c>
-      <c r="F43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>849000</v>
-      </c>
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="D44">
-        <v>3.0070000000000001</v>
-      </c>
-      <c r="E44" t="s">
-        <v>95</v>
-      </c>
-      <c r="F44" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>995000</v>
-      </c>
-      <c r="B45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45">
-        <v>2.3580000000000001</v>
-      </c>
-      <c r="E45" t="s">
-        <v>97</v>
-      </c>
-      <c r="F45" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>259000</v>
-      </c>
-      <c r="B46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46" t="s">
-        <v>99</v>
-      </c>
-      <c r="F46" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>1650000</v>
-      </c>
-      <c r="B47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <v>1.554</v>
-      </c>
-      <c r="E47" t="s">
-        <v>101</v>
-      </c>
-      <c r="F47" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>969000</v>
-      </c>
-      <c r="B48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48">
-        <v>3</v>
-      </c>
-      <c r="D48">
-        <v>3</v>
-      </c>
-      <c r="E48" t="s">
-        <v>103</v>
-      </c>
-      <c r="F48" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>450000</v>
-      </c>
-      <c r="B49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49">
+      <c r="D57">
+        <v>1.4</v>
+      </c>
+      <c r="E57" t="s">
+        <v>323</v>
+      </c>
+      <c r="I57" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>245000</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>2.0259999999999998</v>
+      </c>
+      <c r="E58" t="s">
+        <v>325</v>
+      </c>
+      <c r="I58" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>549999</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59">
         <v>1</v>
       </c>
-      <c r="D49">
+      <c r="D59">
+        <v>1.3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>327</v>
+      </c>
+      <c r="I59" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>159900</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
         <v>1.2</v>
       </c>
-      <c r="E49" t="s">
-        <v>105</v>
-      </c>
-      <c r="F49" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>1599000</v>
-      </c>
-      <c r="B50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50">
-        <v>4</v>
-      </c>
-      <c r="D50">
-        <v>2.8159999999999998</v>
-      </c>
-      <c r="E50" t="s">
-        <v>107</v>
-      </c>
-      <c r="F50" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>549900</v>
-      </c>
-      <c r="B51" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51">
-        <v>3</v>
-      </c>
-      <c r="D51">
-        <v>3.0019999999999998</v>
-      </c>
-      <c r="E51" t="s">
-        <v>109</v>
-      </c>
-      <c r="F51" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>339900</v>
-      </c>
-      <c r="B52" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52">
-        <v>2</v>
-      </c>
-      <c r="D52">
-        <v>2.004</v>
-      </c>
-      <c r="E52" t="s">
-        <v>111</v>
-      </c>
-      <c r="F52" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>290000</v>
-      </c>
-      <c r="B53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-      <c r="D53">
-        <v>1.1839999999999999</v>
-      </c>
-      <c r="E53" t="s">
-        <v>113</v>
-      </c>
-      <c r="F53" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>169900</v>
-      </c>
-      <c r="B54" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-      <c r="D54">
-        <v>1.08</v>
-      </c>
-      <c r="E54" t="s">
-        <v>115</v>
-      </c>
-      <c r="F54" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>485000</v>
-      </c>
-      <c r="B55" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55">
-        <v>2</v>
-      </c>
-      <c r="D55">
-        <v>1.4770000000000001</v>
-      </c>
-      <c r="E55" t="s">
-        <v>117</v>
-      </c>
-      <c r="F55" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>650000</v>
-      </c>
-      <c r="B56" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56">
-        <v>2</v>
-      </c>
-      <c r="D56">
+      <c r="E60" t="s">
+        <v>329</v>
+      </c>
+      <c r="I60" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>250000</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>1.794</v>
+      </c>
+      <c r="E61" t="s">
+        <v>331</v>
+      </c>
+      <c r="I61" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>389000</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>1.8009999999999999</v>
+      </c>
+      <c r="E62" t="s">
+        <v>333</v>
+      </c>
+      <c r="I62" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>560000</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
         <v>1.26</v>
       </c>
-      <c r="E56" t="s">
-        <v>119</v>
-      </c>
-      <c r="F56" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>249900</v>
-      </c>
-      <c r="B57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-      <c r="D57">
-        <v>1.7849999999999999</v>
-      </c>
-      <c r="E57" t="s">
-        <v>121</v>
-      </c>
-      <c r="F57" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>525000</v>
-      </c>
-      <c r="B58" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58">
-        <v>2</v>
-      </c>
-      <c r="D58">
-        <v>2.0110000000000001</v>
-      </c>
-      <c r="E58" t="s">
-        <v>123</v>
-      </c>
-      <c r="F58" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>2385000</v>
-      </c>
-      <c r="B59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59">
-        <v>5</v>
-      </c>
-      <c r="D59">
-        <v>3.7749999999999999</v>
-      </c>
-      <c r="E59" t="s">
-        <v>125</v>
-      </c>
-      <c r="F59" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>839000</v>
-      </c>
-      <c r="B60" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60">
-        <v>4</v>
-      </c>
-      <c r="D60">
-        <v>2.8519999999999999</v>
-      </c>
-      <c r="E60" t="s">
-        <v>127</v>
-      </c>
-      <c r="F60" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>259418</v>
-      </c>
-      <c r="B61" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>1.04</v>
-      </c>
-      <c r="E61" t="s">
-        <v>129</v>
-      </c>
-      <c r="F61" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>199900</v>
-      </c>
-      <c r="B62" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62">
-        <v>1.5329999999999999</v>
-      </c>
-      <c r="E62" t="s">
-        <v>131</v>
-      </c>
-      <c r="F62" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>189900</v>
-      </c>
-      <c r="B63" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
-      <c r="D63">
-        <v>2.2400000000000002</v>
-      </c>
       <c r="E63" t="s">
-        <v>133</v>
-      </c>
-      <c r="F63" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="I63" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>79900</v>
+        <v>209900</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C64">
         <v>2</v>
       </c>
       <c r="D64">
-        <v>1.73</v>
+        <v>1.514</v>
       </c>
       <c r="E64" t="s">
-        <v>135</v>
-      </c>
-      <c r="F64" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="I64" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>499000</v>
+        <v>699988</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65">
-        <v>1.8480000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="E65" t="s">
-        <v>137</v>
-      </c>
-      <c r="F65" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="I65" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>849000</v>
+        <v>2250000</v>
       </c>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66">
-        <v>2.16</v>
+        <v>4.8209999999999997</v>
       </c>
       <c r="E66" t="s">
-        <v>139</v>
-      </c>
-      <c r="F66" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="I66" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>439000</v>
+        <v>699999</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
@@ -4960,593 +4954,513 @@
         <v>3</v>
       </c>
       <c r="D67">
-        <v>1.278</v>
+        <v>3.3250000000000002</v>
       </c>
       <c r="E67" t="s">
-        <v>141</v>
-      </c>
-      <c r="F67" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="I67" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>749000</v>
+        <v>300000</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>1.706</v>
+        <v>1.4550000000000001</v>
       </c>
       <c r="E68" t="s">
-        <v>143</v>
-      </c>
-      <c r="F68" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="I68" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>199900</v>
+        <v>325000</v>
       </c>
       <c r="B69" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>3.4239999999999999</v>
+      </c>
+      <c r="E69" t="s">
+        <v>347</v>
+      </c>
+      <c r="I69" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>349900</v>
+      </c>
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>2.2669999999999999</v>
+      </c>
+      <c r="E70" t="s">
+        <v>349</v>
+      </c>
+      <c r="I70" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>229000</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>1.64</v>
+      </c>
+      <c r="E71" t="s">
+        <v>351</v>
+      </c>
+      <c r="I71" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>999900</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>2.5379999999999998</v>
+      </c>
+      <c r="E72" t="s">
+        <v>353</v>
+      </c>
+      <c r="I72" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>638000</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73">
         <v>1</v>
       </c>
-      <c r="D69">
-        <v>928</v>
-      </c>
-      <c r="E69" t="s">
-        <v>145</v>
-      </c>
-      <c r="F69" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>889000</v>
-      </c>
-      <c r="B70" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70">
-        <v>4</v>
-      </c>
-      <c r="D70">
-        <v>3.23</v>
-      </c>
-      <c r="E70" t="s">
-        <v>147</v>
-      </c>
-      <c r="F70" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>599900</v>
-      </c>
-      <c r="B71" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71">
-        <v>4</v>
-      </c>
-      <c r="D71">
-        <v>2.6379999999999999</v>
-      </c>
-      <c r="E71" t="s">
-        <v>149</v>
-      </c>
-      <c r="F71" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>599000</v>
-      </c>
-      <c r="B72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72">
-        <v>3</v>
-      </c>
-      <c r="D72">
-        <v>1.62</v>
-      </c>
-      <c r="E72" t="s">
-        <v>151</v>
-      </c>
-      <c r="F72" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>158000</v>
-      </c>
-      <c r="B73" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73">
-        <v>2</v>
-      </c>
       <c r="D73">
-        <v>1.3520000000000001</v>
+        <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>153</v>
-      </c>
-      <c r="F73" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="I73" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>299900</v>
+        <v>239900</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>2.3759999999999999</v>
+        <v>1.2909999999999999</v>
       </c>
       <c r="E74" t="s">
-        <v>155</v>
-      </c>
-      <c r="F74" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="I74" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>129900</v>
+        <v>575000</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75">
-        <v>1.6459999999999999</v>
+        <v>1.6259999999999999</v>
       </c>
       <c r="E75" t="s">
-        <v>157</v>
-      </c>
-      <c r="F75" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="I75" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>700000</v>
+        <v>224777</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76">
-        <v>1.1599999999999999</v>
+        <v>1.6120000000000001</v>
       </c>
       <c r="E76" t="s">
-        <v>159</v>
-      </c>
-      <c r="F76" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+      <c r="I76" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>99900</v>
+        <v>375000</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C77">
         <v>2</v>
       </c>
       <c r="D77">
-        <v>1.3</v>
+        <v>2.3980000000000001</v>
       </c>
       <c r="E77" t="s">
-        <v>161</v>
-      </c>
-      <c r="F77" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="I77" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>699999</v>
+        <v>1710000</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78">
-        <v>2.2000000000000002</v>
+        <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>163</v>
-      </c>
-      <c r="F78" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="I78" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>235000</v>
+        <v>309800</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
       </c>
       <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>1.9159999999999999</v>
+      </c>
+      <c r="E79" t="s">
+        <v>367</v>
+      </c>
+      <c r="I79" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>429900</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>2.5880000000000001</v>
+      </c>
+      <c r="E80" t="s">
+        <v>369</v>
+      </c>
+      <c r="I80" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1475000</v>
+      </c>
+      <c r="B81" t="s">
+        <v>371</v>
+      </c>
+      <c r="C81">
+        <v>6</v>
+      </c>
+      <c r="D81">
+        <v>4.2619999999999996</v>
+      </c>
+      <c r="E81" t="s">
+        <v>372</v>
+      </c>
+      <c r="I81" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>199900</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82">
         <v>1</v>
       </c>
-      <c r="D79">
-        <v>1.0469999999999999</v>
-      </c>
-      <c r="E79" t="s">
-        <v>165</v>
-      </c>
-      <c r="F79" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>350000</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="D82">
+        <v>952</v>
+      </c>
+      <c r="E82" t="s">
+        <v>374</v>
+      </c>
+      <c r="I82" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>599000</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>2.5659999999999998</v>
+      </c>
+      <c r="E83" t="s">
+        <v>376</v>
+      </c>
+      <c r="I83" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>599900</v>
+      </c>
+      <c r="B84" t="s">
         <v>25</v>
       </c>
-      <c r="C80">
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>1.08</v>
+      </c>
+      <c r="E84" t="s">
+        <v>378</v>
+      </c>
+      <c r="I84" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>135000</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>1.069</v>
+      </c>
+      <c r="E85" t="s">
+        <v>380</v>
+      </c>
+      <c r="I85" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>499999</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>1.167</v>
+      </c>
+      <c r="E86" t="s">
+        <v>382</v>
+      </c>
+      <c r="I86" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>15000</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87">
         <v>1</v>
       </c>
-      <c r="D80">
-        <v>1.1879999999999999</v>
-      </c>
-      <c r="E80" t="s">
-        <v>167</v>
-      </c>
-      <c r="F80" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>168000</v>
-      </c>
-      <c r="B81" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>1.1220000000000001</v>
-      </c>
-      <c r="E81" t="s">
-        <v>169</v>
-      </c>
-      <c r="F81" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>429900</v>
-      </c>
-      <c r="B82" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82">
-        <v>2</v>
-      </c>
-      <c r="D82">
-        <v>2.194</v>
-      </c>
-      <c r="E82" t="s">
-        <v>171</v>
-      </c>
-      <c r="F82" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>1388000</v>
-      </c>
-      <c r="B83" t="s">
-        <v>15</v>
-      </c>
-      <c r="C83">
-        <v>4</v>
-      </c>
-      <c r="D83">
-        <v>3.4209999999999998</v>
-      </c>
-      <c r="E83" t="s">
-        <v>173</v>
-      </c>
-      <c r="F83" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>749000</v>
-      </c>
-      <c r="B84" t="s">
-        <v>6</v>
-      </c>
-      <c r="C84">
-        <v>2</v>
-      </c>
-      <c r="D84">
-        <v>1.2490000000000001</v>
-      </c>
-      <c r="E84" t="s">
-        <v>175</v>
-      </c>
-      <c r="F84" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>99900</v>
-      </c>
-      <c r="B85" t="s">
-        <v>25</v>
-      </c>
-      <c r="C85">
-        <v>2</v>
-      </c>
-      <c r="D85">
-        <v>2.52</v>
-      </c>
-      <c r="E85" t="s">
-        <v>177</v>
-      </c>
-      <c r="F85" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>169000</v>
-      </c>
-      <c r="B86" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86">
-        <v>2</v>
-      </c>
-      <c r="D86">
-        <v>1.9179999999999999</v>
-      </c>
-      <c r="E86" t="s">
-        <v>179</v>
-      </c>
-      <c r="F86" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>639999</v>
-      </c>
-      <c r="B87" t="s">
-        <v>18</v>
-      </c>
-      <c r="C87">
-        <v>2</v>
-      </c>
       <c r="D87">
-        <v>1.4</v>
+        <v>1.0640000000000001</v>
       </c>
       <c r="E87" t="s">
-        <v>181</v>
-      </c>
-      <c r="F87" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+      <c r="I87" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>225000</v>
+        <v>635000</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C88">
         <v>2</v>
       </c>
       <c r="D88">
-        <v>1.645</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E88" t="s">
-        <v>183</v>
-      </c>
-      <c r="F88" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="I88" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>3895000</v>
+        <v>699000</v>
       </c>
       <c r="B89" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C89">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D89">
-        <v>6.12</v>
+        <v>1.274</v>
       </c>
       <c r="E89" t="s">
-        <v>185</v>
-      </c>
-      <c r="F89" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="I89" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>199999</v>
+        <v>269999</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C90">
         <v>2</v>
       </c>
       <c r="D90">
-        <v>1.5509999999999999</v>
+        <v>1.397</v>
       </c>
       <c r="E90" t="s">
-        <v>187</v>
-      </c>
-      <c r="F90" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="I90" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>280000</v>
+        <v>500000</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91">
-        <v>1.7709999999999999</v>
+        <v>1.7490000000000001</v>
       </c>
       <c r="E91" t="s">
-        <v>189</v>
-      </c>
-      <c r="F91" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="I91" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>399000</v>
+        <v>279888</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C92">
         <v>2</v>
       </c>
       <c r="D92">
-        <v>1.52</v>
+        <v>1.788</v>
       </c>
       <c r="E92" t="s">
-        <v>191</v>
-      </c>
-      <c r="F92" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>199900</v>
-      </c>
-      <c r="B93" t="s">
-        <v>6</v>
-      </c>
-      <c r="C93">
-        <v>2</v>
-      </c>
-      <c r="D93">
-        <v>1.232</v>
-      </c>
-      <c r="E93" t="s">
-        <v>193</v>
-      </c>
-      <c r="F93" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>899900</v>
-      </c>
-      <c r="B94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C94">
-        <v>4</v>
-      </c>
-      <c r="D94">
-        <v>2.819</v>
-      </c>
-      <c r="E94" t="s">
-        <v>195</v>
-      </c>
-      <c r="F94" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>239900</v>
-      </c>
-      <c r="B95" t="s">
-        <v>6</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95">
-        <v>1.3</v>
-      </c>
-      <c r="E95" t="s">
-        <v>197</v>
-      </c>
-      <c r="F95" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>194900</v>
-      </c>
-      <c r="B96" t="s">
-        <v>6</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
-        <v>1.1439999999999999</v>
-      </c>
-      <c r="E96" t="s">
-        <v>199</v>
-      </c>
-      <c r="F96" t="s">
-        <v>200</v>
+        <v>394</v>
+      </c>
+      <c r="I92" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>

--- a/PropertyListing.xlsx
+++ b/PropertyListing.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aykut\Documents\UiPath\Bot4_RealEstateWebScraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3239E9AF-8059-4D82-9F9C-F881AB43A5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D7BE84-10D8-4621-87BD-03435CBF5D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E21BD628-5F59-4AD9-80D4-4CA013637FBB}"/>
   </bookViews>
   <sheets>
     <sheet name="LAS VEGAS" sheetId="4" r:id="rId1"/>
-    <sheet name="NEW YORK" sheetId="5" r:id="rId2"/>
+    <sheet name="NEW YORK" sheetId="8" r:id="rId2"/>
     <sheet name="Sayfa1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="638">
   <si>
     <t>Price</t>
   </si>
@@ -107,12 +107,6 @@
     <t>2 bds</t>
   </si>
   <si>
-    <t>1175 Vroom Rd, Spencerport, NY 14559</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/1175-Vroom-Rd-Spencerport-NY-14559/70909592_zpid/</t>
-  </si>
-  <si>
     <t>864 106th Rd, Wellsville, NY 14895</t>
   </si>
   <si>
@@ -140,24 +134,6 @@
     <t>6 bds</t>
   </si>
   <si>
-    <t>4388 State Route 14a, Geneva, NY 14456</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/4388-State-Route-14a-Geneva-NY-14456/348007010_zpid/</t>
-  </si>
-  <si>
-    <t>27 Church Street, Wallkill, NY 12589</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/27-Church-St-Wallkill-NY-12589/32860258_zpid/</t>
-  </si>
-  <si>
-    <t>37 River Heights Drive, Smithtown, NY 11787</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/37-River-Heights-Dr-Smithtown-NY-11787/32694167_zpid/</t>
-  </si>
-  <si>
     <t>10541 Thor Mountain Ln, Las Vegas, NV 89166</t>
   </si>
   <si>
@@ -830,12 +806,6 @@
     <t>https://www.zillow.com/homedetails/43-Wildwood-Dr-Rock-Tavern-NY-12575/2066637086_zpid/</t>
   </si>
   <si>
-    <t>37 Storyland Lane, Setauket, NY 11733</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/37-Storyland-Ln-East-Setauket-NY-11733/59319830_zpid/</t>
-  </si>
-  <si>
     <t>2815 Yale St, Endwell, NY 13760</t>
   </si>
   <si>
@@ -878,66 +848,6 @@
     <t>https://www.zillow.com/homedetails/10-Todd-Dr-Middletown-NY-10941/31858957_zpid/</t>
   </si>
   <si>
-    <t>197 Dickinson Rd, Webster, NY 14580</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/197-Dickinson-Rd-Webster-NY-14580/31041633_zpid/</t>
-  </si>
-  <si>
-    <t>2 Cedar Avenue, Setauket, NY 11733</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/2-Cedar-Ave-Setauket-NY-11733/59445384_zpid/</t>
-  </si>
-  <si>
-    <t>16 Fieldstone Drive, Katonah, NY 10536</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/16-Fieldstone-Dr-Katonah-NY-10536/33104907_zpid/</t>
-  </si>
-  <si>
-    <t>834 State Route 32, Highland Mills, NY 10930</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/834-State-Route-32-Highland-Mills-NY-10930/31871391_zpid/</t>
-  </si>
-  <si>
-    <t>313 Leonard Ave, Syracuse, NY 13205</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/313-Leonard-Ave-Syracuse-NY-13205/31762013_zpid/</t>
-  </si>
-  <si>
-    <t>10 Dartmouth Terrace, White Plains, NY 10607</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/10-Dartmouth-Ter-White-Plains-NY-10607/33029065_zpid/</t>
-  </si>
-  <si>
-    <t>200 Fairmount Ave, Liverpool, NY 13088</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/200-Fairmount-Ave-Liverpool-NY-13088/31776920_zpid/</t>
-  </si>
-  <si>
-    <t>106 Birchwood Park Drive, Jericho, NY 11753</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/106-Birchwood-Park-Dr-Jericho-NY-11753/31134202_zpid/</t>
-  </si>
-  <si>
-    <t>6729 Setters Run, Victor, NY 14564</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/6729-Setters-Run-Victor-NY-14564/61955590_zpid/</t>
-  </si>
-  <si>
-    <t>137 Elsworth Dr, Rochester, NY 14615</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/137-Elsworth-Dr-Rochester-NY-14615/30939269_zpid/</t>
-  </si>
-  <si>
     <t>9 St. Stephens Lane E, Glenville, NY 12302</t>
   </si>
   <si>
@@ -974,24 +884,6 @@
     <t>https://www.zillow.com/homedetails/307-Picturesque-Dr-Greece-NY-14616/2093538511_zpid/</t>
   </si>
   <si>
-    <t>6 Heller, Hauppauge, NY 11788</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/6-Heller-Pl-Hauppauge-NY-11788/59603742_zpid/</t>
-  </si>
-  <si>
-    <t>17633 Hy Knoll Dr #638, Sackets Harbor, NY 13685</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/17633-Hy-Knoll-Dr-638-Sackets-Harbor-NY-13685/348007829_zpid/</t>
-  </si>
-  <si>
-    <t>6540 Amy Ln, Lockport, NY 14094</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/6540-Amy-Ln-Lockport-NY-14094/31468776_zpid/</t>
-  </si>
-  <si>
     <t>15 Cadence Ct, Penfield, NY 14526</t>
   </si>
   <si>
@@ -1028,30 +920,6 @@
     <t>https://www.zillow.com/homedetails/3451-Doyle-Rd-Lysander-NY-13027/2099064521_zpid/</t>
   </si>
   <si>
-    <t>17 Daisy Lane, Wappingers Falls, NY 12590</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/17-Daisy-Ln-Wappingers-Falls-NY-12590/30144976_zpid/</t>
-  </si>
-  <si>
-    <t>220 44th Street, Lindenhurst, NY 11757</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/220-44th-St-Lindenhurst-NY-11757/32644933_zpid/</t>
-  </si>
-  <si>
-    <t>28 Flint Lock Cir, Rochester, NY 14624</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/28-Flint-Lock-Cir-Rochester-NY-14624/30910128_zpid/</t>
-  </si>
-  <si>
-    <t>77 Apple Lane, Medford, NY 11763</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/77-Apple-Ln-Medford-NY-11763/59523066_zpid/</t>
-  </si>
-  <si>
     <t>7 Cheshire Lane, Scarsdale, NY 10583</t>
   </si>
   <si>
@@ -1076,28 +944,334 @@
     <t>https://www.zillow.com/homedetails/111-N-Brewster-Rd-Brewster-NY-10509/31929295_zpid/</t>
   </si>
   <si>
-    <t>959 Calkins Rd, Rochester, NY 14623</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/959-Calkins-Rd-Rochester-NY-14623/30963128_zpid/</t>
-  </si>
-  <si>
-    <t>159 Northmore Ave, Rochester, NY 14606</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/159-Northmore-Ave-Rochester-NY-14606/30922774_zpid/</t>
-  </si>
-  <si>
-    <t>65 Nelson Ave, Staten Island, NY 10308</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/65-Nelson-Ave-Staten-Island-NY-10308/32346324_zpid/</t>
-  </si>
-  <si>
-    <t>38 Sunrise Street, Plainview, NY 11803</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/38-Sunrise-St-Plainview-NY-11803/31125900_zpid/</t>
+    <t>7 bds</t>
+  </si>
+  <si>
+    <t>5197 Amboy Rd, Staten Island, NY 10312</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5197-Amboy-Rd-Staten-Island-NY-10312/32365824_zpid/</t>
+  </si>
+  <si>
+    <t>356 Nursery Lane, Westbury, NY 11590</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/356-Nursery-Ln-Westbury-NY-11590/31118667_zpid/</t>
+  </si>
+  <si>
+    <t>12037 Genesee St, Alden, NY 14004</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/12037-Genesee-St-Alden-NY-14004/30231731_zpid/</t>
+  </si>
+  <si>
+    <t>63 Ontario St, Port Jefferson Station, NY 11776</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/63-Ontario-St-Port-Jefferson-Station-NY-11776/59477851_zpid/</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>23 Old Mt Peter Road, Warwick, NY 10990</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/23-Old-Mount-Peter-Rd-Warwick-NY-10990/31867024_zpid/</t>
+  </si>
+  <si>
+    <t>36 Ridgefield Dr, Churchville, NY 14428</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/36-Ridgefield-Dr-Churchville-NY-14428/31031956_zpid/</t>
+  </si>
+  <si>
+    <t>113 Maple Hts, Bath, NY 14810</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/113-Maple-Hts-Bath-NY-14810/32570604_zpid/</t>
+  </si>
+  <si>
+    <t>121 Rolling Green Ln, Elma, NY 14059</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/121-Rolling-Green-Ln-Elma-NY-14059/30322744_zpid/</t>
+  </si>
+  <si>
+    <t>6 Winding Rd, Rochester, NY 14618</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6-Winding-Rd-Rochester-NY-14618/31025782_zpid/</t>
+  </si>
+  <si>
+    <t>207 Barclay Square Dr, Rochester, NY 14618</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/207-Barclay-Square-Dr-Rochester-NY-14618/70904809_zpid/</t>
+  </si>
+  <si>
+    <t>4476 Rushford Dr, Hamburg, NY 14075</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4476-Rushford-Dr-Hamburg-NY-14075/30346076_zpid/</t>
+  </si>
+  <si>
+    <t>40 Dyer Switch Road, Saratoga Springs, NY 12866</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/40-Dyer-Switch-Rd-Saratoga-Springs-NY-12866/32407892_zpid/</t>
+  </si>
+  <si>
+    <t>2 Mckinley Place, Ardsley, NY 10502</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2-McKinley-Pl-Ardsley-NY-10502/33018411_zpid/</t>
+  </si>
+  <si>
+    <t>142 Farmcrest Dr, Rush, NY 14543</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/142-Farmcrest-Dr-Rush-NY-14543/31033586_zpid/</t>
+  </si>
+  <si>
+    <t>70 Arrowood Ln, Orchard Park, NY 14127</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/70-Arrowood-Ln-Orchard-Park-NY-14127/98034201_zpid/</t>
+  </si>
+  <si>
+    <t>54 Contessa Ct, Williamsville, NY 14221</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/54-Contessa-Ct-Williamsville-NY-14221/30249469_zpid/</t>
+  </si>
+  <si>
+    <t>126 Autumn Drive, Tappan, NY 10983</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/126-Autumn-Dr-Tappan-NY-10983/32395128_zpid/</t>
+  </si>
+  <si>
+    <t>236 Ferndale Rd, Williamsville, NY 14221</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/236-Ferndale-Rd-Williamsville-NY-14221/30267989_zpid/</t>
+  </si>
+  <si>
+    <t>4645 Schurr Rd, Clarence, NY 14031</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4645-Schurr-Rd-Clarence-NY-14031/30312927_zpid/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 14626</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 12306</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 12590</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 14086</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 12495</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 11963</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 12061</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 11733</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 14559</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 14610</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 10607</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 14472</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 12603</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 14895</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 11422</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 12487</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 10583</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 13420</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 10990</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 14428</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 14224</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 12856</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 10604</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 12575</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 14810</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 14059</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 13760</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 12123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 14120</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 14063</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 10528</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 14546</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 10941</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 14618</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 12302</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 12018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 12309</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 10603</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 14125</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 14616</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 14526</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 14075</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 12866</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 10502</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 14543</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 14127</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 14221</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 10983</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 13648</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 14622</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 10567</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 13815</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 13027</t>
+  </si>
+  <si>
+    <t>3824 NY-9L, Lake George, NY 12845</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3824-State-Highway-9l-Lake-George-NY-12845/348009482_zpid/</t>
+  </si>
+  <si>
+    <t>6 Sanders Farm Dr, Penfield, NY 14526</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6-Sanders-Farm-Dr-Penfield-NY-14526/31006777_zpid/</t>
+  </si>
+  <si>
+    <t>4 Oak Circle, Westbrookville, NY 12785</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4-Oak-Cir-Cir-NY-12785/31815645_zpid/</t>
+  </si>
+  <si>
+    <t>43 Lew Street, Woodridge, NY 12789</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/43-Lew-St-Woodridge-NY-12789/67914842_zpid/</t>
+  </si>
+  <si>
+    <t>236 Brookside Dr, Buffalo, NY 14220</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/236-Brookside-Dr-Buffalo-NY-14220/30406466_zpid/</t>
+  </si>
+  <si>
+    <t>552 Riverview Road, Rexford, NY 12148</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/552-Riverview-Rd-Rexford-NY-12148/32421346_zpid/</t>
+  </si>
+  <si>
+    <t>22 Romney Place, Scarsdale, NY 10583</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/22-Romney-Pl-Scarsdale-NY-10583/32998601_zpid/</t>
+  </si>
+  <si>
+    <t>57 Ryerson Road, New Hampton, NY 10958</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/57-Ryerson-Rd-New-Hampton-NY-10958/31869573_zpid/</t>
   </si>
   <si>
     <t>4621 Route 50, Gansevoort, NY 12831</t>
@@ -1130,85 +1304,22 @@
     <t>https://www.zillow.com/homedetails/11003-Main-Rd-East-Marion-NY-11939/32748986_zpid/</t>
   </si>
   <si>
-    <t>592 Sulphur Springs Road, Florida, NY 12137</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/592-Sulphur-Springs-Rd-Pattersonville-NY-12137/31056929_zpid/</t>
-  </si>
-  <si>
-    <t>9 Hilltop Lane, Highland, NY 12528</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/9-Hilltop-Ln-Lloyd-NY-12528/80018378_zpid/</t>
-  </si>
-  <si>
-    <t>7 bds</t>
-  </si>
-  <si>
-    <t>71 Beechtree Drive, Larchmont, NY 10538</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/71-Beechtree-Dr-Larchmont-NY-10538/2089049658_zpid/</t>
-  </si>
-  <si>
-    <t>108 Morris Cir, Depew, NY 14043</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/108-Morris-Cir-Depew-NY-14043/30278996_zpid/</t>
-  </si>
-  <si>
-    <t>38 Boutonville Road, South Salem, NY 10590</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/38-Boutonville-Rd-South-Salem-NY-10590/247838691_zpid/</t>
-  </si>
-  <si>
-    <t>29 Van Dale Road, Woodstock, NY 12498</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/29-Van-Dale-Rd-Woodstock-NY-12498/32886263_zpid/</t>
-  </si>
-  <si>
-    <t>55 Sauquoit St, Whitesboro, NY 13492</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/55-Sauquoit-St-Whitesboro-NY-13492/31618222_zpid/</t>
-  </si>
-  <si>
-    <t>40 Stowe Avenue, Babylon, NY 11702</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/40-Stowe-Ave-Babylon-NY-11702/32599101_zpid/</t>
-  </si>
-  <si>
-    <t>49 Kosciusko St, Rochester, NY 14621</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/49-Kosciusko-St-Rochester-NY-14621/30856058_zpid/</t>
-  </si>
-  <si>
-    <t>5197 Amboy Rd, Staten Island, NY 10312</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/5197-Amboy-Rd-Staten-Island-NY-10312/32365824_zpid/</t>
-  </si>
-  <si>
-    <t>356 Nursery Lane, Westbury, NY 11590</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/356-Nursery-Ln-Westbury-NY-11590/31118667_zpid/</t>
-  </si>
-  <si>
-    <t>12037 Genesee St, Alden, NY 14004</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/12037-Genesee-St-Alden-NY-14004/30231731_zpid/</t>
-  </si>
-  <si>
-    <t>63 Ontario St, Port Jefferson Station, NY 11776</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/63-Ontario-St-Port-Jefferson-Station-NY-11776/59477851_zpid/</t>
+    <t>54 Dunlop Ave, Tonawanda, NY 14150</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/54-Dunlop-Ave-Tonawanda-NY-14150/30391399_zpid/</t>
+  </si>
+  <si>
+    <t>1158 Hendrickson Avenue, Schenectady, NY 12309</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1158-Hendrickson-Ave-Schenectady-NY-12309/32464249_zpid/</t>
+  </si>
+  <si>
+    <t>18 Manistee Lane, East Islip, NY 11730</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/18-Manistee-Ln-East-Islip-NY-11730/59653931_zpid/</t>
   </si>
   <si>
     <t>93 Forbes Ave, Tonawanda, NY 14150</t>
@@ -1217,10 +1328,619 @@
     <t>https://www.zillow.com/homedetails/93-Forbes-Ave-Tonawanda-NY-14150/30382985_zpid/</t>
   </si>
   <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Zip</t>
+    <t>6647 Gates Dr, Derby, NY 14047</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6647-Gates-Dr-Derby-NY-14047/30323965_zpid/</t>
+  </si>
+  <si>
+    <t>15 Baycrest Avenue, Westhampton, NY 11977</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/15-Baycrest-Ave-Westhampton-NY-11977/32743838_zpid/</t>
+  </si>
+  <si>
+    <t>157 Dunlap Road, Amsterdam, NY 12010</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/157-Dunlap-Rd-Amsterdam-NY-12010/31056669_zpid/</t>
+  </si>
+  <si>
+    <t>425 W Main Street, Cobleskill, NY 12043</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/425-W-Main-St-Cobleskill-NY-12043/32519593_zpid/</t>
+  </si>
+  <si>
+    <t>172 Vern Ln, Cheektowaga, NY 14227</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/172-Vern-Ln-Cheektowaga-NY-14227/30296228_zpid/</t>
+  </si>
+  <si>
+    <t>472 Sprout Brook Road, Garrison, NY 10524</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/472-Sprout-Brook-Rd-Garrison-NY-10524/31923760_zpid/</t>
+  </si>
+  <si>
+    <t>47 N Jefferson St, Carthage, NY 13619</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/47-N-Jefferson-St-Carthage-NY-13619/208998346_zpid/</t>
+  </si>
+  <si>
+    <t>1645 Maiden Ln</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rochester</t>
+  </si>
+  <si>
+    <t>1106 Hegeman Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Schenectady</t>
+  </si>
+  <si>
+    <t>3824 NY-9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lake George</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 12845</t>
+  </si>
+  <si>
+    <t>38 Baldwin Drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wappingers Falls</t>
+  </si>
+  <si>
+    <t>149 6th Ave</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lancaster</t>
+  </si>
+  <si>
+    <t>39 Van Wagner Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Willow</t>
+  </si>
+  <si>
+    <t>156 Church Ln</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sag Harbor</t>
+  </si>
+  <si>
+    <t>3 Jerold Drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> East Greenbush</t>
+  </si>
+  <si>
+    <t>2 Somerset Court</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> East Setauket</t>
+  </si>
+  <si>
+    <t>6 Sanders Farm Dr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Penfield</t>
+  </si>
+  <si>
+    <t>121 Holloway Rd</t>
+  </si>
+  <si>
+    <t>11 Country Club Drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> White Plains</t>
+  </si>
+  <si>
+    <t>63 Partridge Hl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Honeoye Falls</t>
+  </si>
+  <si>
+    <t>17 Scenic Drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Poughkeepsie</t>
+  </si>
+  <si>
+    <t>864 106th Rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wellsville</t>
+  </si>
+  <si>
+    <t>241-6 137th Ave</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rosedale</t>
+  </si>
+  <si>
+    <t>231 Hardenburgh Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ulster Park</t>
+  </si>
+  <si>
+    <t>70 Brambach Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scarsdale</t>
+  </si>
+  <si>
+    <t>126 Ramblers Lodge Rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Old Forge</t>
+  </si>
+  <si>
+    <t>23 Old Mt Peter Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Warwick</t>
+  </si>
+  <si>
+    <t>36 Ridgefield Dr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Churchville</t>
+  </si>
+  <si>
+    <t>78 Sunbriar Dr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Buffalo</t>
+  </si>
+  <si>
+    <t>636 Barton Mines Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Johnsburg</t>
+  </si>
+  <si>
+    <t>1045 Gallup Rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spencerport</t>
+  </si>
+  <si>
+    <t>10 Park Lane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> West Harrison</t>
+  </si>
+  <si>
+    <t>7 Pineview Lane</t>
+  </si>
+  <si>
+    <t>43 Wildwood Drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rock Tavern</t>
+  </si>
+  <si>
+    <t>113 Maple Hts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bath</t>
+  </si>
+  <si>
+    <t>121 Rolling Green Ln</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elma</t>
+  </si>
+  <si>
+    <t>2815 Yale St</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Endwell</t>
+  </si>
+  <si>
+    <t>132 Chatham Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nassau</t>
+  </si>
+  <si>
+    <t>821 Ohio Ave</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> North Tonawanda</t>
+  </si>
+  <si>
+    <t>35 Elm St</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fredonia</t>
+  </si>
+  <si>
+    <t>85 Highfield Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Harrison</t>
+  </si>
+  <si>
+    <t>9072 Union St</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scottsville</t>
+  </si>
+  <si>
+    <t>10 Todd Drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Middletown</t>
+  </si>
+  <si>
+    <t>6 Winding Rd</t>
+  </si>
+  <si>
+    <t>9 St. Stephens Lane E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Glenville</t>
+  </si>
+  <si>
+    <t>1242 Burden Lake Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Averill Park</t>
+  </si>
+  <si>
+    <t>789 Red Oak Drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Niskayuna</t>
+  </si>
+  <si>
+    <t>84 Cloverdale Avenue</t>
+  </si>
+  <si>
+    <t>6977 Lewiston Rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oakfield</t>
+  </si>
+  <si>
+    <t>307 Picturesque Dr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Greece</t>
+  </si>
+  <si>
+    <t>4 Oak Circle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Westbrookville</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 12785</t>
+  </si>
+  <si>
+    <t>207 Barclay Square Dr</t>
+  </si>
+  <si>
+    <t>15 Cadence Ct</t>
+  </si>
+  <si>
+    <t>4476 Rushford Dr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hamburg</t>
+  </si>
+  <si>
+    <t>40 Dyer Switch Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Saratoga Springs</t>
+  </si>
+  <si>
+    <t>2 Mckinley Place</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ardsley</t>
+  </si>
+  <si>
+    <t>142 Farmcrest Dr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rush</t>
+  </si>
+  <si>
+    <t>70 Arrowood Ln</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Orchard Park</t>
+  </si>
+  <si>
+    <t>54 Contessa Ct</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Williamsville</t>
+  </si>
+  <si>
+    <t>43 Lew Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Woodridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 12789</t>
+  </si>
+  <si>
+    <t>126 Autumn Drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tappan</t>
+  </si>
+  <si>
+    <t>14316 Hermitage Rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Harrisville</t>
+  </si>
+  <si>
+    <t>203 Garford Rd</t>
+  </si>
+  <si>
+    <t>55 Park Drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cortlandt Manor</t>
+  </si>
+  <si>
+    <t>5222 State Highway 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Norwich</t>
+  </si>
+  <si>
+    <t>3451 Doyle Rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lysander</t>
+  </si>
+  <si>
+    <t>236 Brookside Dr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 14220</t>
+  </si>
+  <si>
+    <t>552 Riverview Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rexford</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 12148</t>
+  </si>
+  <si>
+    <t>236 Ferndale Rd</t>
+  </si>
+  <si>
+    <t>7 Cheshire Lane</t>
+  </si>
+  <si>
+    <t>136 Lake Region Boulevard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Monroe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 10950</t>
+  </si>
+  <si>
+    <t>10 Beach Ave</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Niverville</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 12130</t>
+  </si>
+  <si>
+    <t>111 N Brewster Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brewster</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 10509</t>
+  </si>
+  <si>
+    <t>22 Romney Place</t>
+  </si>
+  <si>
+    <t>4645 Schurr Rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Clarence</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 14031</t>
+  </si>
+  <si>
+    <t>57 Ryerson Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New Hampton</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 10958</t>
+  </si>
+  <si>
+    <t>4621 Route 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gansevoort</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 12831</t>
+  </si>
+  <si>
+    <t>86 Bainbridge Avenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thornwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 10594</t>
+  </si>
+  <si>
+    <t>160 Pearson Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Preston Hollow</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 12469</t>
+  </si>
+  <si>
+    <t>9 Red Oaks Mill Road</t>
+  </si>
+  <si>
+    <t>11003 Main Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> East Marion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 11939</t>
+  </si>
+  <si>
+    <t>54 Dunlop Ave</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tonawanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 14150</t>
+  </si>
+  <si>
+    <t>1158 Hendrickson Avenue</t>
+  </si>
+  <si>
+    <t>18 Manistee Lane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> East Islip</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 11730</t>
+  </si>
+  <si>
+    <t>5197 Amboy Rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Staten Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 10312</t>
+  </si>
+  <si>
+    <t>356 Nursery Lane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Westbury</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 11590</t>
+  </si>
+  <si>
+    <t>12037 Genesee St</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alden</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 14004</t>
+  </si>
+  <si>
+    <t>63 Ontario St</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Port Jefferson Station</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 11776</t>
+  </si>
+  <si>
+    <t>93 Forbes Ave</t>
+  </si>
+  <si>
+    <t>6647 Gates Dr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Derby</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 14047</t>
+  </si>
+  <si>
+    <t>15 Baycrest Avenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Westhampton</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 11977</t>
+  </si>
+  <si>
+    <t>157 Dunlap Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amsterdam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 12010</t>
+  </si>
+  <si>
+    <t>425 W Main Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cobleskill</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 12043</t>
+  </si>
+  <si>
+    <t>172 Vern Ln</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cheektowaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 14227</t>
+  </si>
+  <si>
+    <t>472 Sprout Brook Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Garrison</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 10524</t>
+  </si>
+  <si>
+    <t>47 N Jefferson St</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carthage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY 13619</t>
   </si>
 </sst>
 </file>
@@ -1595,7 +2315,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -1615,10 +2335,10 @@
         <v>1.609</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1635,10 +2355,10 @@
         <v>1.7130000000000001</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1655,10 +2375,10 @@
         <v>1.865</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1675,10 +2395,10 @@
         <v>2.3460000000000001</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1695,10 +2415,10 @@
         <v>1.911</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1715,10 +2435,10 @@
         <v>1.663</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1735,10 +2455,10 @@
         <v>1.105</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1755,10 +2475,10 @@
         <v>2.0259999999999998</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1775,10 +2495,10 @@
         <v>1.4790000000000001</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1795,10 +2515,10 @@
         <v>2.5760000000000001</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1815,10 +2535,10 @@
         <v>2.8079999999999998</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1835,10 +2555,10 @@
         <v>1.5229999999999999</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1855,10 +2575,10 @@
         <v>2.9020000000000001</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1875,10 +2595,10 @@
         <v>3.2050000000000001</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1895,10 +2615,10 @@
         <v>1.536</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1915,10 +2635,10 @@
         <v>1.5389999999999999</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1935,10 +2655,10 @@
         <v>2.9940000000000002</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1955,10 +2675,10 @@
         <v>2.6890000000000001</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1975,10 +2695,10 @@
         <v>2.0920000000000001</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1995,10 +2715,10 @@
         <v>1.778</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2015,10 +2735,10 @@
         <v>3.1459999999999999</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G22" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2035,10 +2755,10 @@
         <v>1.18</v>
       </c>
       <c r="E23" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2055,10 +2775,10 @@
         <v>2.5059999999999998</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2075,10 +2795,10 @@
         <v>4.0430000000000001</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2095,10 +2815,10 @@
         <v>1.2450000000000001</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2115,10 +2835,10 @@
         <v>1.8069999999999999</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G27" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2135,10 +2855,10 @@
         <v>1.7809999999999999</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2155,10 +2875,10 @@
         <v>1.78</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2175,10 +2895,10 @@
         <v>1.214</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2195,10 +2915,10 @@
         <v>1.9379999999999999</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G31" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2215,10 +2935,10 @@
         <v>1.389</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G32" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2235,10 +2955,10 @@
         <v>1.175</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G33" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2255,10 +2975,10 @@
         <v>2.577</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G34" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2275,10 +2995,10 @@
         <v>2.2120000000000002</v>
       </c>
       <c r="E35" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G35" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2295,10 +3015,10 @@
         <v>1.7430000000000001</v>
       </c>
       <c r="E36" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G36" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2315,10 +3035,10 @@
         <v>1.526</v>
       </c>
       <c r="E37" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G37" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2335,10 +3055,10 @@
         <v>1.468</v>
       </c>
       <c r="E38" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G38" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2355,10 +3075,10 @@
         <v>1.6319999999999999</v>
       </c>
       <c r="E39" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G39" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2375,10 +3095,10 @@
         <v>3.1070000000000002</v>
       </c>
       <c r="E40" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G40" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2395,10 +3115,10 @@
         <v>2.2759999999999998</v>
       </c>
       <c r="E41" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G41" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2415,10 +3135,10 @@
         <v>1.8620000000000001</v>
       </c>
       <c r="E42" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G42" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2435,10 +3155,10 @@
         <v>3.9009999999999998</v>
       </c>
       <c r="E43" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G43" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2455,10 +3175,10 @@
         <v>2.0859999999999999</v>
       </c>
       <c r="E44" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G44" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2475,10 +3195,10 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="E45" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G45" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2495,10 +3215,10 @@
         <v>3.5649999999999999</v>
       </c>
       <c r="E46" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G46" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2515,10 +3235,10 @@
         <v>1.6679999999999999</v>
       </c>
       <c r="E47" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G47" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2535,10 +3255,10 @@
         <v>1.611</v>
       </c>
       <c r="E48" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G48" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2555,10 +3275,10 @@
         <v>3.5070000000000001</v>
       </c>
       <c r="E49" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G49" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2575,10 +3295,10 @@
         <v>1.27</v>
       </c>
       <c r="E50" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G50" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2595,10 +3315,10 @@
         <v>3.944</v>
       </c>
       <c r="E51" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="G51" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2615,10 +3335,10 @@
         <v>3.4089999999999998</v>
       </c>
       <c r="E52" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G52" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2635,10 +3355,10 @@
         <v>1.6439999999999999</v>
       </c>
       <c r="E53" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G53" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2655,10 +3375,10 @@
         <v>1.1619999999999999</v>
       </c>
       <c r="E54" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G54" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2675,10 +3395,10 @@
         <v>1.8460000000000001</v>
       </c>
       <c r="E55" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G55" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2695,10 +3415,10 @@
         <v>1.6160000000000001</v>
       </c>
       <c r="E56" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G56" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2715,10 +3435,10 @@
         <v>1.5309999999999999</v>
       </c>
       <c r="E57" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G57" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2735,10 +3455,10 @@
         <v>4.6639999999999997</v>
       </c>
       <c r="E58" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G58" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2755,10 +3475,10 @@
         <v>3.1680000000000001</v>
       </c>
       <c r="E59" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G59" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2775,10 +3495,10 @@
         <v>1.4550000000000001</v>
       </c>
       <c r="E60" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G60" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2795,10 +3515,10 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="E61" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G61" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2815,10 +3535,10 @@
         <v>1.5029999999999999</v>
       </c>
       <c r="E62" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G62" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2835,10 +3555,10 @@
         <v>3.2589999999999999</v>
       </c>
       <c r="E63" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G63" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2855,10 +3575,10 @@
         <v>2.8530000000000002</v>
       </c>
       <c r="E64" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G64" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2875,10 +3595,10 @@
         <v>2.4380000000000002</v>
       </c>
       <c r="E65" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G65" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2895,10 +3615,10 @@
         <v>1.153</v>
       </c>
       <c r="E66" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G66" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2915,10 +3635,10 @@
         <v>3.593</v>
       </c>
       <c r="E67" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G67" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2935,10 +3655,10 @@
         <v>1.202</v>
       </c>
       <c r="E68" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G68" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2946,7 +3666,7 @@
         <v>3500000</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C69">
         <v>7</v>
@@ -2955,10 +3675,10 @@
         <v>6.6539999999999999</v>
       </c>
       <c r="E69" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G69" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2975,10 +3695,10 @@
         <v>1.9490000000000001</v>
       </c>
       <c r="E70" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G70" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2995,10 +3715,10 @@
         <v>1.44</v>
       </c>
       <c r="E71" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G71" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3015,10 +3735,10 @@
         <v>3.0339999999999998</v>
       </c>
       <c r="E72" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G72" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3035,10 +3755,10 @@
         <v>2.0179999999999998</v>
       </c>
       <c r="E73" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G73" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3055,10 +3775,10 @@
         <v>2.177</v>
       </c>
       <c r="E74" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G74" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3075,10 +3795,10 @@
         <v>1.613</v>
       </c>
       <c r="E75" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G75" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3095,10 +3815,10 @@
         <v>1.9790000000000001</v>
       </c>
       <c r="E76" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G76" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3115,10 +3835,10 @@
         <v>2.0070000000000001</v>
       </c>
       <c r="E77" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G77" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3135,10 +3855,10 @@
         <v>2.1669999999999998</v>
       </c>
       <c r="E78" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G78" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3155,10 +3875,10 @@
         <v>1.3280000000000001</v>
       </c>
       <c r="E79" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G79" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3175,10 +3895,10 @@
         <v>3.0230000000000001</v>
       </c>
       <c r="E80" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G80" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3186,7 +3906,7 @@
         <v>4995000</v>
       </c>
       <c r="B81" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C81">
         <v>18</v>
@@ -3195,10 +3915,10 @@
         <v>26.739000000000001</v>
       </c>
       <c r="E81" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G81" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3215,10 +3935,10 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="E82" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G82" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3235,10 +3955,10 @@
         <v>1.792</v>
       </c>
       <c r="E83" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G83" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3255,10 +3975,10 @@
         <v>1.5349999999999999</v>
       </c>
       <c r="E84" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G84" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3275,10 +3995,10 @@
         <v>3.0880000000000001</v>
       </c>
       <c r="E85" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G85" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3295,10 +4015,10 @@
         <v>2.0209999999999999</v>
       </c>
       <c r="E86" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G86" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3315,10 +4035,10 @@
         <v>2.7330000000000001</v>
       </c>
       <c r="E87" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G87" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3335,10 +4055,10 @@
         <v>1.254</v>
       </c>
       <c r="E88" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G88" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3355,10 +4075,10 @@
         <v>3.6379999999999999</v>
       </c>
       <c r="E89" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G89" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3375,10 +4095,10 @@
         <v>3.395</v>
       </c>
       <c r="E90" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G90" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3395,10 +4115,10 @@
         <v>1.3109999999999999</v>
       </c>
       <c r="E91" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G91" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3415,10 +4135,10 @@
         <v>3.0649999999999999</v>
       </c>
       <c r="E92" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G92" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3435,10 +4155,10 @@
         <v>1.887</v>
       </c>
       <c r="E93" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G93" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3455,10 +4175,10 @@
         <v>3.35</v>
       </c>
       <c r="E94" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3475,10 +4195,10 @@
         <v>4.2649999999999997</v>
       </c>
       <c r="E95" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G95" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3495,10 +4215,10 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="E96" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G96" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3515,10 +4235,10 @@
         <v>1.726</v>
       </c>
       <c r="E97" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G97" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3535,10 +4255,10 @@
         <v>935</v>
       </c>
       <c r="E98" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G98" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3555,10 +4275,10 @@
         <v>2.1859999999999999</v>
       </c>
       <c r="E99" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G99" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3575,10 +4295,10 @@
         <v>1.86</v>
       </c>
       <c r="E100" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G100" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3595,10 +4315,10 @@
         <v>2.3490000000000002</v>
       </c>
       <c r="E101" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G101" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3607,8 +4327,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9366CE-5E8C-46CA-940F-0A336894682B}">
-  <dimension ref="A1:I92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08378B24-9715-4F21-AC5C-C9EB131DEB86}">
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3631,13 +4351,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G1" t="s">
-        <v>396</v>
+        <v>314</v>
       </c>
       <c r="H1" t="s">
-        <v>397</v>
+        <v>315</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -3659,6 +4379,15 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
+      <c r="F2" t="s">
+        <v>447</v>
+      </c>
+      <c r="G2" t="s">
+        <v>448</v>
+      </c>
+      <c r="H2" t="s">
+        <v>346</v>
+      </c>
       <c r="I2" t="s">
         <v>8</v>
       </c>
@@ -3679,293 +4408,428 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
+      <c r="F3" t="s">
+        <v>449</v>
+      </c>
+      <c r="G3" t="s">
+        <v>450</v>
+      </c>
+      <c r="H3" t="s">
+        <v>347</v>
+      </c>
       <c r="I3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>500000</v>
+        <v>379000</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>1.99</v>
+        <v>1.5549999999999999</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>399</v>
+      </c>
+      <c r="F4" t="s">
+        <v>451</v>
+      </c>
+      <c r="G4" t="s">
+        <v>452</v>
+      </c>
+      <c r="H4" t="s">
+        <v>453</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>329900</v>
+        <v>500000</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>2.1190000000000002</v>
+        <v>1.99</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>454</v>
+      </c>
+      <c r="G5" t="s">
+        <v>455</v>
+      </c>
+      <c r="H5" t="s">
+        <v>348</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>899000</v>
+        <v>329900</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>1.9079999999999999</v>
+        <v>2.1190000000000002</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>456</v>
+      </c>
+      <c r="G6" t="s">
+        <v>457</v>
+      </c>
+      <c r="H6" t="s">
+        <v>349</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3950000</v>
+        <v>899000</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>1.883</v>
+        <v>1.9079999999999999</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G7" t="s">
+        <v>459</v>
+      </c>
+      <c r="H7" t="s">
+        <v>350</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>359900</v>
+        <v>3950000</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>1.752</v>
+        <v>1.883</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>460</v>
+      </c>
+      <c r="G8" t="s">
+        <v>461</v>
+      </c>
+      <c r="H8" t="s">
+        <v>351</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>699990</v>
+        <v>359900</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>2.3109999999999999</v>
+        <v>1.752</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>462</v>
+      </c>
+      <c r="G9" t="s">
+        <v>463</v>
+      </c>
+      <c r="H9" t="s">
+        <v>352</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>199000</v>
+        <v>699990</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>1.3640000000000001</v>
+        <v>2.3109999999999999</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>464</v>
+      </c>
+      <c r="G10" t="s">
+        <v>465</v>
+      </c>
+      <c r="H10" t="s">
+        <v>353</v>
       </c>
       <c r="I10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>79900</v>
+        <v>219900</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>1.1040000000000001</v>
+        <v>1.554</v>
       </c>
       <c r="E11" t="s">
-        <v>245</v>
+        <v>401</v>
+      </c>
+      <c r="F11" t="s">
+        <v>466</v>
+      </c>
+      <c r="G11" t="s">
+        <v>467</v>
+      </c>
+      <c r="H11" t="s">
+        <v>386</v>
       </c>
       <c r="I11" t="s">
-        <v>246</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>699000</v>
+        <v>79900</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>2.2280000000000002</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="E12" t="s">
-        <v>247</v>
+        <v>237</v>
+      </c>
+      <c r="F12" t="s">
+        <v>468</v>
+      </c>
+      <c r="G12" t="s">
+        <v>448</v>
+      </c>
+      <c r="H12" t="s">
+        <v>355</v>
       </c>
       <c r="I12" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>474900</v>
+        <v>699000</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>2.5529999999999999</v>
+        <v>2.2280000000000002</v>
       </c>
       <c r="E13" t="s">
-        <v>249</v>
+        <v>239</v>
+      </c>
+      <c r="F13" t="s">
+        <v>469</v>
+      </c>
+      <c r="G13" t="s">
+        <v>470</v>
+      </c>
+      <c r="H13" t="s">
+        <v>356</v>
       </c>
       <c r="I13" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>515000</v>
+        <v>474900</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>2.052</v>
+        <v>2.5529999999999999</v>
       </c>
       <c r="E14" t="s">
-        <v>251</v>
+        <v>241</v>
+      </c>
+      <c r="F14" t="s">
+        <v>471</v>
+      </c>
+      <c r="G14" t="s">
+        <v>472</v>
+      </c>
+      <c r="H14" t="s">
+        <v>357</v>
       </c>
       <c r="I14" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>300000</v>
+        <v>515000</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>1.35</v>
+        <v>2.052</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>243</v>
+      </c>
+      <c r="F15" t="s">
+        <v>473</v>
+      </c>
+      <c r="G15" t="s">
+        <v>474</v>
+      </c>
+      <c r="H15" t="s">
+        <v>358</v>
       </c>
       <c r="I15" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16">
-        <v>1.6759999999999999</v>
+        <v>1.35</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>475</v>
+      </c>
+      <c r="G16" t="s">
+        <v>476</v>
+      </c>
+      <c r="H16" t="s">
+        <v>359</v>
       </c>
       <c r="I16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>479900</v>
+        <v>250000</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>2.173</v>
+        <v>1.6759999999999999</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>477</v>
+      </c>
+      <c r="G17" t="s">
+        <v>478</v>
+      </c>
+      <c r="H17" t="s">
+        <v>360</v>
       </c>
       <c r="I17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1395000</v>
+        <v>479900</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -3974,98 +4838,143 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>1.8069999999999999</v>
+        <v>2.173</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>479</v>
+      </c>
+      <c r="G18" t="s">
+        <v>480</v>
+      </c>
+      <c r="H18" t="s">
+        <v>361</v>
       </c>
       <c r="I18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>675000</v>
+        <v>1395000</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>1.085</v>
+        <v>1.8069999999999999</v>
       </c>
       <c r="E19" t="s">
-        <v>253</v>
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>481</v>
+      </c>
+      <c r="G19" t="s">
+        <v>482</v>
+      </c>
+      <c r="H19" t="s">
+        <v>362</v>
       </c>
       <c r="I19" t="s">
-        <v>254</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>495000</v>
+        <v>675000</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20">
-        <v>4.4039999999999999</v>
+        <v>1.085</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>245</v>
+      </c>
+      <c r="F20" t="s">
+        <v>483</v>
+      </c>
+      <c r="G20" t="s">
+        <v>484</v>
+      </c>
+      <c r="H20" t="s">
+        <v>363</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>289900</v>
+        <v>1300000</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>1.8</v>
+        <v>3.6920000000000002</v>
       </c>
       <c r="E21" t="s">
-        <v>255</v>
+        <v>316</v>
+      </c>
+      <c r="F21" t="s">
+        <v>485</v>
+      </c>
+      <c r="G21" t="s">
+        <v>486</v>
+      </c>
+      <c r="H21" t="s">
+        <v>364</v>
       </c>
       <c r="I21" t="s">
-        <v>256</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>424900</v>
+        <v>199900</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>1.956</v>
+        <v>1.6180000000000001</v>
       </c>
       <c r="E22" t="s">
-        <v>257</v>
+        <v>318</v>
+      </c>
+      <c r="F22" t="s">
+        <v>487</v>
+      </c>
+      <c r="G22" t="s">
+        <v>488</v>
+      </c>
+      <c r="H22" t="s">
+        <v>365</v>
       </c>
       <c r="I22" t="s">
-        <v>258</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>250000</v>
+        <v>289900</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -4074,498 +4983,723 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>1.627</v>
+        <v>1.8</v>
       </c>
       <c r="E23" t="s">
-        <v>259</v>
+        <v>247</v>
+      </c>
+      <c r="F23" t="s">
+        <v>489</v>
+      </c>
+      <c r="G23" t="s">
+        <v>490</v>
+      </c>
+      <c r="H23" t="s">
+        <v>366</v>
       </c>
       <c r="I23" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2295000</v>
+        <v>424900</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>4.718</v>
+        <v>1.956</v>
       </c>
       <c r="E24" t="s">
-        <v>261</v>
+        <v>249</v>
+      </c>
+      <c r="F24" t="s">
+        <v>491</v>
+      </c>
+      <c r="G24" t="s">
+        <v>492</v>
+      </c>
+      <c r="H24" t="s">
+        <v>367</v>
       </c>
       <c r="I24" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>495000</v>
+        <v>250000</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>2.0739999999999998</v>
+        <v>1.627</v>
       </c>
       <c r="E25" t="s">
-        <v>263</v>
+        <v>251</v>
+      </c>
+      <c r="F25" t="s">
+        <v>493</v>
+      </c>
+      <c r="G25" t="s">
+        <v>494</v>
+      </c>
+      <c r="H25" t="s">
+        <v>354</v>
       </c>
       <c r="I25" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>849999</v>
+        <v>2295000</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C26">
         <v>4</v>
       </c>
       <c r="D26">
-        <v>4.0620000000000003</v>
+        <v>4.718</v>
       </c>
       <c r="E26" t="s">
-        <v>265</v>
+        <v>253</v>
+      </c>
+      <c r="F26" t="s">
+        <v>495</v>
+      </c>
+      <c r="G26" t="s">
+        <v>496</v>
+      </c>
+      <c r="H26" t="s">
+        <v>368</v>
       </c>
       <c r="I26" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>699999</v>
+        <v>495000</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>1.7</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="E27" t="s">
-        <v>267</v>
+        <v>255</v>
+      </c>
+      <c r="F27" t="s">
+        <v>497</v>
+      </c>
+      <c r="G27" t="s">
+        <v>463</v>
+      </c>
+      <c r="H27" t="s">
+        <v>352</v>
       </c>
       <c r="I27" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>390000</v>
+        <v>849999</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>1.506</v>
+        <v>4.0620000000000003</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>257</v>
+      </c>
+      <c r="F28" t="s">
+        <v>498</v>
+      </c>
+      <c r="G28" t="s">
+        <v>499</v>
+      </c>
+      <c r="H28" t="s">
+        <v>369</v>
       </c>
       <c r="I28" t="s">
-        <v>40</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>175000</v>
+        <v>129500</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>1.45</v>
+        <v>1.5640000000000001</v>
       </c>
       <c r="E29" t="s">
-        <v>269</v>
+        <v>320</v>
+      </c>
+      <c r="F29" t="s">
+        <v>500</v>
+      </c>
+      <c r="G29" t="s">
+        <v>501</v>
+      </c>
+      <c r="H29" t="s">
+        <v>370</v>
       </c>
       <c r="I29" t="s">
-        <v>270</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>245000</v>
+        <v>379000</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>1.1519999999999999</v>
+        <v>2.032</v>
       </c>
       <c r="E30" t="s">
-        <v>271</v>
+        <v>322</v>
+      </c>
+      <c r="F30" t="s">
+        <v>502</v>
+      </c>
+      <c r="G30" t="s">
+        <v>503</v>
+      </c>
+      <c r="H30" t="s">
+        <v>371</v>
       </c>
       <c r="I30" t="s">
-        <v>272</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>275000</v>
+        <v>175000</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>1.732</v>
+        <v>1.45</v>
       </c>
       <c r="E31" t="s">
-        <v>273</v>
+        <v>259</v>
+      </c>
+      <c r="F31" t="s">
+        <v>504</v>
+      </c>
+      <c r="G31" t="s">
+        <v>505</v>
+      </c>
+      <c r="H31" t="s">
+        <v>372</v>
       </c>
       <c r="I31" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>319900</v>
+        <v>245000</v>
       </c>
       <c r="B32" t="s">
         <v>18</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>1.9039999999999999</v>
+        <v>1.1519999999999999</v>
       </c>
       <c r="E32" t="s">
-        <v>275</v>
+        <v>261</v>
+      </c>
+      <c r="F32" t="s">
+        <v>506</v>
+      </c>
+      <c r="G32" t="s">
+        <v>507</v>
+      </c>
+      <c r="H32" t="s">
+        <v>373</v>
       </c>
       <c r="I32" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1795000</v>
+        <v>275000</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>3.1549999999999998</v>
+        <v>1.732</v>
       </c>
       <c r="E33" t="s">
-        <v>277</v>
+        <v>263</v>
+      </c>
+      <c r="F33" t="s">
+        <v>508</v>
+      </c>
+      <c r="G33" t="s">
+        <v>509</v>
+      </c>
+      <c r="H33" t="s">
+        <v>374</v>
       </c>
       <c r="I33" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>395900</v>
+        <v>319900</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>1.8480000000000001</v>
+        <v>1.9039999999999999</v>
       </c>
       <c r="E34" t="s">
-        <v>279</v>
+        <v>265</v>
+      </c>
+      <c r="F34" t="s">
+        <v>510</v>
+      </c>
+      <c r="G34" t="s">
+        <v>511</v>
+      </c>
+      <c r="H34" t="s">
+        <v>375</v>
       </c>
       <c r="I34" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>450000</v>
+        <v>1795000</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>2.3519999999999999</v>
+        <v>3.1549999999999998</v>
       </c>
       <c r="E35" t="s">
-        <v>281</v>
+        <v>267</v>
+      </c>
+      <c r="F35" t="s">
+        <v>512</v>
+      </c>
+      <c r="G35" t="s">
+        <v>513</v>
+      </c>
+      <c r="H35" t="s">
+        <v>376</v>
       </c>
       <c r="I35" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>299900</v>
+        <v>395900</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36">
-        <v>1.5449999999999999</v>
+        <v>1.8480000000000001</v>
       </c>
       <c r="E36" t="s">
-        <v>283</v>
+        <v>269</v>
+      </c>
+      <c r="F36" t="s">
+        <v>514</v>
+      </c>
+      <c r="G36" t="s">
+        <v>515</v>
+      </c>
+      <c r="H36" t="s">
+        <v>377</v>
       </c>
       <c r="I36" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1100000</v>
+        <v>450000</v>
       </c>
       <c r="B37" t="s">
         <v>18</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37">
-        <v>3.2</v>
+        <v>2.3519999999999999</v>
       </c>
       <c r="E37" t="s">
-        <v>285</v>
+        <v>271</v>
+      </c>
+      <c r="F37" t="s">
+        <v>516</v>
+      </c>
+      <c r="G37" t="s">
+        <v>517</v>
+      </c>
+      <c r="H37" t="s">
+        <v>378</v>
       </c>
       <c r="I37" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>800000</v>
+        <v>265000</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>2.3679999999999999</v>
+        <v>1.5640000000000001</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>324</v>
+      </c>
+      <c r="F38" t="s">
+        <v>518</v>
+      </c>
+      <c r="G38" t="s">
+        <v>448</v>
+      </c>
+      <c r="H38" t="s">
+        <v>379</v>
       </c>
       <c r="I38" t="s">
-        <v>42</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1339000</v>
+        <v>289000</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>4.5140000000000002</v>
+        <v>1.488</v>
       </c>
       <c r="E39" t="s">
-        <v>287</v>
+        <v>273</v>
+      </c>
+      <c r="F39" t="s">
+        <v>519</v>
+      </c>
+      <c r="G39" t="s">
+        <v>520</v>
+      </c>
+      <c r="H39" t="s">
+        <v>380</v>
       </c>
       <c r="I39" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>299999</v>
+        <v>525000</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>1.1599999999999999</v>
+        <v>1.4019999999999999</v>
       </c>
       <c r="E40" t="s">
-        <v>289</v>
+        <v>275</v>
+      </c>
+      <c r="F40" t="s">
+        <v>521</v>
+      </c>
+      <c r="G40" t="s">
+        <v>522</v>
+      </c>
+      <c r="H40" t="s">
+        <v>381</v>
       </c>
       <c r="I40" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>199000</v>
+        <v>409000</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>1.52</v>
+        <v>2.25</v>
       </c>
       <c r="E41" t="s">
-        <v>291</v>
+        <v>277</v>
+      </c>
+      <c r="F41" t="s">
+        <v>523</v>
+      </c>
+      <c r="G41" t="s">
+        <v>524</v>
+      </c>
+      <c r="H41" t="s">
+        <v>382</v>
       </c>
       <c r="I41" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>750000</v>
+        <v>699000</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="E42" t="s">
-        <v>293</v>
+        <v>279</v>
+      </c>
+      <c r="F42" t="s">
+        <v>525</v>
+      </c>
+      <c r="G42" t="s">
+        <v>470</v>
+      </c>
+      <c r="H42" t="s">
+        <v>383</v>
       </c>
       <c r="I42" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>264900</v>
+        <v>99900</v>
       </c>
       <c r="B43" t="s">
         <v>18</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>1.708</v>
+        <v>1.968</v>
       </c>
       <c r="E43" t="s">
-        <v>295</v>
+        <v>281</v>
+      </c>
+      <c r="F43" t="s">
+        <v>526</v>
+      </c>
+      <c r="G43" t="s">
+        <v>527</v>
+      </c>
+      <c r="H43" t="s">
+        <v>384</v>
       </c>
       <c r="I43" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>825000</v>
+        <v>199900</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>1.929</v>
+        <v>1.6859999999999999</v>
       </c>
       <c r="E44" t="s">
-        <v>297</v>
+        <v>283</v>
+      </c>
+      <c r="F44" t="s">
+        <v>528</v>
+      </c>
+      <c r="G44" t="s">
+        <v>529</v>
+      </c>
+      <c r="H44" t="s">
+        <v>385</v>
       </c>
       <c r="I44" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>399900</v>
+        <v>300000</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>2.78</v>
+        <v>1.008</v>
       </c>
       <c r="E45" t="s">
-        <v>299</v>
+        <v>403</v>
+      </c>
+      <c r="F45" t="s">
+        <v>530</v>
+      </c>
+      <c r="G45" t="s">
+        <v>531</v>
+      </c>
+      <c r="H45" t="s">
+        <v>532</v>
       </c>
       <c r="I45" t="s">
-        <v>300</v>
+        <v>404</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>199900</v>
+        <v>649900</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>305</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46">
-        <v>2.12</v>
+        <v>2.84</v>
       </c>
       <c r="E46" t="s">
-        <v>301</v>
+        <v>326</v>
+      </c>
+      <c r="F46" t="s">
+        <v>533</v>
+      </c>
+      <c r="G46" t="s">
+        <v>448</v>
+      </c>
+      <c r="H46" t="s">
+        <v>379</v>
       </c>
       <c r="I46" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>289000</v>
+        <v>449900</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47">
-        <v>1.488</v>
+        <v>2.5609999999999999</v>
       </c>
       <c r="E47" t="s">
-        <v>303</v>
+        <v>285</v>
+      </c>
+      <c r="F47" t="s">
+        <v>534</v>
+      </c>
+      <c r="G47" t="s">
+        <v>467</v>
+      </c>
+      <c r="H47" t="s">
+        <v>386</v>
       </c>
       <c r="I47" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>525000</v>
+        <v>289900</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
@@ -4574,38 +5708,56 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>1.4019999999999999</v>
+        <v>1.66</v>
       </c>
       <c r="E48" t="s">
-        <v>305</v>
+        <v>328</v>
+      </c>
+      <c r="F48" t="s">
+        <v>535</v>
+      </c>
+      <c r="G48" t="s">
+        <v>536</v>
+      </c>
+      <c r="H48" t="s">
+        <v>387</v>
       </c>
       <c r="I48" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>409000</v>
+        <v>840000</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="D49">
-        <v>2.25</v>
+        <v>2.8570000000000002</v>
       </c>
       <c r="E49" t="s">
-        <v>307</v>
+        <v>330</v>
+      </c>
+      <c r="F49" t="s">
+        <v>537</v>
+      </c>
+      <c r="G49" t="s">
+        <v>538</v>
+      </c>
+      <c r="H49" t="s">
+        <v>388</v>
       </c>
       <c r="I49" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>699000</v>
+        <v>825000</v>
       </c>
       <c r="B50" t="s">
         <v>18</v>
@@ -4614,58 +5766,85 @@
         <v>2</v>
       </c>
       <c r="D50">
-        <v>1.9</v>
+        <v>1.6080000000000001</v>
       </c>
       <c r="E50" t="s">
-        <v>309</v>
+        <v>332</v>
+      </c>
+      <c r="F50" t="s">
+        <v>539</v>
+      </c>
+      <c r="G50" t="s">
+        <v>540</v>
+      </c>
+      <c r="H50" t="s">
+        <v>389</v>
       </c>
       <c r="I50" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>99900</v>
+        <v>299900</v>
       </c>
       <c r="B51" t="s">
         <v>18</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51">
-        <v>1.968</v>
+        <v>1.8</v>
       </c>
       <c r="E51" t="s">
-        <v>311</v>
+        <v>334</v>
+      </c>
+      <c r="F51" t="s">
+        <v>541</v>
+      </c>
+      <c r="G51" t="s">
+        <v>542</v>
+      </c>
+      <c r="H51" t="s">
+        <v>390</v>
       </c>
       <c r="I51" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>199900</v>
+        <v>519000</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52">
-        <v>1.6859999999999999</v>
+        <v>2.66</v>
       </c>
       <c r="E52" t="s">
-        <v>313</v>
+        <v>336</v>
+      </c>
+      <c r="F52" t="s">
+        <v>543</v>
+      </c>
+      <c r="G52" t="s">
+        <v>544</v>
+      </c>
+      <c r="H52" t="s">
+        <v>391</v>
       </c>
       <c r="I52" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>899000</v>
+        <v>699000</v>
       </c>
       <c r="B53" t="s">
         <v>18</v>
@@ -4674,378 +5853,549 @@
         <v>3</v>
       </c>
       <c r="D53">
-        <v>2.1190000000000002</v>
+        <v>3.448</v>
       </c>
       <c r="E53" t="s">
-        <v>315</v>
+        <v>338</v>
+      </c>
+      <c r="F53" t="s">
+        <v>545</v>
+      </c>
+      <c r="G53" t="s">
+        <v>546</v>
+      </c>
+      <c r="H53" t="s">
+        <v>392</v>
       </c>
       <c r="I53" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>675000</v>
+        <v>399000</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>2.6480000000000001</v>
+        <v>1.2250000000000001</v>
       </c>
       <c r="E54" t="s">
-        <v>317</v>
+        <v>405</v>
+      </c>
+      <c r="F54" t="s">
+        <v>547</v>
+      </c>
+      <c r="G54" t="s">
+        <v>548</v>
+      </c>
+      <c r="H54" t="s">
+        <v>549</v>
       </c>
       <c r="I54" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>299900</v>
+        <v>629900</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55">
-        <v>1.6040000000000001</v>
+        <v>2.0110000000000001</v>
       </c>
       <c r="E55" t="s">
-        <v>319</v>
+        <v>340</v>
+      </c>
+      <c r="F55" t="s">
+        <v>550</v>
+      </c>
+      <c r="G55" t="s">
+        <v>551</v>
+      </c>
+      <c r="H55" t="s">
+        <v>393</v>
       </c>
       <c r="I55" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>449900</v>
+        <v>299900</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>2.5609999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="E56" t="s">
-        <v>321</v>
+        <v>287</v>
+      </c>
+      <c r="F56" t="s">
+        <v>552</v>
+      </c>
+      <c r="G56" t="s">
+        <v>553</v>
+      </c>
+      <c r="H56" t="s">
+        <v>394</v>
       </c>
       <c r="I56" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>299900</v>
+        <v>245000</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57">
-        <v>1.4</v>
+        <v>2.0259999999999998</v>
       </c>
       <c r="E57" t="s">
-        <v>323</v>
+        <v>289</v>
+      </c>
+      <c r="F57" t="s">
+        <v>554</v>
+      </c>
+      <c r="G57" t="s">
+        <v>448</v>
+      </c>
+      <c r="H57" t="s">
+        <v>395</v>
       </c>
       <c r="I57" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>245000</v>
+        <v>549999</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>2.0259999999999998</v>
+        <v>1.3</v>
       </c>
       <c r="E58" t="s">
-        <v>325</v>
+        <v>291</v>
+      </c>
+      <c r="F58" t="s">
+        <v>555</v>
+      </c>
+      <c r="G58" t="s">
+        <v>556</v>
+      </c>
+      <c r="H58" t="s">
+        <v>396</v>
       </c>
       <c r="I58" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>549999</v>
+        <v>159900</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="E59" t="s">
-        <v>327</v>
+        <v>293</v>
+      </c>
+      <c r="F59" t="s">
+        <v>557</v>
+      </c>
+      <c r="G59" t="s">
+        <v>558</v>
+      </c>
+      <c r="H59" t="s">
+        <v>397</v>
       </c>
       <c r="I59" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>159900</v>
+        <v>250000</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
       <c r="D60">
-        <v>1.2</v>
+        <v>1.794</v>
       </c>
       <c r="E60" t="s">
-        <v>329</v>
+        <v>295</v>
+      </c>
+      <c r="F60" t="s">
+        <v>559</v>
+      </c>
+      <c r="G60" t="s">
+        <v>560</v>
+      </c>
+      <c r="H60" t="s">
+        <v>398</v>
       </c>
       <c r="I60" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>250000</v>
+        <v>269900</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
       <c r="D61">
-        <v>1.794</v>
+        <v>1.9510000000000001</v>
       </c>
       <c r="E61" t="s">
-        <v>331</v>
+        <v>407</v>
+      </c>
+      <c r="F61" t="s">
+        <v>561</v>
+      </c>
+      <c r="G61" t="s">
+        <v>490</v>
+      </c>
+      <c r="H61" t="s">
+        <v>562</v>
       </c>
       <c r="I61" t="s">
-        <v>332</v>
+        <v>408</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>389000</v>
+        <v>255000</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
       <c r="D62">
-        <v>1.8009999999999999</v>
+        <v>1.6910000000000001</v>
       </c>
       <c r="E62" t="s">
-        <v>333</v>
+        <v>409</v>
+      </c>
+      <c r="F62" t="s">
+        <v>563</v>
+      </c>
+      <c r="G62" t="s">
+        <v>564</v>
+      </c>
+      <c r="H62" t="s">
+        <v>565</v>
       </c>
       <c r="I62" t="s">
-        <v>334</v>
+        <v>410</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>560000</v>
+        <v>349900</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
       <c r="D63">
-        <v>1.26</v>
+        <v>1.746</v>
       </c>
       <c r="E63" t="s">
-        <v>335</v>
+        <v>342</v>
+      </c>
+      <c r="F63" t="s">
+        <v>566</v>
+      </c>
+      <c r="G63" t="s">
+        <v>546</v>
+      </c>
+      <c r="H63" t="s">
+        <v>392</v>
       </c>
       <c r="I63" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>209900</v>
+        <v>2250000</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64">
-        <v>1.514</v>
+        <v>4.8209999999999997</v>
       </c>
       <c r="E64" t="s">
-        <v>337</v>
+        <v>297</v>
+      </c>
+      <c r="F64" t="s">
+        <v>567</v>
+      </c>
+      <c r="G64" t="s">
+        <v>482</v>
+      </c>
+      <c r="H64" t="s">
+        <v>362</v>
       </c>
       <c r="I64" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>699988</v>
+        <v>699999</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65">
-        <v>3.4</v>
+        <v>3.3250000000000002</v>
       </c>
       <c r="E65" t="s">
-        <v>339</v>
+        <v>299</v>
+      </c>
+      <c r="F65" t="s">
+        <v>568</v>
+      </c>
+      <c r="G65" t="s">
+        <v>569</v>
+      </c>
+      <c r="H65" t="s">
+        <v>570</v>
       </c>
       <c r="I65" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>2250000</v>
+        <v>300000</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C66">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66">
-        <v>4.8209999999999997</v>
+        <v>1.4550000000000001</v>
       </c>
       <c r="E66" t="s">
-        <v>341</v>
+        <v>301</v>
+      </c>
+      <c r="F66" t="s">
+        <v>571</v>
+      </c>
+      <c r="G66" t="s">
+        <v>572</v>
+      </c>
+      <c r="H66" t="s">
+        <v>573</v>
       </c>
       <c r="I66" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>699999</v>
+        <v>325000</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67">
-        <v>3.3250000000000002</v>
+        <v>3.4239999999999999</v>
       </c>
       <c r="E67" t="s">
-        <v>343</v>
+        <v>303</v>
+      </c>
+      <c r="F67" t="s">
+        <v>574</v>
+      </c>
+      <c r="G67" t="s">
+        <v>575</v>
+      </c>
+      <c r="H67" t="s">
+        <v>576</v>
       </c>
       <c r="I67" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>300000</v>
+        <v>660000</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68">
-        <v>1.4550000000000001</v>
+        <v>1.6140000000000001</v>
       </c>
       <c r="E68" t="s">
-        <v>345</v>
+        <v>411</v>
+      </c>
+      <c r="F68" t="s">
+        <v>577</v>
+      </c>
+      <c r="G68" t="s">
+        <v>482</v>
+      </c>
+      <c r="H68" t="s">
+        <v>362</v>
       </c>
       <c r="I68" t="s">
-        <v>346</v>
+        <v>412</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>325000</v>
+        <v>394500</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69">
-        <v>3.4239999999999999</v>
+        <v>2.145</v>
       </c>
       <c r="E69" t="s">
-        <v>347</v>
+        <v>344</v>
+      </c>
+      <c r="F69" t="s">
+        <v>578</v>
+      </c>
+      <c r="G69" t="s">
+        <v>579</v>
+      </c>
+      <c r="H69" t="s">
+        <v>580</v>
       </c>
       <c r="I69" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>349900</v>
+        <v>359000</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>2.2669999999999999</v>
+        <v>1.1319999999999999</v>
       </c>
       <c r="E70" t="s">
-        <v>349</v>
+        <v>413</v>
+      </c>
+      <c r="F70" t="s">
+        <v>581</v>
+      </c>
+      <c r="G70" t="s">
+        <v>582</v>
+      </c>
+      <c r="H70" t="s">
+        <v>583</v>
       </c>
       <c r="I70" t="s">
-        <v>350</v>
+        <v>414</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>229000</v>
+        <v>239900</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>1.64</v>
+        <v>1.2909999999999999</v>
       </c>
       <c r="E71" t="s">
-        <v>351</v>
+        <v>415</v>
+      </c>
+      <c r="F71" t="s">
+        <v>584</v>
+      </c>
+      <c r="G71" t="s">
+        <v>585</v>
+      </c>
+      <c r="H71" t="s">
+        <v>586</v>
       </c>
       <c r="I71" t="s">
-        <v>352</v>
+        <v>416</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>999900</v>
+        <v>575000</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -5054,58 +6404,85 @@
         <v>3</v>
       </c>
       <c r="D72">
-        <v>2.5379999999999998</v>
+        <v>1.6259999999999999</v>
       </c>
       <c r="E72" t="s">
-        <v>353</v>
+        <v>417</v>
+      </c>
+      <c r="F72" t="s">
+        <v>587</v>
+      </c>
+      <c r="G72" t="s">
+        <v>588</v>
+      </c>
+      <c r="H72" t="s">
+        <v>589</v>
       </c>
       <c r="I72" t="s">
-        <v>354</v>
+        <v>418</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>638000</v>
+        <v>224777</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>1.6120000000000001</v>
       </c>
       <c r="E73" t="s">
-        <v>355</v>
+        <v>419</v>
+      </c>
+      <c r="F73" t="s">
+        <v>590</v>
+      </c>
+      <c r="G73" t="s">
+        <v>591</v>
+      </c>
+      <c r="H73" t="s">
+        <v>592</v>
       </c>
       <c r="I73" t="s">
-        <v>356</v>
+        <v>420</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>239900</v>
+        <v>375000</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74">
-        <v>1.2909999999999999</v>
+        <v>2.3980000000000001</v>
       </c>
       <c r="E74" t="s">
-        <v>357</v>
+        <v>421</v>
+      </c>
+      <c r="F74" t="s">
+        <v>593</v>
+      </c>
+      <c r="G74" t="s">
+        <v>474</v>
+      </c>
+      <c r="H74" t="s">
+        <v>358</v>
       </c>
       <c r="I74" t="s">
-        <v>358</v>
+        <v>422</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>575000</v>
+        <v>1710000</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -5114,78 +6491,114 @@
         <v>3</v>
       </c>
       <c r="D75">
-        <v>1.6259999999999999</v>
+        <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>359</v>
+        <v>423</v>
+      </c>
+      <c r="F75" t="s">
+        <v>594</v>
+      </c>
+      <c r="G75" t="s">
+        <v>595</v>
+      </c>
+      <c r="H75" t="s">
+        <v>596</v>
       </c>
       <c r="I75" t="s">
-        <v>360</v>
+        <v>424</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>224777</v>
+        <v>174900</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76">
-        <v>1.6120000000000001</v>
+        <v>964</v>
       </c>
       <c r="E76" t="s">
-        <v>361</v>
+        <v>425</v>
+      </c>
+      <c r="F76" t="s">
+        <v>597</v>
+      </c>
+      <c r="G76" t="s">
+        <v>598</v>
+      </c>
+      <c r="H76" t="s">
+        <v>599</v>
       </c>
       <c r="I76" t="s">
-        <v>362</v>
+        <v>426</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>375000</v>
+        <v>274900</v>
       </c>
       <c r="B77" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C77">
         <v>2</v>
       </c>
       <c r="D77">
-        <v>2.3980000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E77" t="s">
-        <v>363</v>
+        <v>427</v>
+      </c>
+      <c r="F77" t="s">
+        <v>600</v>
+      </c>
+      <c r="G77" t="s">
+        <v>450</v>
+      </c>
+      <c r="H77" t="s">
+        <v>382</v>
       </c>
       <c r="I77" t="s">
-        <v>364</v>
+        <v>428</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1710000</v>
+        <v>799000</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="E78" t="s">
-        <v>365</v>
+        <v>429</v>
+      </c>
+      <c r="F78" t="s">
+        <v>601</v>
+      </c>
+      <c r="G78" t="s">
+        <v>602</v>
+      </c>
+      <c r="H78" t="s">
+        <v>603</v>
       </c>
       <c r="I78" t="s">
-        <v>366</v>
+        <v>430</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>309800</v>
+        <v>635000</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
@@ -5194,178 +6607,259 @@
         <v>2</v>
       </c>
       <c r="D79">
-        <v>1.9159999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E79" t="s">
-        <v>367</v>
+        <v>306</v>
+      </c>
+      <c r="F79" t="s">
+        <v>604</v>
+      </c>
+      <c r="G79" t="s">
+        <v>605</v>
+      </c>
+      <c r="H79" t="s">
+        <v>606</v>
       </c>
       <c r="I79" t="s">
-        <v>368</v>
+        <v>307</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>429900</v>
+        <v>699000</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80">
-        <v>2.5880000000000001</v>
+        <v>1.274</v>
       </c>
       <c r="E80" t="s">
-        <v>369</v>
+        <v>308</v>
+      </c>
+      <c r="F80" t="s">
+        <v>607</v>
+      </c>
+      <c r="G80" t="s">
+        <v>608</v>
+      </c>
+      <c r="H80" t="s">
+        <v>609</v>
       </c>
       <c r="I80" t="s">
-        <v>370</v>
+        <v>309</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1475000</v>
+        <v>269999</v>
       </c>
       <c r="B81" t="s">
-        <v>371</v>
+        <v>18</v>
       </c>
       <c r="C81">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D81">
-        <v>4.2619999999999996</v>
+        <v>1.397</v>
       </c>
       <c r="E81" t="s">
-        <v>372</v>
+        <v>310</v>
+      </c>
+      <c r="F81" t="s">
+        <v>610</v>
+      </c>
+      <c r="G81" t="s">
+        <v>611</v>
+      </c>
+      <c r="H81" t="s">
+        <v>612</v>
       </c>
       <c r="I81" t="s">
-        <v>373</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>199900</v>
+        <v>500000</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D82">
-        <v>952</v>
+        <v>1.7490000000000001</v>
       </c>
       <c r="E82" t="s">
-        <v>374</v>
+        <v>312</v>
+      </c>
+      <c r="F82" t="s">
+        <v>613</v>
+      </c>
+      <c r="G82" t="s">
+        <v>614</v>
+      </c>
+      <c r="H82" t="s">
+        <v>615</v>
       </c>
       <c r="I82" t="s">
-        <v>375</v>
+        <v>313</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>599000</v>
+        <v>279888</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
       <c r="D83">
-        <v>2.5659999999999998</v>
+        <v>1.788</v>
       </c>
       <c r="E83" t="s">
-        <v>376</v>
+        <v>431</v>
+      </c>
+      <c r="F83" t="s">
+        <v>616</v>
+      </c>
+      <c r="G83" t="s">
+        <v>598</v>
+      </c>
+      <c r="H83" t="s">
+        <v>599</v>
       </c>
       <c r="I83" t="s">
-        <v>377</v>
+        <v>432</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>599900</v>
+        <v>184900</v>
       </c>
       <c r="B84" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
       <c r="D84">
-        <v>1.08</v>
+        <v>1.367</v>
       </c>
       <c r="E84" t="s">
-        <v>378</v>
+        <v>433</v>
+      </c>
+      <c r="F84" t="s">
+        <v>617</v>
+      </c>
+      <c r="G84" t="s">
+        <v>618</v>
+      </c>
+      <c r="H84" t="s">
+        <v>619</v>
       </c>
       <c r="I84" t="s">
-        <v>379</v>
+        <v>434</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>135000</v>
+        <v>800000</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C85">
         <v>2</v>
       </c>
       <c r="D85">
-        <v>1.069</v>
+        <v>1.8</v>
       </c>
       <c r="E85" t="s">
-        <v>380</v>
+        <v>435</v>
+      </c>
+      <c r="F85" t="s">
+        <v>620</v>
+      </c>
+      <c r="G85" t="s">
+        <v>621</v>
+      </c>
+      <c r="H85" t="s">
+        <v>622</v>
       </c>
       <c r="I85" t="s">
-        <v>381</v>
+        <v>436</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>499999</v>
+        <v>335000</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
       <c r="D86">
-        <v>1.167</v>
+        <v>2.1789999999999998</v>
       </c>
       <c r="E86" t="s">
-        <v>382</v>
+        <v>437</v>
+      </c>
+      <c r="F86" t="s">
+        <v>623</v>
+      </c>
+      <c r="G86" t="s">
+        <v>624</v>
+      </c>
+      <c r="H86" t="s">
+        <v>625</v>
       </c>
       <c r="I86" t="s">
-        <v>383</v>
+        <v>438</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>15000</v>
+        <v>279900</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D87">
-        <v>1.0640000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="E87" t="s">
-        <v>384</v>
+        <v>439</v>
+      </c>
+      <c r="F87" t="s">
+        <v>626</v>
+      </c>
+      <c r="G87" t="s">
+        <v>627</v>
+      </c>
+      <c r="H87" t="s">
+        <v>628</v>
       </c>
       <c r="I87" t="s">
-        <v>385</v>
+        <v>440</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>635000</v>
+        <v>219900</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
@@ -5374,93 +6868,80 @@
         <v>2</v>
       </c>
       <c r="D88">
-        <v>1.1000000000000001</v>
+        <v>1.3740000000000001</v>
       </c>
       <c r="E88" t="s">
-        <v>386</v>
+        <v>441</v>
+      </c>
+      <c r="F88" t="s">
+        <v>629</v>
+      </c>
+      <c r="G88" t="s">
+        <v>630</v>
+      </c>
+      <c r="H88" t="s">
+        <v>631</v>
       </c>
       <c r="I88" t="s">
-        <v>387</v>
+        <v>442</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>699000</v>
+        <v>525000</v>
       </c>
       <c r="B89" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89">
-        <v>1.274</v>
+        <v>2.0960000000000001</v>
       </c>
       <c r="E89" t="s">
-        <v>388</v>
+        <v>443</v>
+      </c>
+      <c r="F89" t="s">
+        <v>632</v>
+      </c>
+      <c r="G89" t="s">
+        <v>633</v>
+      </c>
+      <c r="H89" t="s">
+        <v>634</v>
       </c>
       <c r="I89" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>269999</v>
+        <v>249900</v>
       </c>
       <c r="B90" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90">
-        <v>1.397</v>
+        <v>1.6739999999999999</v>
       </c>
       <c r="E90" t="s">
-        <v>390</v>
+        <v>445</v>
+      </c>
+      <c r="F90" t="s">
+        <v>635</v>
+      </c>
+      <c r="G90" t="s">
+        <v>636</v>
+      </c>
+      <c r="H90" t="s">
+        <v>637</v>
       </c>
       <c r="I90" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>500000</v>
-      </c>
-      <c r="B91" t="s">
-        <v>6</v>
-      </c>
-      <c r="C91">
-        <v>3</v>
-      </c>
-      <c r="D91">
-        <v>1.7490000000000001</v>
-      </c>
-      <c r="E91" t="s">
-        <v>392</v>
-      </c>
-      <c r="I91" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>279888</v>
-      </c>
-      <c r="B92" t="s">
-        <v>18</v>
-      </c>
-      <c r="C92">
-        <v>2</v>
-      </c>
-      <c r="D92">
-        <v>1.788</v>
-      </c>
-      <c r="E92" t="s">
-        <v>394</v>
-      </c>
-      <c r="I92" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>

--- a/PropertyListing.xlsx
+++ b/PropertyListing.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aykut\Documents\UiPath\Bot4_RealEstateWebScraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46509BA9-FD1E-44B7-9085-F9D77702285A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94D3475-155D-4D74-82C6-02576AC7B749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E21BD628-5F59-4AD9-80D4-4CA013637FBB}"/>
   </bookViews>
   <sheets>
     <sheet name="LAS VEGAS" sheetId="4" r:id="rId1"/>
-    <sheet name="NEW YORK" sheetId="13" r:id="rId2"/>
+    <sheet name="NEW YORK" sheetId="15" r:id="rId2"/>
     <sheet name="Sayfa1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="475">
   <si>
     <t>Price</t>
   </si>
@@ -854,12 +854,6 @@
     <t>Massapequa</t>
   </si>
   <si>
-    <t>https://www.zillow.com/homedetails/799-Clintonville-Rd-Peru-NY-12972/215765308_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/47-Remsen-Rd-Wading-River-NY-11792/32672632_zpid/</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/4499-Hylan-Blvd-Staten-Island-NY-10312/32350522_zpid/</t>
   </si>
   <si>
@@ -881,73 +875,592 @@
     <t>https://www.zillow.com/homedetails/10-Park-Ln-West-Harrison-NY-10604/33040725_zpid/</t>
   </si>
   <si>
+    <t>4499 Hylan Blvd</t>
+  </si>
+  <si>
+    <t>Staten Island</t>
+  </si>
+  <si>
+    <t>23 Old Mt Peter Road</t>
+  </si>
+  <si>
+    <t>Warwick</t>
+  </si>
+  <si>
+    <t>36 Ridgefield Dr</t>
+  </si>
+  <si>
+    <t>Churchville</t>
+  </si>
+  <si>
+    <t>78 Sunbriar Dr</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>636 Barton Mines Road</t>
+  </si>
+  <si>
+    <t>Johnsburg</t>
+  </si>
+  <si>
+    <t>1045 Gallup Rd</t>
+  </si>
+  <si>
+    <t>Spencerport</t>
+  </si>
+  <si>
+    <t>10 Park Lane</t>
+  </si>
+  <si>
+    <t>West Harrison</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/73-Susan-Dr-New-City-NY-10956/53394461_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4-Allen-Pl-New-Windsor-NY-12553/31848223_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/165-Galway-Rd-Windham-NY-12496/30508148_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/113-Maple-Hts-Bath-NY-14810/32570604_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/121-Rolling-Green-Ln-Elma-NY-14059/30322744_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2815-Yale-St-Endwell-NY-13760/29761989_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/132-Chatham-St-Nassau-NY-12123/32251959_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/821-Ohio-Ave-North-Tonawanda-NY-14120/31455444_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1750-Water-Ter-Southold-NY-11971/32754170_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/32-S-Hills-Dr-New-Hartford-NY-13413/31601697_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/21-Hemlock-Rd-Varysburg-NY-14167/348007828_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/24-Framingham-Ln-Pittsford-NY-14534/31024960_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1681-Pierce-Rd-Martville-NY-13111/30054549_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/9-Fullerton-St-Albany-NY-12209/29653960_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6-Winding-Rd-Rochester-NY-14618/31025782_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/9-Saint-Stephens-Ln-E-Glenville-NY-12302/32485459_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/65-36-79th-Pl-Middle-Village-NY-11379/2056770968_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/519-Ingraham-Ln-New-Hyde-Park-NY-11040/31094814_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1078-Springs-Fireplace-Rd-East-Hampton-NY-11937/32655664_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2-Perry-St-Cortlandt-Manor-NY-10567/58411117_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/30-Oakcliff-Ct-East-Amherst-NY-14051/30237598_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/107-Larisa-Ln-Ithaca-NY-14850/80030008_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/277-Tobey-Rd-Pittsford-NY-14534/31027441_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/120-Foster-Valley-Rd-Owego-NY-13827/71199497_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4-Oak-Cir-Cir-NY-12785/31815645_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/122-Roberts-St-Richmondville-NY-12149/84112278_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/11-Armonk-Rd-Carmel-NY-10512/31914819_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/220-Weed-Rd-Shawangunk-NY-12566/32874242_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/46-Ravina-Rd-Patterson-NY-12563/31919814_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1201-Ridge-Rd-Broadalbin-NY-12025/32428933_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/77-Round-Lake-Rd-Ballston-Lake-NY-12019/32440332_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/691-Paradise-Rd-East-Amherst-NY-14051/30244747_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7721-E-Britton-Dr-Niagara-Falls-NY-14304/31475272_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/257-N-6th-St-Bethpage-NY-11714/31291612_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/97-Country-Ridge-Dr-Rye-Brook-NY-10573/33090350_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3-Estates-Dr-Ithaca-NY-14850/32828692_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/180-Eugene-Ave-Buffalo-NY-14217/30380463_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/126-Ramblers-Lodge-Rd-Inlet-NY-13360/348007830_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/52-Smith-Hill-Rd-Airmont-NY-10952/53429901_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/141-Lyrae-Dr-Getzville-NY-14068/30237936_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/18-Viscount-Dr-Williamsville-NY-14221/30249483_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/44-Harlem-Rd-Buffalo-NY-14224/30408920_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/40-Clark-Pl-Port-Chester-NY-10573/33086999_zpid/</t>
+  </si>
+  <si>
+    <t>73 Susan Drive</t>
+  </si>
+  <si>
+    <t>New City</t>
+  </si>
+  <si>
+    <t>4 Allen Place</t>
+  </si>
+  <si>
+    <t>New Windsor</t>
+  </si>
+  <si>
+    <t>165 Galway Rd</t>
+  </si>
+  <si>
+    <t>Windham</t>
+  </si>
+  <si>
+    <t>113 Maple Hts</t>
+  </si>
+  <si>
+    <t>Bath</t>
+  </si>
+  <si>
+    <t>121 Rolling Green Ln</t>
+  </si>
+  <si>
+    <t>Elma</t>
+  </si>
+  <si>
+    <t>2815 Yale St</t>
+  </si>
+  <si>
+    <t>Endwell</t>
+  </si>
+  <si>
+    <t>132 Chatham Street</t>
+  </si>
+  <si>
+    <t>Nassau</t>
+  </si>
+  <si>
+    <t>821 Ohio Ave</t>
+  </si>
+  <si>
+    <t>North Tonawanda</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>1750 Water Terrace</t>
+  </si>
+  <si>
+    <t>Southold</t>
+  </si>
+  <si>
+    <t>32 S Hills Dr</t>
+  </si>
+  <si>
+    <t>New Hartford</t>
+  </si>
+  <si>
+    <t>21 Hemlock Rd</t>
+  </si>
+  <si>
+    <t>Varysburg</t>
+  </si>
+  <si>
+    <t>24 Framingham Ln</t>
+  </si>
+  <si>
+    <t>Pittsford</t>
+  </si>
+  <si>
+    <t>1681 Pierce Rd</t>
+  </si>
+  <si>
+    <t>Martville</t>
+  </si>
+  <si>
+    <t>9 Fullerton Street</t>
+  </si>
+  <si>
+    <t>Albany</t>
+  </si>
+  <si>
+    <t>6 Winding Rd</t>
+  </si>
+  <si>
+    <t>9 St. Stephens Lane E</t>
+  </si>
+  <si>
+    <t>Glenville</t>
+  </si>
+  <si>
+    <t>65-36 79th Pl</t>
+  </si>
+  <si>
+    <t>Middle Village</t>
+  </si>
+  <si>
+    <t>519 Ingraham Lane</t>
+  </si>
+  <si>
+    <t>New Hyde Park</t>
+  </si>
+  <si>
+    <t>1078 Springs Fireplace Road</t>
+  </si>
+  <si>
+    <t>East Hampton</t>
+  </si>
+  <si>
+    <t>2 Perry Street</t>
+  </si>
+  <si>
+    <t>Cortlandt Manor</t>
+  </si>
+  <si>
+    <t>30 Oakcliff Ct</t>
+  </si>
+  <si>
+    <t>East Amherst</t>
+  </si>
+  <si>
+    <t>107 Larisa Ln</t>
+  </si>
+  <si>
+    <t>Ithaca</t>
+  </si>
+  <si>
+    <t>277 Tobey Rd</t>
+  </si>
+  <si>
+    <t>120 Foster Valley Rd</t>
+  </si>
+  <si>
+    <t>Owego</t>
+  </si>
+  <si>
+    <t>4 Oak Circle</t>
+  </si>
+  <si>
+    <t>Westbrookville</t>
+  </si>
+  <si>
+    <t>122 Roberts Street</t>
+  </si>
+  <si>
+    <t>Richmondville</t>
+  </si>
+  <si>
+    <t>11 Armonk Road</t>
+  </si>
+  <si>
+    <t>Carmel</t>
+  </si>
+  <si>
+    <t>220 Weed Road</t>
+  </si>
+  <si>
+    <t>Pine Bush</t>
+  </si>
+  <si>
+    <t>46 Ravina Road</t>
+  </si>
+  <si>
+    <t>Patterson</t>
+  </si>
+  <si>
+    <t>1201 Ridge Road</t>
+  </si>
+  <si>
+    <t>Broadalbin</t>
+  </si>
+  <si>
+    <t>77 Round Lake Road</t>
+  </si>
+  <si>
+    <t>Ballston Lake</t>
+  </si>
+  <si>
+    <t>691 Paradise Rd</t>
+  </si>
+  <si>
+    <t>7721 E Britton Dr</t>
+  </si>
+  <si>
+    <t>Niagara Falls</t>
+  </si>
+  <si>
+    <t>Geneva</t>
+  </si>
+  <si>
+    <t>257 N 6th Street</t>
+  </si>
+  <si>
+    <t>Bethpage</t>
+  </si>
+  <si>
+    <t>97 Country Ridge Drive</t>
+  </si>
+  <si>
+    <t>Rye Brook</t>
+  </si>
+  <si>
+    <t>3 Estates Dr</t>
+  </si>
+  <si>
+    <t>180 Eugene Ave</t>
+  </si>
+  <si>
+    <t>126 Ramblers Lodge Rd</t>
+  </si>
+  <si>
+    <t>Inlet</t>
+  </si>
+  <si>
+    <t>52 Smith Hill Road</t>
+  </si>
+  <si>
+    <t>Airmont</t>
+  </si>
+  <si>
+    <t>141 Lyrae Dr</t>
+  </si>
+  <si>
+    <t>Getzville</t>
+  </si>
+  <si>
+    <t>18 Viscount Dr</t>
+  </si>
+  <si>
+    <t>Williamsville</t>
+  </si>
+  <si>
+    <t>44 Harlem Rd</t>
+  </si>
+  <si>
+    <t>40 Clark Place</t>
+  </si>
+  <si>
+    <t>Port Chester</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/215-Gallant-Fox-Ln-Webster-NY-14580/70905862_zpid/</t>
+  </si>
+  <si>
     <t>https://www.zillow.com/homedetails/51-Academy-St-Spencer-NY-14883/32808405_zpid/</t>
   </si>
   <si>
-    <t>799 Clintonville Rd</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>47 Remsen Road</t>
-  </si>
-  <si>
-    <t>Wading River</t>
-  </si>
-  <si>
-    <t>4499 Hylan Blvd</t>
-  </si>
-  <si>
-    <t>Staten Island</t>
-  </si>
-  <si>
-    <t>23 Old Mt Peter Road</t>
-  </si>
-  <si>
-    <t>Warwick</t>
-  </si>
-  <si>
-    <t>36 Ridgefield Dr</t>
-  </si>
-  <si>
-    <t>Churchville</t>
-  </si>
-  <si>
-    <t>78 Sunbriar Dr</t>
-  </si>
-  <si>
-    <t>Buffalo</t>
-  </si>
-  <si>
-    <t>636 Barton Mines Road</t>
-  </si>
-  <si>
-    <t>Johnsburg</t>
-  </si>
-  <si>
-    <t>1045 Gallup Rd</t>
-  </si>
-  <si>
-    <t>Spencerport</t>
-  </si>
-  <si>
-    <t>10 Park Lane</t>
-  </si>
-  <si>
-    <t>West Harrison</t>
+    <t>https://www.zillow.com/homedetails/125-Wykagyl-Ter-New-Rochelle-NY-10804/32963027_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3-Monterey-Dr-PVT-Pittsford-NY-14534/31031372_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4936-State-Route-14-Geneva-NY-14456/31888790_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/14-Inlet-Pl-Huntington-NY-11743/59340201_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/819-Nottingham-Rd-Syracuse-NY-13224/31726766_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/324-Quaker-St-Wallkill-NY-12589/89602155_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/123-Cornell-Ave-Amherst-NY-14226/30263149_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/134-Henderson-Ave-Buffalo-NY-14217/30391797_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/28-Millennium-Ct-Bohemia-NY-11716/62620279_zpid/</t>
+  </si>
+  <si>
+    <t>8 bds</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/177-Benedict-Rd-Staten-Island-NY-10304/32294383_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/32-Gavin-St-Yonkers-NY-10701/347876851_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/616-Morning-Glory-Dr-Webster-NY-14580/54360927_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/507-N-Lake-Blvd-Mahopac-NY-10541/31907060_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4381-Francis-Rd-Cazenovia-NY-13035/119243411_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/50-Beard-St-Staten-Island-NY-10314/32312285_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/32-S-Eckar-St-Irvington-NY-10533/33023799_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5-Graham-Ct-Rye-NY-10580/58406763_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/13-Tudor-Rd-Albany-NY-12203/29639146_zpid/</t>
+  </si>
+  <si>
+    <t>Price per Sqft</t>
+  </si>
+  <si>
+    <t>215 Gallant Fox Ln</t>
+  </si>
+  <si>
+    <t>Webster</t>
   </si>
   <si>
     <t>51 Academy St</t>
   </si>
   <si>
     <t>Spencer</t>
+  </si>
+  <si>
+    <t>125 Wykagyl Terrace</t>
+  </si>
+  <si>
+    <t>New Rochelle</t>
+  </si>
+  <si>
+    <t>3 Monterey Dr #PVT</t>
+  </si>
+  <si>
+    <t>4936 State Route 14</t>
+  </si>
+  <si>
+    <t>14 Inlet Place</t>
+  </si>
+  <si>
+    <t>Huntington</t>
+  </si>
+  <si>
+    <t>819 Nottingham Rd</t>
+  </si>
+  <si>
+    <t>324 Quaker Street</t>
+  </si>
+  <si>
+    <t>Wallkill</t>
+  </si>
+  <si>
+    <t>123 Cornell Ave</t>
+  </si>
+  <si>
+    <t>Amherst</t>
+  </si>
+  <si>
+    <t>134 Henderson Ave</t>
+  </si>
+  <si>
+    <t>28 Millennium Court</t>
+  </si>
+  <si>
+    <t>Bohemia</t>
+  </si>
+  <si>
+    <t>177 Benedict Rd</t>
+  </si>
+  <si>
+    <t>32 Gavin Street</t>
+  </si>
+  <si>
+    <t>Yonkers</t>
+  </si>
+  <si>
+    <t>616 Morning Glory Dr</t>
+  </si>
+  <si>
+    <t>507 N Lake Boulevard</t>
+  </si>
+  <si>
+    <t>Mahopac</t>
+  </si>
+  <si>
+    <t>4381 Francis Rd</t>
+  </si>
+  <si>
+    <t>Cazenovia</t>
+  </si>
+  <si>
+    <t>50 Beard St</t>
+  </si>
+  <si>
+    <t>32 S Eckar Street</t>
+  </si>
+  <si>
+    <t>Irvington</t>
+  </si>
+  <si>
+    <t>5 Graham Court</t>
+  </si>
+  <si>
+    <t>Rye</t>
+  </si>
+  <si>
+    <t>13 Tudor Road</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#.##0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -984,8 +1497,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3338,17 +3852,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5396B1-A249-4399-86D0-FD8AA39780BD}">
-  <dimension ref="A1:H31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076FE9C7-271A-44D4-AF13-F24CB2003576}">
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3361,100 +3876,112 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F1" t="s">
         <v>222</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" t="s">
         <v>229</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>184900</v>
+        <v>172500</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1.25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>232</v>
+        <v>836</v>
+      </c>
+      <c r="E2" s="1">
+        <v>206.33971291866001</v>
       </c>
       <c r="F2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G2" s="1">
-        <v>14626</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H2">
+        <v>14167</v>
+      </c>
+      <c r="I2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>269900</v>
+        <v>249900</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>936</v>
+      </c>
+      <c r="E3" s="1">
+        <v>266.98717948717899</v>
+      </c>
+      <c r="F3" t="s">
+        <v>400</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H3">
+        <v>14051</v>
+      </c>
+      <c r="I3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>350000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>1.4039999999999999</v>
-      </c>
-      <c r="E3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F3" t="s">
-        <v>250</v>
-      </c>
-      <c r="G3" s="1">
-        <v>12306</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>130000</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
       <c r="D4">
-        <v>960</v>
-      </c>
-      <c r="E4" t="s">
-        <v>285</v>
+        <v>989</v>
+      </c>
+      <c r="E4" s="1">
+        <v>353.892821031344</v>
       </c>
       <c r="F4" t="s">
-        <v>286</v>
-      </c>
-      <c r="G4" s="1">
-        <v>12972</v>
-      </c>
-      <c r="H4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H4">
+        <v>12563</v>
+      </c>
+      <c r="I4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>379000</v>
+        <v>630000</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -3463,232 +3990,259 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>1.5549999999999999</v>
-      </c>
-      <c r="E5" t="s">
-        <v>234</v>
+        <v>786</v>
+      </c>
+      <c r="E5" s="1">
+        <v>801.526717557251</v>
       </c>
       <c r="F5" t="s">
-        <v>251</v>
-      </c>
-      <c r="G5" s="1">
-        <v>12845</v>
-      </c>
-      <c r="H5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="H5">
+        <v>10533</v>
+      </c>
+      <c r="I5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>500000</v>
+        <v>134900</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>1.99</v>
-      </c>
-      <c r="E6" t="s">
-        <v>235</v>
+        <v>2.0779999999999998</v>
+      </c>
+      <c r="E6" s="1">
+        <v>64918.1905678537</v>
       </c>
       <c r="F6" t="s">
-        <v>252</v>
-      </c>
-      <c r="G6" s="1">
-        <v>12590</v>
-      </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="H6">
+        <v>13035</v>
+      </c>
+      <c r="I6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>329900</v>
+        <v>79900</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>2.1190000000000002</v>
-      </c>
-      <c r="E7" t="s">
-        <v>236</v>
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>72373.188405797002</v>
       </c>
       <c r="F7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G7" s="1">
-        <v>14086</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H7">
+        <v>14610</v>
+      </c>
+      <c r="I7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>899000</v>
+        <v>129500</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>1.9079999999999999</v>
-      </c>
-      <c r="E8" t="s">
-        <v>237</v>
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>82800.5115089514</v>
       </c>
       <c r="F8" t="s">
-        <v>254</v>
-      </c>
-      <c r="G8" s="1">
-        <v>12495</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H8">
+        <v>14810</v>
+      </c>
+      <c r="I8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3950000</v>
+        <v>159900</v>
       </c>
       <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1.6639999999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>96093.75</v>
+      </c>
+      <c r="F9" t="s">
+        <v>418</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H9">
+        <v>14224</v>
+      </c>
+      <c r="I9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>242500</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>1.883</v>
-      </c>
-      <c r="E9" t="s">
-        <v>238</v>
-      </c>
-      <c r="F9" t="s">
-        <v>255</v>
-      </c>
-      <c r="G9" s="1">
-        <v>11963</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>649990</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>1.8</v>
-      </c>
-      <c r="E10" t="s">
+        <v>2.4660000000000002</v>
+      </c>
+      <c r="E10" s="1">
+        <v>98337.388483373797</v>
+      </c>
+      <c r="F10" t="s">
+        <v>445</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="H10">
+        <v>14883</v>
+      </c>
+      <c r="I10" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>149900</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1.278</v>
+      </c>
+      <c r="E11" s="1">
+        <v>117292.64475743299</v>
+      </c>
+      <c r="F11" t="s">
+        <v>450</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H11">
+        <v>14456</v>
+      </c>
+      <c r="I11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>175000</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1.45</v>
+      </c>
+      <c r="E12" s="1">
+        <v>120689.655172413</v>
+      </c>
+      <c r="F12" t="s">
+        <v>349</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H12">
+        <v>13760</v>
+      </c>
+      <c r="I12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>199900</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>123547.58961681</v>
+      </c>
+      <c r="F13" t="s">
+        <v>286</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="F10" t="s">
-        <v>288</v>
-      </c>
-      <c r="G10" s="1">
-        <v>11792</v>
-      </c>
-      <c r="H10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>359900</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>1.752</v>
-      </c>
-      <c r="E11" t="s">
-        <v>270</v>
-      </c>
-      <c r="F11" t="s">
-        <v>256</v>
-      </c>
-      <c r="G11" s="1">
-        <v>12061</v>
-      </c>
-      <c r="H11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>699990</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>2.3109999999999999</v>
-      </c>
-      <c r="E12" t="s">
-        <v>271</v>
-      </c>
-      <c r="F12" t="s">
-        <v>272</v>
-      </c>
-      <c r="G12" s="1">
-        <v>11733</v>
-      </c>
-      <c r="H12" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1049000</v>
-      </c>
-      <c r="B13" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>3.6269999999999998</v>
-      </c>
-      <c r="E13" t="s">
-        <v>273</v>
-      </c>
-      <c r="F13" t="s">
-        <v>274</v>
-      </c>
-      <c r="G13" s="1">
-        <v>11758</v>
-      </c>
-      <c r="H13" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>14428</v>
+      </c>
+      <c r="I13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>219900</v>
+        <v>319900</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -3697,152 +4251,170 @@
         <v>2</v>
       </c>
       <c r="D14">
+        <v>2.4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>133291.66666666599</v>
+      </c>
+      <c r="F14" t="s">
+        <v>388</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H14">
+        <v>12149</v>
+      </c>
+      <c r="I14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>225000</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1.6379999999999999</v>
+      </c>
+      <c r="E15" s="1">
+        <v>137362.637362637</v>
+      </c>
+      <c r="F15" t="s">
+        <v>458</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H15">
+        <v>14217</v>
+      </c>
+      <c r="I15" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>185000</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1.333</v>
+      </c>
+      <c r="E16" s="1">
+        <v>138784.696174043</v>
+      </c>
+      <c r="F16" t="s">
+        <v>364</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="H16">
+        <v>13111</v>
+      </c>
+      <c r="I16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>219900</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
         <v>1.554</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E17" s="1">
+        <v>141505.79150579101</v>
+      </c>
+      <c r="F17" t="s">
         <v>239</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G17" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H17">
         <v>14526</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I17" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>79900</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>199900</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1.363</v>
+      </c>
+      <c r="E18" s="1">
+        <v>146661.77549523101</v>
+      </c>
+      <c r="F18" t="s">
+        <v>409</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H18">
+        <v>14217</v>
+      </c>
+      <c r="I18" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>184900</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
         <v>1</v>
       </c>
-      <c r="D15">
-        <v>1.1040000000000001</v>
-      </c>
-      <c r="E15" t="s">
-        <v>240</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="D19">
+        <v>1.25</v>
+      </c>
+      <c r="E19" s="1">
+        <v>147920</v>
+      </c>
+      <c r="F19" t="s">
+        <v>232</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="G15" s="1">
-        <v>14610</v>
-      </c>
-      <c r="H15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>699000</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>2.2280000000000002</v>
-      </c>
-      <c r="E16" t="s">
-        <v>241</v>
-      </c>
-      <c r="F16" t="s">
-        <v>258</v>
-      </c>
-      <c r="G16" s="1">
-        <v>10607</v>
-      </c>
-      <c r="H16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>474900</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>2.5529999999999999</v>
-      </c>
-      <c r="E17" t="s">
-        <v>242</v>
-      </c>
-      <c r="F17" t="s">
-        <v>259</v>
-      </c>
-      <c r="G17" s="1">
-        <v>14472</v>
-      </c>
-      <c r="H17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>515000</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>2.052</v>
-      </c>
-      <c r="E18" t="s">
-        <v>243</v>
-      </c>
-      <c r="F18" t="s">
-        <v>260</v>
-      </c>
-      <c r="G18" s="1">
-        <v>12603</v>
-      </c>
-      <c r="H18" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>300000</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>1.35</v>
-      </c>
-      <c r="E19" t="s">
-        <v>244</v>
-      </c>
-      <c r="F19" t="s">
-        <v>261</v>
-      </c>
-      <c r="G19" s="1">
-        <v>14895</v>
-      </c>
-      <c r="H19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>14626</v>
+      </c>
+      <c r="I19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>250000</v>
       </c>
@@ -3855,48 +4427,54 @@
       <c r="D20">
         <v>1.6759999999999999</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1">
+        <v>149164.677804295</v>
+      </c>
+      <c r="F20" t="s">
         <v>245</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20">
         <v>11422</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>479900</v>
+        <v>250000</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>2.173</v>
-      </c>
-      <c r="E21" t="s">
-        <v>246</v>
+        <v>1.627</v>
+      </c>
+      <c r="E21" s="1">
+        <v>153657.037492317</v>
       </c>
       <c r="F21" t="s">
-        <v>263</v>
-      </c>
-      <c r="G21" s="1">
-        <v>12487</v>
-      </c>
-      <c r="H21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H21">
+        <v>14559</v>
+      </c>
+      <c r="I21" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1395000</v>
+        <v>397000</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
@@ -3905,24 +4483,27 @@
         <v>3</v>
       </c>
       <c r="D22">
-        <v>1.8069999999999999</v>
-      </c>
-      <c r="E22" t="s">
-        <v>247</v>
+        <v>2.58</v>
+      </c>
+      <c r="E22" s="1">
+        <v>153875.968992248</v>
       </c>
       <c r="F22" t="s">
-        <v>264</v>
-      </c>
-      <c r="G22" s="1">
-        <v>10583</v>
-      </c>
-      <c r="H22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H22">
+        <v>14580</v>
+      </c>
+      <c r="I22" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>649000</v>
+        <v>329900</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -3931,154 +4512,172 @@
         <v>3</v>
       </c>
       <c r="D23">
-        <v>2.04</v>
-      </c>
-      <c r="E23" t="s">
-        <v>265</v>
+        <v>2.1190000000000002</v>
+      </c>
+      <c r="E23" s="1">
+        <v>155686.64464369899</v>
       </c>
       <c r="F23" t="s">
-        <v>266</v>
-      </c>
-      <c r="G23" s="1">
-        <v>10562</v>
-      </c>
-      <c r="H23" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H23">
+        <v>14086</v>
+      </c>
+      <c r="I23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>799999</v>
+        <v>275000</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>2.1360000000000001</v>
-      </c>
-      <c r="E24" t="s">
+        <v>1.732</v>
+      </c>
+      <c r="E24" s="1">
+        <v>158775.98152424899</v>
+      </c>
+      <c r="F24" t="s">
+        <v>353</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H24">
+        <v>14120</v>
+      </c>
+      <c r="I24" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>289900</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>1.8</v>
+      </c>
+      <c r="E25" s="1">
+        <v>161055.55555555501</v>
+      </c>
+      <c r="F25" t="s">
+        <v>288</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="F24" t="s">
-        <v>290</v>
-      </c>
-      <c r="G24" s="1">
-        <v>10312</v>
-      </c>
-      <c r="H24" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1300000</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25">
-        <v>3.6920000000000002</v>
-      </c>
-      <c r="E25" t="s">
-        <v>291</v>
-      </c>
-      <c r="F25" t="s">
-        <v>292</v>
-      </c>
-      <c r="G25" s="1">
-        <v>10990</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="H25">
+        <v>14224</v>
+      </c>
+      <c r="I25" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>199900</v>
+        <v>429900</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
       </c>
       <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>2.649</v>
+      </c>
+      <c r="E26" s="1">
+        <v>162287.655719139</v>
+      </c>
+      <c r="F26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="H26">
+        <v>13827</v>
+      </c>
+      <c r="I26" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>199900</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1.23</v>
+      </c>
+      <c r="E27" s="1">
+        <v>162520.325203252</v>
+      </c>
+      <c r="F27" t="s">
+        <v>401</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H27">
+        <v>14304</v>
+      </c>
+      <c r="I27" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>249900</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
         <v>2</v>
       </c>
-      <c r="D26">
-        <v>1.6180000000000001</v>
-      </c>
-      <c r="E26" t="s">
-        <v>293</v>
-      </c>
-      <c r="F26" t="s">
-        <v>294</v>
-      </c>
-      <c r="G26" s="1">
-        <v>14428</v>
-      </c>
-      <c r="H26" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>289900</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>1.8</v>
-      </c>
-      <c r="E27" t="s">
-        <v>295</v>
-      </c>
-      <c r="F27" t="s">
-        <v>296</v>
-      </c>
-      <c r="G27" s="1">
-        <v>14224</v>
-      </c>
-      <c r="H27" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>424900</v>
-      </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
       <c r="D28">
-        <v>1.956</v>
-      </c>
-      <c r="E28" t="s">
-        <v>297</v>
+        <v>1.482</v>
+      </c>
+      <c r="E28" s="1">
+        <v>168623.481781376</v>
       </c>
       <c r="F28" t="s">
-        <v>298</v>
-      </c>
-      <c r="G28" s="1">
-        <v>12856</v>
-      </c>
-      <c r="H28" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="H28">
+        <v>13413</v>
+      </c>
+      <c r="I28" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>250000</v>
+        <v>249900</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -4087,74 +4686,1826 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>1.627</v>
-      </c>
-      <c r="E29" t="s">
-        <v>299</v>
+        <v>1.48</v>
+      </c>
+      <c r="E29" s="1">
+        <v>168851.35135135101</v>
       </c>
       <c r="F29" t="s">
-        <v>300</v>
-      </c>
-      <c r="G29" s="1">
-        <v>14559</v>
-      </c>
-      <c r="H29" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H29">
+        <v>14226</v>
+      </c>
+      <c r="I29" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2295000</v>
+        <v>265000</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>4.718</v>
-      </c>
-      <c r="E30" t="s">
-        <v>301</v>
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="E30" s="1">
+        <v>169437.34015345201</v>
       </c>
       <c r="F30" t="s">
-        <v>302</v>
-      </c>
-      <c r="G30" s="1">
-        <v>10604</v>
-      </c>
-      <c r="H30" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H30">
+        <v>14618</v>
+      </c>
+      <c r="I30" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>242500</v>
+        <v>725000</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
       </c>
       <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>4.25</v>
+      </c>
+      <c r="E31" s="1">
+        <v>170588.23529411701</v>
+      </c>
+      <c r="F31" t="s">
+        <v>381</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="H31">
+        <v>14850</v>
+      </c>
+      <c r="I31" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>250000</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32">
         <v>2</v>
       </c>
-      <c r="D31">
-        <v>2.4660000000000002</v>
-      </c>
-      <c r="E31" t="s">
-        <v>303</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="D32">
+        <v>1.4650000000000001</v>
+      </c>
+      <c r="E32" s="1">
+        <v>170648.46416382201</v>
+      </c>
+      <c r="F32" t="s">
+        <v>366</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H32">
+        <v>12209</v>
+      </c>
+      <c r="I32" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>424900</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>2.4870000000000001</v>
+      </c>
+      <c r="E33" s="1">
+        <v>170848.41174105299</v>
+      </c>
+      <c r="F33" t="s">
+        <v>362</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H33">
+        <v>14534</v>
+      </c>
+      <c r="I33" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>339000</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>1.8859999999999999</v>
+      </c>
+      <c r="E34" s="1">
+        <v>179745.49310710499</v>
+      </c>
+      <c r="F34" t="s">
+        <v>474</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H34">
+        <v>12203</v>
+      </c>
+      <c r="I34" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>375000</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="E35" s="1">
+        <v>180984.55598455499</v>
+      </c>
+      <c r="F35" t="s">
+        <v>453</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H35">
+        <v>13224</v>
+      </c>
+      <c r="I35" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>474900</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>2.5529999999999999</v>
+      </c>
+      <c r="E36" s="1">
+        <v>186016.451233842</v>
+      </c>
+      <c r="F36" t="s">
+        <v>242</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H36">
+        <v>14472</v>
+      </c>
+      <c r="I36" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>379000</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>2.032</v>
+      </c>
+      <c r="E37" s="1">
+        <v>186515.74803149601</v>
+      </c>
+      <c r="F37" t="s">
+        <v>347</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H37">
+        <v>14059</v>
+      </c>
+      <c r="I37" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>324900</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>1.724</v>
+      </c>
+      <c r="E38" s="1">
+        <v>188457.076566125</v>
+      </c>
+      <c r="F38" t="s">
+        <v>414</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H38">
+        <v>14068</v>
+      </c>
+      <c r="I38" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>459900</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>2.407</v>
+      </c>
+      <c r="E39" s="1">
+        <v>191067.71915247099</v>
+      </c>
+      <c r="F39" t="s">
+        <v>379</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H39">
+        <v>14051</v>
+      </c>
+      <c r="I39" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>269900</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>1.4039999999999999</v>
+      </c>
+      <c r="E40" s="1">
+        <v>192236.467236467</v>
+      </c>
+      <c r="F40" t="s">
+        <v>233</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H40">
+        <v>12306</v>
+      </c>
+      <c r="I40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>289000</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>1.488</v>
+      </c>
+      <c r="E41" s="1">
+        <v>194220.43010752599</v>
+      </c>
+      <c r="F41" t="s">
+        <v>369</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H41">
+        <v>12302</v>
+      </c>
+      <c r="I41" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>475000</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>2.4279999999999999</v>
+      </c>
+      <c r="E42" s="1">
+        <v>195634.26688632599</v>
+      </c>
+      <c r="F42" t="s">
+        <v>443</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H42">
+        <v>14580</v>
+      </c>
+      <c r="I42" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>549900</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>2.7639999999999998</v>
+      </c>
+      <c r="E43" s="1">
+        <v>198950.795947901</v>
+      </c>
+      <c r="F43" t="s">
+        <v>449</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H43">
+        <v>14534</v>
+      </c>
+      <c r="I43" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>549900</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>2.69</v>
+      </c>
+      <c r="E44" s="1">
+        <v>204423.791821561</v>
+      </c>
+      <c r="F44" t="s">
+        <v>383</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H44">
+        <v>14534</v>
+      </c>
+      <c r="I44" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>359900</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>1.752</v>
+      </c>
+      <c r="E45" s="1">
+        <v>205422.37442922301</v>
+      </c>
+      <c r="F45" t="s">
+        <v>270</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H45">
+        <v>12061</v>
+      </c>
+      <c r="I45" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>479000</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>2.3220000000000001</v>
+      </c>
+      <c r="E46" s="1">
+        <v>206287.683031869</v>
+      </c>
+      <c r="F46" t="s">
+        <v>390</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="H46">
+        <v>10512</v>
+      </c>
+      <c r="I46" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>579900</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>2.7370000000000001</v>
+      </c>
+      <c r="E47" s="1">
+        <v>211874.31494336799</v>
+      </c>
+      <c r="F47" t="s">
+        <v>416</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H47">
+        <v>14221</v>
+      </c>
+      <c r="I47" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>245000</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="E48" s="1">
+        <v>212673.61111111101</v>
+      </c>
+      <c r="F48" t="s">
+        <v>351</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H48">
+        <v>12123</v>
+      </c>
+      <c r="I48" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>424900</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>1.956</v>
+      </c>
+      <c r="E49" s="1">
+        <v>217229.038854805</v>
+      </c>
+      <c r="F49" t="s">
+        <v>290</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H49">
+        <v>12856</v>
+      </c>
+      <c r="I49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>479900</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>2.173</v>
+      </c>
+      <c r="E50" s="1">
+        <v>220846.75563736699</v>
+      </c>
+      <c r="F50" t="s">
+        <v>246</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H50">
+        <v>12487</v>
+      </c>
+      <c r="I50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>300000</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>1.35</v>
+      </c>
+      <c r="E51" s="1">
+        <v>222222.22222222199</v>
+      </c>
+      <c r="F51" t="s">
+        <v>244</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H51">
+        <v>14895</v>
+      </c>
+      <c r="I51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>449900</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>2.004</v>
+      </c>
+      <c r="E52" s="1">
+        <v>224500.99800399199</v>
+      </c>
+      <c r="F52" t="s">
+        <v>398</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H52">
+        <v>12019</v>
+      </c>
+      <c r="I52" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>715000</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>3.1680000000000001</v>
+      </c>
+      <c r="E53" s="1">
+        <v>225694.444444444</v>
+      </c>
+      <c r="F53" t="s">
+        <v>408</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="H53">
+        <v>14850</v>
+      </c>
+      <c r="I53" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>749000</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>3.2639999999999998</v>
+      </c>
+      <c r="E54" s="1">
+        <v>229473.039215686</v>
+      </c>
+      <c r="F54" t="s">
+        <v>396</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="H54">
+        <v>12025</v>
+      </c>
+      <c r="I54" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>425000</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>1.8169999999999999</v>
+      </c>
+      <c r="E55" s="1">
+        <v>233902.03632360999</v>
+      </c>
+      <c r="F55" t="s">
+        <v>341</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H55">
+        <v>12553</v>
+      </c>
+      <c r="I55" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>379000</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>1.5549999999999999</v>
+      </c>
+      <c r="E56" s="1">
+        <v>243729.90353697701</v>
+      </c>
+      <c r="F56" t="s">
+        <v>234</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H56">
+        <v>12845</v>
+      </c>
+      <c r="I56" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>515000</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>2.052</v>
+      </c>
+      <c r="E57" s="1">
+        <v>250974.658869395</v>
+      </c>
+      <c r="F57" t="s">
+        <v>243</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H57">
+        <v>12603</v>
+      </c>
+      <c r="I57" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>500000</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>1.99</v>
+      </c>
+      <c r="E58" s="1">
+        <v>251256.28140703501</v>
+      </c>
+      <c r="F58" t="s">
+        <v>235</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H58">
+        <v>12590</v>
+      </c>
+      <c r="I58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>595000</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E59" s="1">
+        <v>270454.545454545</v>
+      </c>
+      <c r="F59" t="s">
+        <v>392</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H59">
+        <v>12566</v>
+      </c>
+      <c r="I59" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1250000</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>4.6159999999999997</v>
+      </c>
+      <c r="E60" s="1">
+        <v>270797.22703639499</v>
+      </c>
+      <c r="F60" t="s">
+        <v>465</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="H60">
+        <v>10541</v>
+      </c>
+      <c r="I60" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1049000</v>
+      </c>
+      <c r="B61" t="s">
+        <v>227</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>3.6269999999999998</v>
+      </c>
+      <c r="E61" s="1">
+        <v>289219.74083264399</v>
+      </c>
+      <c r="F61" t="s">
+        <v>273</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H61">
+        <v>11758</v>
+      </c>
+      <c r="I61" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>999900</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>3.4420000000000002</v>
+      </c>
+      <c r="E62" s="1">
+        <v>290499.70947123697</v>
+      </c>
+      <c r="F62" t="s">
+        <v>459</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="H62">
+        <v>11716</v>
+      </c>
+      <c r="I62" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>300000</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1.008</v>
+      </c>
+      <c r="E63" s="1">
+        <v>297619.04761904699</v>
+      </c>
+      <c r="F63" t="s">
+        <v>386</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H63">
+        <v>12785</v>
+      </c>
+      <c r="I63" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>699990</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>2.3109999999999999</v>
+      </c>
+      <c r="E64" s="1">
+        <v>302894.85071397602</v>
+      </c>
+      <c r="F64" t="s">
+        <v>271</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H64">
+        <v>11733</v>
+      </c>
+      <c r="I64" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>699900</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>2.29</v>
+      </c>
+      <c r="E65" s="1">
+        <v>305633.18777292501</v>
+      </c>
+      <c r="F65" t="s">
+        <v>377</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H65">
+        <v>10567</v>
+      </c>
+      <c r="I65" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>699000</v>
+      </c>
+      <c r="B66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>2.2280000000000002</v>
+      </c>
+      <c r="E66" s="1">
+        <v>313734.290843806</v>
+      </c>
+      <c r="F66" t="s">
+        <v>241</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H66">
+        <v>10607</v>
+      </c>
+      <c r="I66" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>795000</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>2.5209999999999999</v>
+      </c>
+      <c r="E67" s="1">
+        <v>315351.05117017002</v>
+      </c>
+      <c r="F67" t="s">
+        <v>339</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="H67">
+        <v>10956</v>
+      </c>
+      <c r="I67" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>649000</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>2.04</v>
+      </c>
+      <c r="E68" s="1">
+        <v>318137.25490196003</v>
+      </c>
+      <c r="F68" t="s">
+        <v>265</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H68">
+        <v>10562</v>
+      </c>
+      <c r="I68" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>500000</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>1.536</v>
+      </c>
+      <c r="E69" s="1">
+        <v>325520.83333333302</v>
+      </c>
+      <c r="F69" t="s">
+        <v>454</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H69">
+        <v>12589</v>
+      </c>
+      <c r="I69" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>950000</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>2.7</v>
+      </c>
+      <c r="E70" s="1">
+        <v>351851.85185185098</v>
+      </c>
+      <c r="F70" t="s">
+        <v>447</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="H70">
+        <v>10804</v>
+      </c>
+      <c r="I70" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1300000</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>3.6920000000000002</v>
+      </c>
+      <c r="E71" s="1">
+        <v>352112.67605633801</v>
+      </c>
+      <c r="F71" t="s">
+        <v>284</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H71">
+        <v>10990</v>
+      </c>
+      <c r="I71" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>470000</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>1.258</v>
+      </c>
+      <c r="E72" s="1">
+        <v>373608.90302066703</v>
+      </c>
+      <c r="F72" t="s">
+        <v>419</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H72">
+        <v>10573</v>
+      </c>
+      <c r="I72" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>799999</v>
+      </c>
+      <c r="B73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>2.1360000000000001</v>
+      </c>
+      <c r="E73" s="1">
+        <v>374531.36704119801</v>
+      </c>
+      <c r="F73" t="s">
+        <v>282</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H73">
+        <v>10312</v>
+      </c>
+      <c r="I73" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>699000</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>1.819</v>
+      </c>
+      <c r="E74" s="1">
+        <v>384277.07531610702</v>
+      </c>
+      <c r="F74" t="s">
+        <v>404</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H74">
+        <v>11714</v>
+      </c>
+      <c r="I74" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>888000</v>
+      </c>
+      <c r="B75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>2.09</v>
+      </c>
+      <c r="E75" s="1">
+        <v>424880.38277511898</v>
+      </c>
+      <c r="F75" t="s">
+        <v>412</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H75">
+        <v>10952</v>
+      </c>
+      <c r="I75" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>699000</v>
+      </c>
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>1.5589999999999999</v>
+      </c>
+      <c r="E76" s="1">
+        <v>448364.33611289202</v>
+      </c>
+      <c r="F76" t="s">
+        <v>462</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="H76">
+        <v>10701</v>
+      </c>
+      <c r="I76" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>899000</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>1.9079999999999999</v>
+      </c>
+      <c r="E77" s="1">
+        <v>471174.00419287197</v>
+      </c>
+      <c r="F77" t="s">
+        <v>237</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H77">
+        <v>12495</v>
+      </c>
+      <c r="I77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1150000</v>
+      </c>
+      <c r="B78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>2.4</v>
+      </c>
+      <c r="E78" s="1">
+        <v>479166.66666666599</v>
+      </c>
+      <c r="F78" t="s">
+        <v>451</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H78">
+        <v>11743</v>
+      </c>
+      <c r="I78" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1249000</v>
+      </c>
+      <c r="B79" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>2.5819999999999999</v>
+      </c>
+      <c r="E79" s="1">
+        <v>483733.53989155602</v>
+      </c>
+      <c r="F79" t="s">
+        <v>406</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H79">
+        <v>10573</v>
+      </c>
+      <c r="I79" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2295000</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80">
+        <v>4.718</v>
+      </c>
+      <c r="E80" s="1">
+        <v>486434.93005510798</v>
+      </c>
+      <c r="F80" t="s">
+        <v>294</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H80">
+        <v>10604</v>
+      </c>
+      <c r="I80" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2900000</v>
+      </c>
+      <c r="B81" t="s">
+        <v>227</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="D81">
+        <v>5.8079999999999998</v>
+      </c>
+      <c r="E81" s="1">
+        <v>499311.29476583999</v>
+      </c>
+      <c r="F81" t="s">
+        <v>343</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H81">
+        <v>12496</v>
+      </c>
+      <c r="I81" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>799900</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>1.6</v>
+      </c>
+      <c r="E82" s="1">
+        <v>499937.5</v>
+      </c>
+      <c r="F82" t="s">
+        <v>469</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H82">
+        <v>10314</v>
+      </c>
+      <c r="I82" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>16800000</v>
+      </c>
+      <c r="B83" t="s">
+        <v>432</v>
+      </c>
+      <c r="C83">
+        <v>17</v>
+      </c>
+      <c r="D83">
+        <v>33</v>
+      </c>
+      <c r="E83" s="1">
+        <v>509090.909090909</v>
+      </c>
+      <c r="F83" t="s">
+        <v>461</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H83">
+        <v>10304</v>
+      </c>
+      <c r="I83" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2350000</v>
+      </c>
+      <c r="B84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+      <c r="D84">
+        <v>3.99</v>
+      </c>
+      <c r="E84" s="1">
+        <v>588972.43107769405</v>
+      </c>
+      <c r="F84" t="s">
+        <v>472</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="H84">
+        <v>10580</v>
+      </c>
+      <c r="I84" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>898000</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>1.512</v>
+      </c>
+      <c r="E85" s="1">
+        <v>593915.34391534305</v>
+      </c>
+      <c r="F85" t="s">
+        <v>371</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H85">
+        <v>11379</v>
+      </c>
+      <c r="I85" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>675000</v>
+      </c>
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>1.085</v>
+      </c>
+      <c r="E86" s="1">
+        <v>622119.81566820201</v>
+      </c>
+      <c r="F86" t="s">
+        <v>410</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H86">
+        <v>13360</v>
+      </c>
+      <c r="I86" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1259000</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87" s="1">
+        <v>629500</v>
+      </c>
+      <c r="F87" t="s">
+        <v>356</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H87">
+        <v>11971</v>
+      </c>
+      <c r="I87" t="s">
         <v>304</v>
       </c>
-      <c r="G31" s="1">
-        <v>14883</v>
-      </c>
-      <c r="H31" t="s">
-        <v>284</v>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1395000</v>
+      </c>
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>1.8069999999999999</v>
+      </c>
+      <c r="E88" s="1">
+        <v>771997.78638627497</v>
+      </c>
+      <c r="F88" t="s">
+        <v>247</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H88">
+        <v>10583</v>
+      </c>
+      <c r="I88" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2100000</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>2.7</v>
+      </c>
+      <c r="E89" s="1">
+        <v>777777.77777777705</v>
+      </c>
+      <c r="F89" t="s">
+        <v>375</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H89">
+        <v>11937</v>
+      </c>
+      <c r="I89" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>979000</v>
+      </c>
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>1.125</v>
+      </c>
+      <c r="E90" s="1">
+        <v>870222.22222222202</v>
+      </c>
+      <c r="F90" t="s">
+        <v>373</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H90">
+        <v>11040</v>
+      </c>
+      <c r="I90" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>3950000</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>1.883</v>
+      </c>
+      <c r="E91" s="1">
+        <v>2097716.4099840601</v>
+      </c>
+      <c r="F91" t="s">
+        <v>238</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H91">
+        <v>11963</v>
+      </c>
+      <c r="I91" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I91">
+    <sortCondition ref="E1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/PropertyListing.xlsx
+++ b/PropertyListing.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aykut\Documents\UiPath\Bot4_RealEstateWebScraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94D3475-155D-4D74-82C6-02576AC7B749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C24731-EAA0-419E-8DB2-CD9F3BC815E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E21BD628-5F59-4AD9-80D4-4CA013637FBB}"/>
   </bookViews>
   <sheets>
     <sheet name="LAS VEGAS" sheetId="4" r:id="rId1"/>
-    <sheet name="NEW YORK" sheetId="15" r:id="rId2"/>
-    <sheet name="Sayfa1" sheetId="1" r:id="rId3"/>
+    <sheet name="SAN FRANCISCO" sheetId="19" r:id="rId2"/>
+    <sheet name="SAN FRANCISKO" sheetId="17" r:id="rId3"/>
+    <sheet name="NEW YORK" sheetId="15" r:id="rId4"/>
+    <sheet name="Sayfa1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="527">
   <si>
     <t>Price</t>
   </si>
@@ -1452,6 +1454,162 @@
   </si>
   <si>
     <t>13 Tudor Road</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2135-42nd-Ave-San-Francisco-CA-94116/15117036_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/469-Ulloa-St-San-Francisco-CA-94127/15135668_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/25-Admiral-Ave-San-Francisco-CA-94112/15186943_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/212-Howth-St-San-Francisco-CA-94112/15190917_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/418-45th-Ave-San-Francisco-CA-94121/15092742_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2575-14th-Ave-San-Francisco-CA-94127/15123010_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/229-Granville-Way-San-Francisco-CA-94127/15135349_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/266-Pacheco-St-San-Francisco-CA-94116/15132840_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/573-Diamond-St-San-Francisco-CA-94114/15131583_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2502-Leavenworth-St-San-Francisco-CA-94133/15063514_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/117-Banks-St-San-Francisco-CA-94110/15162054_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4319-25th-St-San-Francisco-CA-94114/15181174_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/445-Anderson-St-San-Francisco-CA-94110/15163289_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/25-Appleton-Ave-San-Francisco-CA-94110/15163461_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2438-43rd-Ave-San-Francisco-CA-94116/15121728_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/161-Arbor-St-San-Francisco-CA-94131/15200512_zpid/</t>
+  </si>
+  <si>
+    <t>2135 42nd Ave</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>469 Ulloa St</t>
+  </si>
+  <si>
+    <t>25 Admiral Ave</t>
+  </si>
+  <si>
+    <t>212 Howth St</t>
+  </si>
+  <si>
+    <t>418 45th Ave</t>
+  </si>
+  <si>
+    <t>2575 14th Ave</t>
+  </si>
+  <si>
+    <t>229 Granville Way</t>
+  </si>
+  <si>
+    <t>266 Pacheco St</t>
+  </si>
+  <si>
+    <t>573 Diamond St</t>
+  </si>
+  <si>
+    <t>2502 Leavenworth St</t>
+  </si>
+  <si>
+    <t>117 Banks St</t>
+  </si>
+  <si>
+    <t>4319 25th St</t>
+  </si>
+  <si>
+    <t>445 Anderson St</t>
+  </si>
+  <si>
+    <t>25 Appleton Ave</t>
+  </si>
+  <si>
+    <t>2438 43rd Ave</t>
+  </si>
+  <si>
+    <t>161 Arbor St</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2200-Sacramento-St-APT-208-San-Francisco-CA-94115/15074386_zpid/</t>
+  </si>
+  <si>
+    <t>1 bd</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/989-20th-St-UNIT-567-San-Francisco-CA-94107/111925700_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/22-Vista-View-Ct-San-Francisco-CA-94124/15156878_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2001-McAllister-St-APT-118-San-Francisco-CA-94118/80750188_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/14-16-Museum-Way-San-Francisco-CA-94114/332858214_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/333-Grant-Ave-APT-301-San-Francisco-CA-94108/64971300_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3645-16th-St-San-Francisco-CA-94114/2098075336_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2525-Van-Ness-Ave-402-San-Francisco-CA-94109/347977474_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/146-Bradford-St-San-Francisco-CA-94110/15162149_zpid/</t>
+  </si>
+  <si>
+    <t>2200 Sacramento St APT 208</t>
+  </si>
+  <si>
+    <t>989 20th St UNIT 567</t>
+  </si>
+  <si>
+    <t>22 Vista View Ct</t>
+  </si>
+  <si>
+    <t>2001 McAllister St APT 118</t>
+  </si>
+  <si>
+    <t>14-16 Museum Way</t>
+  </si>
+  <si>
+    <t>333 Grant Ave APT 301</t>
+  </si>
+  <si>
+    <t>3645 16th St</t>
+  </si>
+  <si>
+    <t>2525 Van Ness Ave #402</t>
+  </si>
+  <si>
+    <t>146 Bradford St</t>
   </si>
 </sst>
 </file>
@@ -1497,9 +1655,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3852,10 +4013,349 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076FE9C7-271A-44D4-AF13-F24CB2003576}">
-  <dimension ref="A1:I91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E778A1-9705-4FE3-9794-B77365534E1C}">
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>950000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>934</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1017.13062098501</v>
+      </c>
+      <c r="F2" t="s">
+        <v>523</v>
+      </c>
+      <c r="G2" t="s">
+        <v>492</v>
+      </c>
+      <c r="H2" s="3">
+        <v>94108</v>
+      </c>
+      <c r="I2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>895000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>835</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1071.85628742514</v>
+      </c>
+      <c r="F3" t="s">
+        <v>519</v>
+      </c>
+      <c r="G3" t="s">
+        <v>492</v>
+      </c>
+      <c r="H3" s="3">
+        <v>94107</v>
+      </c>
+      <c r="I3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1095000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>365000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>522</v>
+      </c>
+      <c r="G4" t="s">
+        <v>492</v>
+      </c>
+      <c r="H4" s="3">
+        <v>94114</v>
+      </c>
+      <c r="I4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1100000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>690087.82936009998</v>
+      </c>
+      <c r="F5" t="s">
+        <v>520</v>
+      </c>
+      <c r="G5" t="s">
+        <v>492</v>
+      </c>
+      <c r="H5" s="3">
+        <v>94124</v>
+      </c>
+      <c r="I5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1195000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1.6819999999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>710463.73365041602</v>
+      </c>
+      <c r="F6" t="s">
+        <v>491</v>
+      </c>
+      <c r="G6" t="s">
+        <v>492</v>
+      </c>
+      <c r="H6" s="3">
+        <v>94116</v>
+      </c>
+      <c r="I6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>899000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1.25</v>
+      </c>
+      <c r="E7" s="1">
+        <v>719200</v>
+      </c>
+      <c r="F7" t="s">
+        <v>524</v>
+      </c>
+      <c r="G7" t="s">
+        <v>492</v>
+      </c>
+      <c r="H7" s="3">
+        <v>94114</v>
+      </c>
+      <c r="I7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1499950</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1.883</v>
+      </c>
+      <c r="E8" s="1">
+        <v>796574.61497610097</v>
+      </c>
+      <c r="F8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G8" t="s">
+        <v>492</v>
+      </c>
+      <c r="H8" s="3">
+        <v>94110</v>
+      </c>
+      <c r="I8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>985000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1.0109999999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>974282.88822947501</v>
+      </c>
+      <c r="F9" t="s">
+        <v>521</v>
+      </c>
+      <c r="G9" t="s">
+        <v>492</v>
+      </c>
+      <c r="H9" s="3">
+        <v>94118</v>
+      </c>
+      <c r="I9" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2195000</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1.4059999999999999</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1561166.4295874799</v>
+      </c>
+      <c r="F10" t="s">
+        <v>525</v>
+      </c>
+      <c r="G10" t="s">
+        <v>492</v>
+      </c>
+      <c r="H10" s="3">
+        <v>94109</v>
+      </c>
+      <c r="I10" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1695000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1.05</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1614285.7142857099</v>
+      </c>
+      <c r="F11" t="s">
+        <v>518</v>
+      </c>
+      <c r="G11" t="s">
+        <v>492</v>
+      </c>
+      <c r="H11" s="3">
+        <v>94115</v>
+      </c>
+      <c r="I11" t="s">
+        <v>508</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I11">
+    <sortCondition ref="E1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C3E676-34E5-49BC-9A4C-36A834BE5487}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3894,6 +4394,519 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>995000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>807</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1232.9615861214299</v>
+      </c>
+      <c r="F2" t="s">
+        <v>502</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="H2">
+        <v>94110</v>
+      </c>
+      <c r="I2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>995000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>2.069</v>
+      </c>
+      <c r="E3" s="1">
+        <v>480908.65152247401</v>
+      </c>
+      <c r="F3" t="s">
+        <v>495</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="H3">
+        <v>94112</v>
+      </c>
+      <c r="I3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1050000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1.9490000000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>538737.81426372495</v>
+      </c>
+      <c r="F4" t="s">
+        <v>505</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="H4">
+        <v>94110</v>
+      </c>
+      <c r="I4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1198000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1.7809999999999999</v>
+      </c>
+      <c r="E5" s="1">
+        <v>672655.81134194206</v>
+      </c>
+      <c r="F5" t="s">
+        <v>494</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="H5">
+        <v>94112</v>
+      </c>
+      <c r="I5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1195000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1.6819999999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>710463.73365041602</v>
+      </c>
+      <c r="F6" t="s">
+        <v>491</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="H6">
+        <v>94116</v>
+      </c>
+      <c r="I6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>949000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1.298</v>
+      </c>
+      <c r="E7" s="1">
+        <v>731124.80739599303</v>
+      </c>
+      <c r="F7" t="s">
+        <v>506</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="H7">
+        <v>94116</v>
+      </c>
+      <c r="I7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1795000</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2.2490000000000001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>798132.50333481503</v>
+      </c>
+      <c r="F8" t="s">
+        <v>493</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="H8">
+        <v>94127</v>
+      </c>
+      <c r="I8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2190000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>2.609</v>
+      </c>
+      <c r="E9" s="1">
+        <v>839402.06975852803</v>
+      </c>
+      <c r="F9" t="s">
+        <v>504</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="H9">
+        <v>94110</v>
+      </c>
+      <c r="I9" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1695000</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1.6319999999999999</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1038602.94117647</v>
+      </c>
+      <c r="F10" t="s">
+        <v>507</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="H10">
+        <v>94131</v>
+      </c>
+      <c r="I10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1895000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1.64</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1155487.80487804</v>
+      </c>
+      <c r="F11" t="s">
+        <v>496</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="H11">
+        <v>94121</v>
+      </c>
+      <c r="I11" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1925000</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1.575</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1222222.2222222199</v>
+      </c>
+      <c r="F12" t="s">
+        <v>497</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="H12">
+        <v>94127</v>
+      </c>
+      <c r="I12" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5589000</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>4.5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1242000</v>
+      </c>
+      <c r="F13" t="s">
+        <v>501</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="H13">
+        <v>94133</v>
+      </c>
+      <c r="I13" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2495000</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>1.94</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1286082.4742268</v>
+      </c>
+      <c r="F14" t="s">
+        <v>498</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="H14">
+        <v>94127</v>
+      </c>
+      <c r="I14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3595000</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>2.6920000000000002</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1335438.3358098001</v>
+      </c>
+      <c r="F15" t="s">
+        <v>500</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="H15">
+        <v>94114</v>
+      </c>
+      <c r="I15" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3995000</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>2.8929999999999998</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1380919.4607673599</v>
+      </c>
+      <c r="F16" t="s">
+        <v>503</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="H16">
+        <v>94114</v>
+      </c>
+      <c r="I16" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7750000</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>5.2409999999999997</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1478725.4340774601</v>
+      </c>
+      <c r="F17" t="s">
+        <v>499</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="H17">
+        <v>94116</v>
+      </c>
+      <c r="I17" t="s">
+        <v>482</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I17">
+    <sortCondition ref="E1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076FE9C7-271A-44D4-AF13-F24CB2003576}">
+  <dimension ref="A1:I91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>172500</v>
       </c>
       <c r="B2" t="s">
@@ -6510,7 +7523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1A0B73-251E-4045-9613-64B4E467BCA8}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/PropertyListing.xlsx
+++ b/PropertyListing.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aykut\Documents\UiPath\Bot4_RealEstateWebScraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C24731-EAA0-419E-8DB2-CD9F3BC815E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A38779-E0A1-4F6E-8919-B6290F437F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E21BD628-5F59-4AD9-80D4-4CA013637FBB}"/>
   </bookViews>
   <sheets>
     <sheet name="LAS VEGAS" sheetId="4" r:id="rId1"/>
-    <sheet name="SAN FRANCISCO" sheetId="19" r:id="rId2"/>
-    <sheet name="SAN FRANCISKO" sheetId="17" r:id="rId3"/>
-    <sheet name="NEW YORK" sheetId="15" r:id="rId4"/>
-    <sheet name="Sayfa1" sheetId="1" r:id="rId5"/>
+    <sheet name="AUSTIN" sheetId="22" r:id="rId2"/>
+    <sheet name="SAN FRANCISCO" sheetId="19" r:id="rId3"/>
+    <sheet name="SAN FRANCISKO" sheetId="17" r:id="rId4"/>
+    <sheet name="NEW YORK" sheetId="15" r:id="rId5"/>
+    <sheet name="Sayfa1" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="730">
   <si>
     <t>Price</t>
   </si>
@@ -1610,6 +1611,615 @@
   </si>
   <si>
     <t>146 Bradford St</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7500-Lobelia-Dr-Austin-TX-78729/29572586_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/901-Cypress-Grove-Dr-Austin-TX-78732/241930187_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7517-Springtime-Trl-Austin-TX-78747/58311585_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2003-Sharon-Ln-Austin-TX-78703/29333188_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/10001-Queen-Ct-Austin-TX-78724/29389029_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5608-Woodview-Ave-Austin-TX-78756/29414057_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2721-Barton-Skyw-Austin-TX-78704/29322868_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4904-Tortuga-Pl-Austin-TX-78731/29343241_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7409-Crepe-Myrtle-Dr-Austin-TX-78744/29469848_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/9000-W-Pointer-Ln-Austin-TX-78758/29428478_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7451-Pusch-Ridge-Loop-Austin-TX-78749/29488939_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/11802-River-Oaks-Trl-Austin-TX-78753/29434333_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1406-Ridgemont-Dr-Austin-TX-78723/29406905_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6701-Oasis-Pass-Austin-TX-78732/29365438_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2310-Windsor-Rd-Austin-TX-78703/29331960_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2703-Little-John-Ln-Austin-TX-78704/29462769_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/8205-Alabama-Dr-Austin-TX-78745/29499002_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/12317-Labrador-Bay-Ct-Austin-TX-78732/120899467_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/122-Avenue-B-Moody-TX-76557/347334212_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/9807-Kendal-Dr-Austin-TX-78753/29422962_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7105-Windthorst-Cv-Austin-TX-78736/145656854_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1321-Wilderness-Dr-Austin-TX-78746/29326440_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5912-Hidden-Valley-Trl-Austin-TX-78744/29468549_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1338-Neans-Dr-Austin-TX-78758/29431345_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7410-Shadywood-Dr-Austin-TX-78745/29501259_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2400-Kathy-Cv-Austin-TX-78704/29472502_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/8806-Wildridge-Dr-Austin-TX-78759/58299545_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3433-John-Simpson-Trl-Austin-TX-78732/29359703_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1651-Chippeway-Ln-Austin-TX-78745/29493472_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/606-Genard-St-1-Austin-TX-78751/2055829504_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/8314-Cahill-Dr-Austin-TX-78729/29557302_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3100-Eaneswood-Dr-Austin-TX-78746/29326716_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1706-Goodrich-Ave-2-Austin-TX-78704/337142828_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1714-Bissel-Ln-1-Austin-TX-78745/347675927_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3304-Gilbert-St-Austin-TX-78703/29335896_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/8813-Splitarrow-Dr-Austin-TX-78717/29577825_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/13206-Mansfield-Dr-Austin-TX-78732/29362566_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/200-Secretariat-Dr-Austin-TX-78737/28602034_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7105-Walkup-Ln-Austin-TX-78747/64722403_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/10234-Pinehurst-Dr-Austin-TX-78747/29515125_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4801-Crest-Oak-Rd-Austin-TX-78744/29467389_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/14006-Panorama-Dr-Austin-TX-78732/125745296_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/Austin-TX-78749/29496158_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/community/titan-factory-direct-austin/344791582_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/18709-Alonso-Pl-Austin-TX-78738/241934026_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3018-Perry-Ln-Austin-TX-78731/144168949_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/500-Allende-Bnd-Austin-TX-78748/251033045_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2401-Oakhaven-Cir-Austin-TX-78704/29472295_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2427-Village-Walk-Austin-TX-78744/29466694_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6504-Alum-Rock-Cv-Austin-TX-78747/70342194_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/10905-Rome-Ave-Austin-TX-78747/305428911_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3111-Etheredge-Dr-Austin-TX-78725/70345715_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1503-Romeria-Dr-Austin-TX-78757/29414891_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4702-Crest-Oak-Rd-Austin-TX-78744/29467359_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7411-Fireoak-Dr-Austin-TX-78759/29369923_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4624-Moose-Dr-Austin-TX-78749/29495972_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1300-Village-West-Dr-Austin-TX-78733/29344988_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/13504-Coleto-Creek-Trl-Austin-TX-78732/83831297_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/201-E-Longspur-Blvd-Austin-TX-78753/29427895_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6804-Vallecito-Dr-Austin-TX-78759/29369527_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6102-Parliament-Dr-Austin-TX-78724/62605682_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/704-Valdez-St-1-Austin-TX-78741/338244876_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2707-Cherry-Ln-Austin-TX-78703/29333930_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6208-Belgrave-Dr-Austin-TX-78747/251035655_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3942-Shoal-Creek-Blvd-SUITE-B-Austin-TX-78756/58301643_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3601-Cloudy-Ridge-Rd-Austin-TX-78734/80095871_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1901-Blue-Crest-Dr-1-Austin-TX-78704/346995504_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5816-Abilene-Trl-Austin-TX-78749/29484084_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2707-Friar-Tuck-Ln-Austin-TX-78704/29477038_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2205-Westover-Rd-Austin-TX-78703/29335547_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3811-Ridgelea-Dr-Austin-TX-78731/2086220894_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/11808-Bowery-Pl-Austin-TX-78753/124839803_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/community/titan-factory-direct-austin/344791561_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/12400-Rusted-Nail-Cv-Austin-TX-78750/29554175_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3802-Duval-St-Austin-TX-78751/29399351_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/8213-Spire-Vw-Austin-TX-78744/331624497_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/10500-Avery-Club-Dr-UNIT-7-Austin-TX-78717/88022039_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/606-Genard-St-2-Austin-TX-78751/2055524687_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6807-Skynook-Dr-Austin-TX-78745/29497187_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/158-Country-Creek-Dr-Austin-TX-78737/89407511_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/10500-Larue-Pass-35-Austin-TX-78717/347706216_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1913-Stoneridge-Rd-Austin-TX-78746/29326154_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1101-1-2-Linden-St-2-Austin-TX-78702/347675464_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1611-Arcilla-St-Austin-TX-78741/250997711_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5611-Meadow-Crst-Austin-TX-78744/29468230_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/349-Pear-Tree-Ln-Austin-TX-78737/336749006_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/12505-Presque-Cv-Austin-TX-78726/29370806_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5012-Valburn-Ct-Austin-TX-78731/29358522_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2512-Wooldridge-Dr-Austin-TX-78703/29334886_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7401-Kulmala-Ln-64-Austin-TX-78741/251029898_zpid/</t>
+  </si>
+  <si>
+    <t>7500 Lobelia Dr</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>901 Cypress Grove Dr</t>
+  </si>
+  <si>
+    <t>7517 Springtime Trl</t>
+  </si>
+  <si>
+    <t>2003 Sharon Ln</t>
+  </si>
+  <si>
+    <t>10001 Queen Ct</t>
+  </si>
+  <si>
+    <t>5608 Woodview Ave</t>
+  </si>
+  <si>
+    <t>2721 Barton Skyw</t>
+  </si>
+  <si>
+    <t>4904 Tortuga Pl</t>
+  </si>
+  <si>
+    <t>7409 Crepe Myrtle Dr</t>
+  </si>
+  <si>
+    <t>9000 W Pointer Ln</t>
+  </si>
+  <si>
+    <t>7451 Pusch Ridge Loop</t>
+  </si>
+  <si>
+    <t>11802 River Oaks Trl</t>
+  </si>
+  <si>
+    <t>1406 Ridgemont Dr</t>
+  </si>
+  <si>
+    <t>6701 Oasis Pass</t>
+  </si>
+  <si>
+    <t>2310 Windsor Rd</t>
+  </si>
+  <si>
+    <t>2703 Little John Ln</t>
+  </si>
+  <si>
+    <t>8205 Alabama Dr</t>
+  </si>
+  <si>
+    <t>12317 Labrador Bay Ct</t>
+  </si>
+  <si>
+    <t>122 Avenue B</t>
+  </si>
+  <si>
+    <t>Moody</t>
+  </si>
+  <si>
+    <t>9807 Kendal Dr</t>
+  </si>
+  <si>
+    <t>7105 Windthorst Cv</t>
+  </si>
+  <si>
+    <t>1321 Wilderness Dr</t>
+  </si>
+  <si>
+    <t>5912 Hidden Valley Trl</t>
+  </si>
+  <si>
+    <t>1338 Neans Dr</t>
+  </si>
+  <si>
+    <t>7410 Shadywood Dr</t>
+  </si>
+  <si>
+    <t>2400 Kathy Cv</t>
+  </si>
+  <si>
+    <t>8806 Wildridge Dr</t>
+  </si>
+  <si>
+    <t>3433 John Simpson Trl</t>
+  </si>
+  <si>
+    <t>1651 Chippeway Ln</t>
+  </si>
+  <si>
+    <t>606 Genard St #1</t>
+  </si>
+  <si>
+    <t>8314 Cahill Dr</t>
+  </si>
+  <si>
+    <t>3100 Eaneswood Dr</t>
+  </si>
+  <si>
+    <t>1706 Goodrich Ave #2</t>
+  </si>
+  <si>
+    <t>1714 Bissel Ln #1</t>
+  </si>
+  <si>
+    <t>3304 Gilbert St</t>
+  </si>
+  <si>
+    <t>8813 Splitarrow Dr</t>
+  </si>
+  <si>
+    <t>13206 Mansfield Dr</t>
+  </si>
+  <si>
+    <t>200 Secretariat Dr</t>
+  </si>
+  <si>
+    <t>7105 Walkup Ln</t>
+  </si>
+  <si>
+    <t>10234 Pinehurst Dr</t>
+  </si>
+  <si>
+    <t>4801 Crest Oak Rd</t>
+  </si>
+  <si>
+    <t>14006 Panorama Dr</t>
+  </si>
+  <si>
+    <t>(undisclosed Address)</t>
+  </si>
+  <si>
+    <t>The Talladega Plan</t>
+  </si>
+  <si>
+    <t>Titan Factory Direct - Austin</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/11730-D-K-Ranch-Rd-Austin-TX-78759/29371507_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/8419-Spring-Valley-Dr-Austin-TX-78736/29477900_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6404-Woodhue-Dr-Austin-TX-78745/29493233_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5900-Spartan-Cv-Austin-TX-78759/29364411_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/11603-Shoshone-Dr-Austin-TX-78759/29439376_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2529-Winsted-Ln-Austin-TX-78703/249889668_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/8200-Siringo-Pass-Austin-TX-78749/29487215_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2512-Thornton-Rd-Austin-TX-78704/62607838_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/904-E-Monroe-St-Austin-TX-78704/29459509_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4304-Avenue-A-Austin-TX-78751/29403128_zpid/</t>
+  </si>
+  <si>
+    <t>11730 D K Ranch Rd</t>
+  </si>
+  <si>
+    <t>8419 Spring Valley Dr</t>
+  </si>
+  <si>
+    <t>18709 Alonso Pl</t>
+  </si>
+  <si>
+    <t>3018 Perry Ln</t>
+  </si>
+  <si>
+    <t>500 Allende Bnd</t>
+  </si>
+  <si>
+    <t>2401 Oakhaven Cir</t>
+  </si>
+  <si>
+    <t>2427 Village Walk</t>
+  </si>
+  <si>
+    <t>6504 Alum Rock Cv</t>
+  </si>
+  <si>
+    <t>10905 Rome Ave</t>
+  </si>
+  <si>
+    <t>3111 Etheredge Dr</t>
+  </si>
+  <si>
+    <t>1503 Romeria Dr</t>
+  </si>
+  <si>
+    <t>4702 Crest Oak Rd</t>
+  </si>
+  <si>
+    <t>7411 Fireoak Dr</t>
+  </si>
+  <si>
+    <t>4624 Moose Dr</t>
+  </si>
+  <si>
+    <t>1300 Village West Dr</t>
+  </si>
+  <si>
+    <t>13504 Coleto Creek Trl</t>
+  </si>
+  <si>
+    <t>201 E Longspur Blvd</t>
+  </si>
+  <si>
+    <t>6804 Vallecito Dr</t>
+  </si>
+  <si>
+    <t>6102 Parliament Dr</t>
+  </si>
+  <si>
+    <t>704 Valdez St #1</t>
+  </si>
+  <si>
+    <t>2707 Cherry Ln</t>
+  </si>
+  <si>
+    <t>6208 Belgrave Dr</t>
+  </si>
+  <si>
+    <t>6404 Woodhue Dr</t>
+  </si>
+  <si>
+    <t>3942 Shoal Creek Blvd SUITE B</t>
+  </si>
+  <si>
+    <t>3601 Cloudy Ridge Rd</t>
+  </si>
+  <si>
+    <t>1901 Blue Crest Dr #1</t>
+  </si>
+  <si>
+    <t>5816 Abilene Trl</t>
+  </si>
+  <si>
+    <t>2707 Friar Tuck Ln</t>
+  </si>
+  <si>
+    <t>2205 Westover Rd</t>
+  </si>
+  <si>
+    <t>3811 Ridgelea Dr</t>
+  </si>
+  <si>
+    <t>11808 Bowery Pl</t>
+  </si>
+  <si>
+    <t>The Casablanca Plan</t>
+  </si>
+  <si>
+    <t>5900 Spartan Cv</t>
+  </si>
+  <si>
+    <t>12400 Rusted Nail Cv</t>
+  </si>
+  <si>
+    <t>3802 Duval St</t>
+  </si>
+  <si>
+    <t>8213 Spire Vw</t>
+  </si>
+  <si>
+    <t>10500 Avery Club Dr UNIT 7</t>
+  </si>
+  <si>
+    <t>606 Genard St #2</t>
+  </si>
+  <si>
+    <t>6807 Skynook Dr</t>
+  </si>
+  <si>
+    <t>158 Country Creek Dr</t>
+  </si>
+  <si>
+    <t>10500 Larue Pass #35</t>
+  </si>
+  <si>
+    <t>1913 Stoneridge Rd</t>
+  </si>
+  <si>
+    <t>11603 Shoshone Dr</t>
+  </si>
+  <si>
+    <t>1101 1/2 Linden St #2</t>
+  </si>
+  <si>
+    <t>1611 Arcilla St</t>
+  </si>
+  <si>
+    <t>5611 Meadow Crst</t>
+  </si>
+  <si>
+    <t>349 Pear Tree Ln</t>
+  </si>
+  <si>
+    <t>12505 Presque Cv</t>
+  </si>
+  <si>
+    <t>5012 Valburn Ct</t>
+  </si>
+  <si>
+    <t>2512 Wooldridge Dr</t>
+  </si>
+  <si>
+    <t>7401 Kulmala Ln #64</t>
+  </si>
+  <si>
+    <t>2529 Winsted Ln</t>
+  </si>
+  <si>
+    <t>8200 Siringo Pass</t>
+  </si>
+  <si>
+    <t>2512 Thornton Rd</t>
+  </si>
+  <si>
+    <t>904 E Monroe St</t>
+  </si>
+  <si>
+    <t>4304 Avenue A</t>
   </si>
 </sst>
 </file>
@@ -4013,8 +4623,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E778A1-9705-4FE3-9794-B77365534E1C}">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F49C36-95A5-4626-821C-E8C0FED5D2CD}">
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4055,6 +4665,2955 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>104900</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>850</v>
+      </c>
+      <c r="E2" s="1">
+        <v>123.41176470588201</v>
+      </c>
+      <c r="F2" t="s">
+        <v>705</v>
+      </c>
+      <c r="G2" t="s">
+        <v>663</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>154900</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2.3050000000000002</v>
+      </c>
+      <c r="E3" s="1">
+        <v>67201.735357917496</v>
+      </c>
+      <c r="F3" t="s">
+        <v>662</v>
+      </c>
+      <c r="G3" t="s">
+        <v>663</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>259700</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1.96</v>
+      </c>
+      <c r="E4" s="1">
+        <v>132500</v>
+      </c>
+      <c r="F4" t="s">
+        <v>622</v>
+      </c>
+      <c r="G4" t="s">
+        <v>618</v>
+      </c>
+      <c r="H4" s="3">
+        <v>78724</v>
+      </c>
+      <c r="I4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>359900</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>2.3130000000000002</v>
+      </c>
+      <c r="E5" s="1">
+        <v>155598.78945092901</v>
+      </c>
+      <c r="F5" t="s">
+        <v>620</v>
+      </c>
+      <c r="G5" t="s">
+        <v>618</v>
+      </c>
+      <c r="H5" s="3">
+        <v>78747</v>
+      </c>
+      <c r="I5" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>343000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1.986</v>
+      </c>
+      <c r="E6" s="1">
+        <v>172708.96273917399</v>
+      </c>
+      <c r="F6" t="s">
+        <v>683</v>
+      </c>
+      <c r="G6" t="s">
+        <v>618</v>
+      </c>
+      <c r="H6" s="3">
+        <v>78725</v>
+      </c>
+      <c r="I6" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>400000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2.2530000000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>177541.05636928501</v>
+      </c>
+      <c r="F7" t="s">
+        <v>695</v>
+      </c>
+      <c r="G7" t="s">
+        <v>618</v>
+      </c>
+      <c r="H7" s="3">
+        <v>78747</v>
+      </c>
+      <c r="I7" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>375000</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1.992</v>
+      </c>
+      <c r="E8" s="1">
+        <v>188253.012048192</v>
+      </c>
+      <c r="F8" t="s">
+        <v>682</v>
+      </c>
+      <c r="G8" t="s">
+        <v>618</v>
+      </c>
+      <c r="H8" s="3">
+        <v>78747</v>
+      </c>
+      <c r="I8" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>650000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>3.3359999999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>194844.12470023899</v>
+      </c>
+      <c r="F9" t="s">
+        <v>649</v>
+      </c>
+      <c r="G9" t="s">
+        <v>618</v>
+      </c>
+      <c r="H9" s="3">
+        <v>78729</v>
+      </c>
+      <c r="I9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>200000</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1.026</v>
+      </c>
+      <c r="E10" s="1">
+        <v>194931.77387914201</v>
+      </c>
+      <c r="F10" t="s">
+        <v>641</v>
+      </c>
+      <c r="G10" t="s">
+        <v>618</v>
+      </c>
+      <c r="H10" s="3">
+        <v>78744</v>
+      </c>
+      <c r="I10" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>543000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>2.74</v>
+      </c>
+      <c r="E11" s="1">
+        <v>198175.18248175099</v>
+      </c>
+      <c r="F11" t="s">
+        <v>678</v>
+      </c>
+      <c r="G11" t="s">
+        <v>618</v>
+      </c>
+      <c r="H11" s="3">
+        <v>78748</v>
+      </c>
+      <c r="I11" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>310000</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>1.5580000000000001</v>
+      </c>
+      <c r="E12" s="1">
+        <v>198973.04236200199</v>
+      </c>
+      <c r="F12" t="s">
+        <v>626</v>
+      </c>
+      <c r="G12" t="s">
+        <v>618</v>
+      </c>
+      <c r="H12" s="3">
+        <v>78744</v>
+      </c>
+      <c r="I12" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>639900</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>3.2050000000000001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>199656.78627144999</v>
+      </c>
+      <c r="F13" t="s">
+        <v>617</v>
+      </c>
+      <c r="G13" t="s">
+        <v>618</v>
+      </c>
+      <c r="H13" s="3">
+        <v>78729</v>
+      </c>
+      <c r="I13" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>289990</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1.399</v>
+      </c>
+      <c r="E14" s="1">
+        <v>207283.774124374</v>
+      </c>
+      <c r="F14" t="s">
+        <v>636</v>
+      </c>
+      <c r="G14" t="s">
+        <v>637</v>
+      </c>
+      <c r="H14" s="3">
+        <v>76557</v>
+      </c>
+      <c r="I14" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>615000</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>2.964</v>
+      </c>
+      <c r="E15" s="1">
+        <v>207489.87854251001</v>
+      </c>
+      <c r="F15" t="s">
+        <v>713</v>
+      </c>
+      <c r="G15" t="s">
+        <v>618</v>
+      </c>
+      <c r="H15" s="3">
+        <v>78737</v>
+      </c>
+      <c r="I15" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>615000</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>2.867</v>
+      </c>
+      <c r="E16" s="1">
+        <v>214509.94070456899</v>
+      </c>
+      <c r="F16" t="s">
+        <v>654</v>
+      </c>
+      <c r="G16" t="s">
+        <v>618</v>
+      </c>
+      <c r="H16" s="3">
+        <v>78717</v>
+      </c>
+      <c r="I16" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>585000</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="E17" s="1">
+        <v>219429.85746436601</v>
+      </c>
+      <c r="F17" t="s">
+        <v>687</v>
+      </c>
+      <c r="G17" t="s">
+        <v>618</v>
+      </c>
+      <c r="H17" s="3">
+        <v>78749</v>
+      </c>
+      <c r="I17" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>615000</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>2.7839999999999998</v>
+      </c>
+      <c r="E18" s="1">
+        <v>220905.17241379301</v>
+      </c>
+      <c r="F18" t="s">
+        <v>704</v>
+      </c>
+      <c r="G18" t="s">
+        <v>618</v>
+      </c>
+      <c r="H18" s="3">
+        <v>78753</v>
+      </c>
+      <c r="I18" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>325000</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1.4490000000000001</v>
+      </c>
+      <c r="E19" s="1">
+        <v>224292.61559696301</v>
+      </c>
+      <c r="F19" t="s">
+        <v>690</v>
+      </c>
+      <c r="G19" t="s">
+        <v>618</v>
+      </c>
+      <c r="H19" s="3">
+        <v>78753</v>
+      </c>
+      <c r="I19" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>390000</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1.7210000000000001</v>
+      </c>
+      <c r="E20" s="1">
+        <v>226612.43463102801</v>
+      </c>
+      <c r="F20" t="s">
+        <v>719</v>
+      </c>
+      <c r="G20" t="s">
+        <v>618</v>
+      </c>
+      <c r="H20" s="3">
+        <v>78744</v>
+      </c>
+      <c r="I20" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>460000</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>1.998</v>
+      </c>
+      <c r="E21" s="1">
+        <v>230230.23023022999</v>
+      </c>
+      <c r="F21" t="s">
+        <v>675</v>
+      </c>
+      <c r="G21" t="s">
+        <v>618</v>
+      </c>
+      <c r="H21" s="3">
+        <v>78736</v>
+      </c>
+      <c r="I21" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>349900</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>1.456</v>
+      </c>
+      <c r="E22" s="1">
+        <v>240315.93406593401</v>
+      </c>
+      <c r="F22" t="s">
+        <v>638</v>
+      </c>
+      <c r="G22" t="s">
+        <v>618</v>
+      </c>
+      <c r="H22" s="3">
+        <v>78753</v>
+      </c>
+      <c r="I22" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>950000</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>3.871</v>
+      </c>
+      <c r="E23" s="1">
+        <v>245414.62154481999</v>
+      </c>
+      <c r="F23" t="s">
+        <v>720</v>
+      </c>
+      <c r="G23" t="s">
+        <v>618</v>
+      </c>
+      <c r="H23" s="3">
+        <v>78737</v>
+      </c>
+      <c r="I23" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>650000</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="E24" s="1">
+        <v>246679.316888045</v>
+      </c>
+      <c r="F24" t="s">
+        <v>658</v>
+      </c>
+      <c r="G24" t="s">
+        <v>618</v>
+      </c>
+      <c r="H24" s="3">
+        <v>78747</v>
+      </c>
+      <c r="I24" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>309900</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>1.236</v>
+      </c>
+      <c r="E25" s="1">
+        <v>250728.155339805</v>
+      </c>
+      <c r="F25" t="s">
+        <v>657</v>
+      </c>
+      <c r="G25" t="s">
+        <v>618</v>
+      </c>
+      <c r="H25" s="3">
+        <v>78747</v>
+      </c>
+      <c r="I25" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>329900</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1.3140000000000001</v>
+      </c>
+      <c r="E26" s="1">
+        <v>251065.449010654</v>
+      </c>
+      <c r="F26" t="s">
+        <v>681</v>
+      </c>
+      <c r="G26" t="s">
+        <v>618</v>
+      </c>
+      <c r="H26" s="3">
+        <v>78747</v>
+      </c>
+      <c r="I26" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>450000</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>1.7869999999999999</v>
+      </c>
+      <c r="E27" s="1">
+        <v>251818.690542809</v>
+      </c>
+      <c r="F27" t="s">
+        <v>714</v>
+      </c>
+      <c r="G27" t="s">
+        <v>618</v>
+      </c>
+      <c r="H27" s="3">
+        <v>78717</v>
+      </c>
+      <c r="I27" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>545000</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>2.105</v>
+      </c>
+      <c r="E28" s="1">
+        <v>258907.36342042699</v>
+      </c>
+      <c r="F28" t="s">
+        <v>709</v>
+      </c>
+      <c r="G28" t="s">
+        <v>618</v>
+      </c>
+      <c r="H28" s="3">
+        <v>78744</v>
+      </c>
+      <c r="I28" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>430000</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>1.653</v>
+      </c>
+      <c r="E29" s="1">
+        <v>260133.09134906199</v>
+      </c>
+      <c r="F29" t="s">
+        <v>685</v>
+      </c>
+      <c r="G29" t="s">
+        <v>618</v>
+      </c>
+      <c r="H29" s="3">
+        <v>78744</v>
+      </c>
+      <c r="I29" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>750000</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>2.863</v>
+      </c>
+      <c r="E30" s="1">
+        <v>261962.97589940601</v>
+      </c>
+      <c r="F30" t="s">
+        <v>677</v>
+      </c>
+      <c r="G30" t="s">
+        <v>618</v>
+      </c>
+      <c r="H30" s="3">
+        <v>78731</v>
+      </c>
+      <c r="I30" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>549995</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>2.0390000000000001</v>
+      </c>
+      <c r="E31" s="1">
+        <v>269737.61647866498</v>
+      </c>
+      <c r="F31" t="s">
+        <v>642</v>
+      </c>
+      <c r="G31" t="s">
+        <v>618</v>
+      </c>
+      <c r="H31" s="3">
+        <v>78758</v>
+      </c>
+      <c r="I31" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>615000</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>2.2570000000000001</v>
+      </c>
+      <c r="E32" s="1">
+        <v>272485.60035445198</v>
+      </c>
+      <c r="F32" t="s">
+        <v>686</v>
+      </c>
+      <c r="G32" t="s">
+        <v>618</v>
+      </c>
+      <c r="H32" s="3">
+        <v>78759</v>
+      </c>
+      <c r="I32" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>299000</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>1.093</v>
+      </c>
+      <c r="E33" s="1">
+        <v>273559.01189387002</v>
+      </c>
+      <c r="F33" t="s">
+        <v>680</v>
+      </c>
+      <c r="G33" t="s">
+        <v>618</v>
+      </c>
+      <c r="H33" s="3">
+        <v>78744</v>
+      </c>
+      <c r="I33" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>550000</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>1.9710000000000001</v>
+      </c>
+      <c r="E34" s="1">
+        <v>279046.16945712798</v>
+      </c>
+      <c r="F34" t="s">
+        <v>718</v>
+      </c>
+      <c r="G34" t="s">
+        <v>618</v>
+      </c>
+      <c r="H34" s="3">
+        <v>78741</v>
+      </c>
+      <c r="I34" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>600000</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>2.0859999999999999</v>
+      </c>
+      <c r="E35" s="1">
+        <v>287631.831255992</v>
+      </c>
+      <c r="F35" t="s">
+        <v>707</v>
+      </c>
+      <c r="G35" t="s">
+        <v>618</v>
+      </c>
+      <c r="H35" s="3">
+        <v>78750</v>
+      </c>
+      <c r="I35" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>615000</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>2.137</v>
+      </c>
+      <c r="E36" s="1">
+        <v>287786.616752456</v>
+      </c>
+      <c r="F36" t="s">
+        <v>726</v>
+      </c>
+      <c r="G36" t="s">
+        <v>618</v>
+      </c>
+      <c r="H36" s="3">
+        <v>78749</v>
+      </c>
+      <c r="I36" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>995000</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>3.431</v>
+      </c>
+      <c r="E37" s="1">
+        <v>290002.91460215597</v>
+      </c>
+      <c r="F37" t="s">
+        <v>676</v>
+      </c>
+      <c r="G37" t="s">
+        <v>618</v>
+      </c>
+      <c r="H37" s="3">
+        <v>78738</v>
+      </c>
+      <c r="I37" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>799000</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>2.7370000000000001</v>
+      </c>
+      <c r="E38" s="1">
+        <v>291925.46583850897</v>
+      </c>
+      <c r="F38" t="s">
+        <v>646</v>
+      </c>
+      <c r="G38" t="s">
+        <v>618</v>
+      </c>
+      <c r="H38" s="3">
+        <v>78732</v>
+      </c>
+      <c r="I38" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>550000</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>1.877</v>
+      </c>
+      <c r="E39" s="1">
+        <v>293020.77783697302</v>
+      </c>
+      <c r="F39" t="s">
+        <v>643</v>
+      </c>
+      <c r="G39" t="s">
+        <v>618</v>
+      </c>
+      <c r="H39" s="3">
+        <v>78745</v>
+      </c>
+      <c r="I39" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>359000</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>1.216</v>
+      </c>
+      <c r="E40" s="1">
+        <v>295230.26315789402</v>
+      </c>
+      <c r="F40" t="s">
+        <v>692</v>
+      </c>
+      <c r="G40" t="s">
+        <v>618</v>
+      </c>
+      <c r="H40" s="3">
+        <v>78724</v>
+      </c>
+      <c r="I40" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>549900</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>1.845</v>
+      </c>
+      <c r="E41" s="1">
+        <v>298048.78048780398</v>
+      </c>
+      <c r="F41" t="s">
+        <v>700</v>
+      </c>
+      <c r="G41" t="s">
+        <v>618</v>
+      </c>
+      <c r="H41" s="3">
+        <v>78749</v>
+      </c>
+      <c r="I41" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1275000</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>4.2610000000000001</v>
+      </c>
+      <c r="E42" s="1">
+        <v>299225.53391222702</v>
+      </c>
+      <c r="F42" t="s">
+        <v>689</v>
+      </c>
+      <c r="G42" t="s">
+        <v>618</v>
+      </c>
+      <c r="H42" s="3">
+        <v>78732</v>
+      </c>
+      <c r="I42" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>415000</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>1.3839999999999999</v>
+      </c>
+      <c r="E43" s="1">
+        <v>299855.49132947897</v>
+      </c>
+      <c r="F43" t="s">
+        <v>629</v>
+      </c>
+      <c r="G43" t="s">
+        <v>618</v>
+      </c>
+      <c r="H43" s="3">
+        <v>78753</v>
+      </c>
+      <c r="I43" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1350000</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>4.431</v>
+      </c>
+      <c r="E44" s="1">
+        <v>304671.63168584899</v>
+      </c>
+      <c r="F44" t="s">
+        <v>710</v>
+      </c>
+      <c r="G44" t="s">
+        <v>618</v>
+      </c>
+      <c r="H44" s="3">
+        <v>78717</v>
+      </c>
+      <c r="I44" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1275000</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>4.0919999999999996</v>
+      </c>
+      <c r="E45" s="1">
+        <v>311583.57771261001</v>
+      </c>
+      <c r="F45" t="s">
+        <v>656</v>
+      </c>
+      <c r="G45" t="s">
+        <v>618</v>
+      </c>
+      <c r="H45" s="3">
+        <v>78737</v>
+      </c>
+      <c r="I45" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1000000</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>3.1859999999999999</v>
+      </c>
+      <c r="E46" s="1">
+        <v>313873.19522912701</v>
+      </c>
+      <c r="F46" t="s">
+        <v>635</v>
+      </c>
+      <c r="G46" t="s">
+        <v>618</v>
+      </c>
+      <c r="H46" s="3">
+        <v>78732</v>
+      </c>
+      <c r="I46" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>565000</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>1.7909999999999999</v>
+      </c>
+      <c r="E47" s="1">
+        <v>315466.21998883301</v>
+      </c>
+      <c r="F47" t="s">
+        <v>661</v>
+      </c>
+      <c r="G47" t="s">
+        <v>618</v>
+      </c>
+      <c r="H47" s="3">
+        <v>78749</v>
+      </c>
+      <c r="I47" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>490900</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>1.548</v>
+      </c>
+      <c r="E48" s="1">
+        <v>317118.86304909497</v>
+      </c>
+      <c r="F48" t="s">
+        <v>712</v>
+      </c>
+      <c r="G48" t="s">
+        <v>618</v>
+      </c>
+      <c r="H48" s="3">
+        <v>78745</v>
+      </c>
+      <c r="I48" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>428999</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>1.35</v>
+      </c>
+      <c r="E49" s="1">
+        <v>317777.03703703702</v>
+      </c>
+      <c r="F49" t="s">
+        <v>696</v>
+      </c>
+      <c r="G49" t="s">
+        <v>618</v>
+      </c>
+      <c r="H49" s="3">
+        <v>78745</v>
+      </c>
+      <c r="I49" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1050000</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>3.3039999999999998</v>
+      </c>
+      <c r="E50" s="1">
+        <v>317796.61016949097</v>
+      </c>
+      <c r="F50" t="s">
+        <v>721</v>
+      </c>
+      <c r="G50" t="s">
+        <v>618</v>
+      </c>
+      <c r="H50" s="3">
+        <v>78726</v>
+      </c>
+      <c r="I50" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>385000</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>1.1950000000000001</v>
+      </c>
+      <c r="E51" s="1">
+        <v>322175.73221757298</v>
+      </c>
+      <c r="F51" t="s">
+        <v>659</v>
+      </c>
+      <c r="G51" t="s">
+        <v>618</v>
+      </c>
+      <c r="H51" s="3">
+        <v>78744</v>
+      </c>
+      <c r="I51" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>509000</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>1.5620000000000001</v>
+      </c>
+      <c r="E52" s="1">
+        <v>325864.27656850102</v>
+      </c>
+      <c r="F52" t="s">
+        <v>634</v>
+      </c>
+      <c r="G52" t="s">
+        <v>618</v>
+      </c>
+      <c r="H52" s="3">
+        <v>78745</v>
+      </c>
+      <c r="I52" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>525000</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>1.599</v>
+      </c>
+      <c r="E53" s="1">
+        <v>328330.20637898601</v>
+      </c>
+      <c r="F53" t="s">
+        <v>724</v>
+      </c>
+      <c r="G53" t="s">
+        <v>618</v>
+      </c>
+      <c r="H53" s="3">
+        <v>78741</v>
+      </c>
+      <c r="I53" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>850000</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>2.5790000000000002</v>
+      </c>
+      <c r="E54" s="1">
+        <v>329585.11050794797</v>
+      </c>
+      <c r="F54" t="s">
+        <v>706</v>
+      </c>
+      <c r="G54" t="s">
+        <v>618</v>
+      </c>
+      <c r="H54" s="3">
+        <v>78759</v>
+      </c>
+      <c r="I54" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>850000</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>2.5760000000000001</v>
+      </c>
+      <c r="E55" s="1">
+        <v>329968.94409937802</v>
+      </c>
+      <c r="F55" t="s">
+        <v>639</v>
+      </c>
+      <c r="G55" t="s">
+        <v>618</v>
+      </c>
+      <c r="H55" s="3">
+        <v>78736</v>
+      </c>
+      <c r="I55" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>582000</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="E56" s="1">
+        <v>347670.250896057</v>
+      </c>
+      <c r="F56" t="s">
+        <v>693</v>
+      </c>
+      <c r="G56" t="s">
+        <v>618</v>
+      </c>
+      <c r="H56" s="3">
+        <v>78741</v>
+      </c>
+      <c r="I56" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>534900</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>1.522</v>
+      </c>
+      <c r="E57" s="1">
+        <v>351445.46649145801</v>
+      </c>
+      <c r="F57" t="s">
+        <v>628</v>
+      </c>
+      <c r="G57" t="s">
+        <v>618</v>
+      </c>
+      <c r="H57" s="3">
+        <v>78749</v>
+      </c>
+      <c r="I57" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>725000</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>2.0449999999999999</v>
+      </c>
+      <c r="E58" s="1">
+        <v>354523.22738386301</v>
+      </c>
+      <c r="F58" t="s">
+        <v>652</v>
+      </c>
+      <c r="G58" t="s">
+        <v>618</v>
+      </c>
+      <c r="H58" s="3">
+        <v>78745</v>
+      </c>
+      <c r="I58" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>649999</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>1.772</v>
+      </c>
+      <c r="E59" s="1">
+        <v>366816.59142212098</v>
+      </c>
+      <c r="F59" t="s">
+        <v>647</v>
+      </c>
+      <c r="G59" t="s">
+        <v>618</v>
+      </c>
+      <c r="H59" s="3">
+        <v>78745</v>
+      </c>
+      <c r="I59" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>900000</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>2.452</v>
+      </c>
+      <c r="E60" s="1">
+        <v>367047.30831973901</v>
+      </c>
+      <c r="F60" t="s">
+        <v>708</v>
+      </c>
+      <c r="G60" t="s">
+        <v>618</v>
+      </c>
+      <c r="H60" s="3">
+        <v>78751</v>
+      </c>
+      <c r="I60" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>850000</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="E61" s="1">
+        <v>373626.37362637301</v>
+      </c>
+      <c r="F61" t="s">
+        <v>674</v>
+      </c>
+      <c r="G61" t="s">
+        <v>618</v>
+      </c>
+      <c r="H61" s="3">
+        <v>78759</v>
+      </c>
+      <c r="I61" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>539000</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>1.4330000000000001</v>
+      </c>
+      <c r="E62" s="1">
+        <v>376133.98464759201</v>
+      </c>
+      <c r="F62" t="s">
+        <v>630</v>
+      </c>
+      <c r="G62" t="s">
+        <v>618</v>
+      </c>
+      <c r="H62" s="3">
+        <v>78723</v>
+      </c>
+      <c r="I62" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>699999</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="E63" s="1">
+        <v>385886.990077177</v>
+      </c>
+      <c r="F63" t="s">
+        <v>627</v>
+      </c>
+      <c r="G63" t="s">
+        <v>618</v>
+      </c>
+      <c r="H63" s="3">
+        <v>78758</v>
+      </c>
+      <c r="I63" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1899000</v>
+      </c>
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64">
+        <v>6</v>
+      </c>
+      <c r="D64">
+        <v>4.8390000000000004</v>
+      </c>
+      <c r="E64" s="1">
+        <v>392436.45381277101</v>
+      </c>
+      <c r="F64" t="s">
+        <v>631</v>
+      </c>
+      <c r="G64" t="s">
+        <v>618</v>
+      </c>
+      <c r="H64" s="3">
+        <v>78732</v>
+      </c>
+      <c r="I64" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1749000</v>
+      </c>
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <v>4.43</v>
+      </c>
+      <c r="E65" s="1">
+        <v>394808.12641083502</v>
+      </c>
+      <c r="F65" t="s">
+        <v>660</v>
+      </c>
+      <c r="G65" t="s">
+        <v>618</v>
+      </c>
+      <c r="H65" s="3">
+        <v>78732</v>
+      </c>
+      <c r="I65" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>995000</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>2.4420000000000002</v>
+      </c>
+      <c r="E66" s="1">
+        <v>407452.90745290701</v>
+      </c>
+      <c r="F66" t="s">
+        <v>655</v>
+      </c>
+      <c r="G66" t="s">
+        <v>618</v>
+      </c>
+      <c r="H66" s="3">
+        <v>78732</v>
+      </c>
+      <c r="I66" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>765000</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>1.873</v>
+      </c>
+      <c r="E67" s="1">
+        <v>408435.66470902198</v>
+      </c>
+      <c r="F67" t="s">
+        <v>727</v>
+      </c>
+      <c r="G67" t="s">
+        <v>618</v>
+      </c>
+      <c r="H67" s="3">
+        <v>78704</v>
+      </c>
+      <c r="I67" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>575000</v>
+      </c>
+      <c r="B68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>1.3979999999999999</v>
+      </c>
+      <c r="E68" s="1">
+        <v>411301.85979971301</v>
+      </c>
+      <c r="F68" t="s">
+        <v>697</v>
+      </c>
+      <c r="G68" t="s">
+        <v>618</v>
+      </c>
+      <c r="H68" s="3">
+        <v>78756</v>
+      </c>
+      <c r="I68" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>694888</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>1.6779999999999999</v>
+      </c>
+      <c r="E69" s="1">
+        <v>414116.805721096</v>
+      </c>
+      <c r="F69" t="s">
+        <v>691</v>
+      </c>
+      <c r="G69" t="s">
+        <v>618</v>
+      </c>
+      <c r="H69" s="3">
+        <v>78759</v>
+      </c>
+      <c r="I69" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>529900</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>1.272</v>
+      </c>
+      <c r="E70" s="1">
+        <v>416588.05031446501</v>
+      </c>
+      <c r="F70" t="s">
+        <v>716</v>
+      </c>
+      <c r="G70" t="s">
+        <v>618</v>
+      </c>
+      <c r="H70" s="3">
+        <v>78759</v>
+      </c>
+      <c r="I70" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1195000</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>2.798</v>
+      </c>
+      <c r="E71" s="1">
+        <v>427090.77912794799</v>
+      </c>
+      <c r="F71" t="s">
+        <v>715</v>
+      </c>
+      <c r="G71" t="s">
+        <v>618</v>
+      </c>
+      <c r="H71" s="3">
+        <v>78746</v>
+      </c>
+      <c r="I71" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1850000</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>4.1980000000000004</v>
+      </c>
+      <c r="E72" s="1">
+        <v>440686.04097189102</v>
+      </c>
+      <c r="F72" t="s">
+        <v>688</v>
+      </c>
+      <c r="G72" t="s">
+        <v>618</v>
+      </c>
+      <c r="H72" s="3">
+        <v>78733</v>
+      </c>
+      <c r="I72" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>875000</v>
+      </c>
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>1.788</v>
+      </c>
+      <c r="E73" s="1">
+        <v>489373.60178970901</v>
+      </c>
+      <c r="F73" t="s">
+        <v>728</v>
+      </c>
+      <c r="G73" t="s">
+        <v>618</v>
+      </c>
+      <c r="H73" s="3">
+        <v>78704</v>
+      </c>
+      <c r="I73" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1198000</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>2.4119999999999999</v>
+      </c>
+      <c r="E74" s="1">
+        <v>496683.25041459303</v>
+      </c>
+      <c r="F74" t="s">
+        <v>645</v>
+      </c>
+      <c r="G74" t="s">
+        <v>618</v>
+      </c>
+      <c r="H74" s="3">
+        <v>78759</v>
+      </c>
+      <c r="I74" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1285000</v>
+      </c>
+      <c r="B75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E75" s="1">
+        <v>503921.56862745102</v>
+      </c>
+      <c r="F75" t="s">
+        <v>703</v>
+      </c>
+      <c r="G75" t="s">
+        <v>618</v>
+      </c>
+      <c r="H75" s="3">
+        <v>78731</v>
+      </c>
+      <c r="I75" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1425000</v>
+      </c>
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>2.8220000000000001</v>
+      </c>
+      <c r="E76" s="1">
+        <v>504961.02055279899</v>
+      </c>
+      <c r="F76" t="s">
+        <v>725</v>
+      </c>
+      <c r="G76" t="s">
+        <v>618</v>
+      </c>
+      <c r="H76" s="3">
+        <v>78703</v>
+      </c>
+      <c r="I76" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1200000</v>
+      </c>
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <v>2.363</v>
+      </c>
+      <c r="E77" s="1">
+        <v>507829.03089293197</v>
+      </c>
+      <c r="F77" t="s">
+        <v>648</v>
+      </c>
+      <c r="G77" t="s">
+        <v>618</v>
+      </c>
+      <c r="H77" s="3">
+        <v>78751</v>
+      </c>
+      <c r="I77" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>3100000</v>
+      </c>
+      <c r="B78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>5.8470000000000004</v>
+      </c>
+      <c r="E78" s="1">
+        <v>530186.42038652301</v>
+      </c>
+      <c r="F78" t="s">
+        <v>619</v>
+      </c>
+      <c r="G78" t="s">
+        <v>618</v>
+      </c>
+      <c r="H78" s="3">
+        <v>78732</v>
+      </c>
+      <c r="I78" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1698000</v>
+      </c>
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>3.1829999999999998</v>
+      </c>
+      <c r="E79" s="1">
+        <v>533459.00094250694</v>
+      </c>
+      <c r="F79" t="s">
+        <v>722</v>
+      </c>
+      <c r="G79" t="s">
+        <v>618</v>
+      </c>
+      <c r="H79" s="3">
+        <v>78731</v>
+      </c>
+      <c r="I79" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>815000</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>1.4219999999999999</v>
+      </c>
+      <c r="E80" s="1">
+        <v>573136.42756680702</v>
+      </c>
+      <c r="F80" t="s">
+        <v>701</v>
+      </c>
+      <c r="G80" t="s">
+        <v>618</v>
+      </c>
+      <c r="H80" s="3">
+        <v>78704</v>
+      </c>
+      <c r="I80" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>660000</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>1.099</v>
+      </c>
+      <c r="E81" s="1">
+        <v>600545.95086442202</v>
+      </c>
+      <c r="F81" t="s">
+        <v>711</v>
+      </c>
+      <c r="G81" t="s">
+        <v>618</v>
+      </c>
+      <c r="H81" s="3">
+        <v>78751</v>
+      </c>
+      <c r="I81" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1499000</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>2.4409999999999998</v>
+      </c>
+      <c r="E82" s="1">
+        <v>614092.58500614495</v>
+      </c>
+      <c r="F82" t="s">
+        <v>699</v>
+      </c>
+      <c r="G82" t="s">
+        <v>618</v>
+      </c>
+      <c r="H82" s="3">
+        <v>78704</v>
+      </c>
+      <c r="I82" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>649000</v>
+      </c>
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>1.054</v>
+      </c>
+      <c r="E83" s="1">
+        <v>615749.52561669797</v>
+      </c>
+      <c r="F83" t="s">
+        <v>717</v>
+      </c>
+      <c r="G83" t="s">
+        <v>618</v>
+      </c>
+      <c r="H83" s="3">
+        <v>78702</v>
+      </c>
+      <c r="I83" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1490000</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>2.3879999999999999</v>
+      </c>
+      <c r="E84" s="1">
+        <v>623953.09882746998</v>
+      </c>
+      <c r="F84" t="s">
+        <v>653</v>
+      </c>
+      <c r="G84" t="s">
+        <v>618</v>
+      </c>
+      <c r="H84" s="3">
+        <v>78703</v>
+      </c>
+      <c r="I84" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1287000</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>2.0129999999999999</v>
+      </c>
+      <c r="E85" s="1">
+        <v>639344.26229508198</v>
+      </c>
+      <c r="F85" t="s">
+        <v>729</v>
+      </c>
+      <c r="G85" t="s">
+        <v>618</v>
+      </c>
+      <c r="H85" s="3">
+        <v>78751</v>
+      </c>
+      <c r="I85" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2050000</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>3.1320000000000001</v>
+      </c>
+      <c r="E86" s="1">
+        <v>654533.84418901603</v>
+      </c>
+      <c r="F86" t="s">
+        <v>702</v>
+      </c>
+      <c r="G86" t="s">
+        <v>618</v>
+      </c>
+      <c r="H86" s="3">
+        <v>78703</v>
+      </c>
+      <c r="I86" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>750000</v>
+      </c>
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="E87" s="1">
+        <v>676895.30685920501</v>
+      </c>
+      <c r="F87" t="s">
+        <v>651</v>
+      </c>
+      <c r="G87" t="s">
+        <v>618</v>
+      </c>
+      <c r="H87" s="3">
+        <v>78704</v>
+      </c>
+      <c r="I87" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1150000</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>1.677</v>
+      </c>
+      <c r="E88" s="1">
+        <v>685748.360166964</v>
+      </c>
+      <c r="F88" t="s">
+        <v>684</v>
+      </c>
+      <c r="G88" t="s">
+        <v>618</v>
+      </c>
+      <c r="H88" s="3">
+        <v>78757</v>
+      </c>
+      <c r="I88" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>6995000</v>
+      </c>
+      <c r="B89" t="s">
+        <v>227</v>
+      </c>
+      <c r="C89">
+        <v>7</v>
+      </c>
+      <c r="D89">
+        <v>9.6739999999999995</v>
+      </c>
+      <c r="E89" s="1">
+        <v>723072.15216042998</v>
+      </c>
+      <c r="F89" t="s">
+        <v>698</v>
+      </c>
+      <c r="G89" t="s">
+        <v>618</v>
+      </c>
+      <c r="H89" s="3">
+        <v>78734</v>
+      </c>
+      <c r="I89" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>3359000</v>
+      </c>
+      <c r="B90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="D90">
+        <v>4.6130000000000004</v>
+      </c>
+      <c r="E90" s="1">
+        <v>728159.54910036805</v>
+      </c>
+      <c r="F90" t="s">
+        <v>623</v>
+      </c>
+      <c r="G90" t="s">
+        <v>618</v>
+      </c>
+      <c r="H90" s="3">
+        <v>78756</v>
+      </c>
+      <c r="I90" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>3800000</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91">
+        <v>6</v>
+      </c>
+      <c r="D91">
+        <v>4.9859999999999998</v>
+      </c>
+      <c r="E91" s="1">
+        <v>762133.975130365</v>
+      </c>
+      <c r="F91" t="s">
+        <v>632</v>
+      </c>
+      <c r="G91" t="s">
+        <v>618</v>
+      </c>
+      <c r="H91" s="3">
+        <v>78703</v>
+      </c>
+      <c r="I91" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2395000</v>
+      </c>
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+      <c r="D92">
+        <v>3.1059999999999999</v>
+      </c>
+      <c r="E92" s="1">
+        <v>771088.21635544102</v>
+      </c>
+      <c r="F92" t="s">
+        <v>640</v>
+      </c>
+      <c r="G92" t="s">
+        <v>618</v>
+      </c>
+      <c r="H92" s="3">
+        <v>78746</v>
+      </c>
+      <c r="I92" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1895000</v>
+      </c>
+      <c r="B93" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>2.3650000000000002</v>
+      </c>
+      <c r="E93" s="1">
+        <v>801268.49894291698</v>
+      </c>
+      <c r="F93" t="s">
+        <v>650</v>
+      </c>
+      <c r="G93" t="s">
+        <v>618</v>
+      </c>
+      <c r="H93" s="3">
+        <v>78746</v>
+      </c>
+      <c r="I93" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2995000</v>
+      </c>
+      <c r="B94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94">
+        <v>5</v>
+      </c>
+      <c r="D94">
+        <v>3.6880000000000002</v>
+      </c>
+      <c r="E94" s="1">
+        <v>812093.27548806905</v>
+      </c>
+      <c r="F94" t="s">
+        <v>644</v>
+      </c>
+      <c r="G94" t="s">
+        <v>618</v>
+      </c>
+      <c r="H94" s="3">
+        <v>78704</v>
+      </c>
+      <c r="I94" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2995000</v>
+      </c>
+      <c r="B95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95">
+        <v>5</v>
+      </c>
+      <c r="D95">
+        <v>3.5670000000000002</v>
+      </c>
+      <c r="E95" s="1">
+        <v>839641.15503223997</v>
+      </c>
+      <c r="F95" t="s">
+        <v>694</v>
+      </c>
+      <c r="G95" t="s">
+        <v>618</v>
+      </c>
+      <c r="H95" s="3">
+        <v>78703</v>
+      </c>
+      <c r="I95" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>3495000</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="E96" s="1">
+        <v>844202.89855072403</v>
+      </c>
+      <c r="F96" t="s">
+        <v>723</v>
+      </c>
+      <c r="G96" t="s">
+        <v>618</v>
+      </c>
+      <c r="H96" s="3">
+        <v>78703</v>
+      </c>
+      <c r="I96" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2950000</v>
+      </c>
+      <c r="B97" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97">
+        <v>5</v>
+      </c>
+      <c r="D97">
+        <v>3.4750000000000001</v>
+      </c>
+      <c r="E97" s="1">
+        <v>848920.86330935196</v>
+      </c>
+      <c r="F97" t="s">
+        <v>633</v>
+      </c>
+      <c r="G97" t="s">
+        <v>618</v>
+      </c>
+      <c r="H97" s="3">
+        <v>78704</v>
+      </c>
+      <c r="I97" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>5495000</v>
+      </c>
+      <c r="B98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98">
+        <v>8</v>
+      </c>
+      <c r="D98">
+        <v>5.52</v>
+      </c>
+      <c r="E98" s="1">
+        <v>995471.01449275296</v>
+      </c>
+      <c r="F98" t="s">
+        <v>621</v>
+      </c>
+      <c r="G98" t="s">
+        <v>618</v>
+      </c>
+      <c r="H98" s="3">
+        <v>78703</v>
+      </c>
+      <c r="I98" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>4500000</v>
+      </c>
+      <c r="B99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99">
+        <v>5</v>
+      </c>
+      <c r="D99">
+        <v>4.5</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="F99" t="s">
+        <v>679</v>
+      </c>
+      <c r="G99" t="s">
+        <v>618</v>
+      </c>
+      <c r="H99" s="3">
+        <v>78704</v>
+      </c>
+      <c r="I99" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>4500000</v>
+      </c>
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100">
+        <v>5</v>
+      </c>
+      <c r="D100">
+        <v>4.1840000000000002</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1075525.8126195001</v>
+      </c>
+      <c r="F100" t="s">
+        <v>624</v>
+      </c>
+      <c r="G100" t="s">
+        <v>618</v>
+      </c>
+      <c r="H100" s="3">
+        <v>78704</v>
+      </c>
+      <c r="I100" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>26995000</v>
+      </c>
+      <c r="B101" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101">
+        <v>7</v>
+      </c>
+      <c r="D101">
+        <v>9.3520000000000003</v>
+      </c>
+      <c r="E101" s="1">
+        <v>2886548.3319076099</v>
+      </c>
+      <c r="F101" t="s">
+        <v>625</v>
+      </c>
+      <c r="G101" t="s">
+        <v>618</v>
+      </c>
+      <c r="H101" s="3">
+        <v>78731</v>
+      </c>
+      <c r="I101" t="s">
+        <v>534</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I101">
+    <sortCondition ref="E1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E778A1-9705-4FE3-9794-B77365534E1C}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>950000</v>
       </c>
       <c r="B2" t="s">
@@ -4075,7 +7634,7 @@
       <c r="G2" t="s">
         <v>492</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>94108</v>
       </c>
       <c r="I2" t="s">
@@ -4104,7 +7663,7 @@
       <c r="G3" t="s">
         <v>492</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>94107</v>
       </c>
       <c r="I3" t="s">
@@ -4133,7 +7692,7 @@
       <c r="G4" t="s">
         <v>492</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>94114</v>
       </c>
       <c r="I4" t="s">
@@ -4162,7 +7721,7 @@
       <c r="G5" t="s">
         <v>492</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>94124</v>
       </c>
       <c r="I5" t="s">
@@ -4191,7 +7750,7 @@
       <c r="G6" t="s">
         <v>492</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>94116</v>
       </c>
       <c r="I6" t="s">
@@ -4220,7 +7779,7 @@
       <c r="G7" t="s">
         <v>492</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>94114</v>
       </c>
       <c r="I7" t="s">
@@ -4249,7 +7808,7 @@
       <c r="G8" t="s">
         <v>492</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>94110</v>
       </c>
       <c r="I8" t="s">
@@ -4278,7 +7837,7 @@
       <c r="G9" t="s">
         <v>492</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>94118</v>
       </c>
       <c r="I9" t="s">
@@ -4307,7 +7866,7 @@
       <c r="G10" t="s">
         <v>492</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>94109</v>
       </c>
       <c r="I10" t="s">
@@ -4336,7 +7895,7 @@
       <c r="G11" t="s">
         <v>492</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>94115</v>
       </c>
       <c r="I11" t="s">
@@ -4351,7 +7910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C3E676-34E5-49BC-9A4C-36A834BE5487}">
   <dimension ref="A1:I17"/>
   <sheetViews>
@@ -4864,7 +8423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076FE9C7-271A-44D4-AF13-F24CB2003576}">
   <dimension ref="A1:I91"/>
   <sheetViews>
@@ -7523,7 +11082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1A0B73-251E-4045-9613-64B4E467BCA8}">
   <dimension ref="A1"/>
   <sheetViews>
